--- a/Weights_2022.xlsx
+++ b/Weights_2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\streamlit-gfe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\streamlit-inflation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED7B90D-FCF4-4EE1-89EF-0B16EF0C5F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC2BAAB-1988-4996-A0C8-490867ED0B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1294">
   <si>
     <t>Tüketici fiyat endeksi (2003=100) 2022 yılı ana grup ve madde ağırlıkları (Türkiye)</t>
   </si>
@@ -4164,6 +4164,9 @@
     <t>Diğer fırıncılık ürünleri (bisküvi, kek, kraker, yufka, baklava vb.)</t>
   </si>
   <si>
+    <t>Makarna Çeşitleri</t>
+  </si>
+  <si>
     <t>Kahvaltılık tahıl ürünleri</t>
   </si>
   <si>
@@ -4173,6 +4176,9 @@
     <t>Şarküteri ürünleri (sucuk, sosis, salam vb.)</t>
   </si>
   <si>
+    <t>Taze Balık</t>
+  </si>
+  <si>
     <t>Konserve edilmiş veya işlenmiş balık</t>
   </si>
   <si>
@@ -4188,6 +4194,9 @@
     <t>Sıvı yağlar (zeytinyağı, ayçiçek yağı)</t>
   </si>
   <si>
+    <t>Taze Meyveler</t>
+  </si>
+  <si>
     <t>Kuru meyve ve sert kabuklu yemişler</t>
   </si>
   <si>
@@ -4209,6 +4218,9 @@
     <t>Çikolata ve şekerlemeler</t>
   </si>
   <si>
+    <t>Başka yerde sınıflandırılamayan diğer gıda ürünleri (tuz, sirke, ketçap, mayonez vb.)</t>
+  </si>
+  <si>
     <t>Çay ve bitki çayları</t>
   </si>
   <si>
@@ -4222,27 +4234,6 @@
   </si>
   <si>
     <t>Meyve ve sebze suları</t>
-  </si>
-  <si>
-    <t>Makarna çeşitleri</t>
-  </si>
-  <si>
-    <t>Dana eti</t>
-  </si>
-  <si>
-    <t>Kuzu eti</t>
-  </si>
-  <si>
-    <t>Tavuk eti</t>
-  </si>
-  <si>
-    <t>Taze balık</t>
-  </si>
-  <si>
-    <t>Taze meyveler</t>
-  </si>
-  <si>
-    <t>Başka yerde sınıflandırılamayan diğer gıda ürünleri (tuz, kabartma maddeleri, sirke, ketçap, mayonez vb.)</t>
   </si>
 </sst>
 </file>
@@ -4251,7 +4242,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -4376,7 +4367,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4469,16 +4460,29 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -63901,8 +63905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F55F94E-7669-44BC-B5AD-777700EFA1D6}">
   <dimension ref="A1:W448"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121:M122"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -64248,10 +64252,10 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
@@ -64281,7 +64285,7 @@
       <c r="E5" s="12"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
@@ -64298,28 +64302,28 @@
         <f>D6/25.3156</f>
         <v>1.0129318467642954E-2</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="P6" s="39">
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="48"/>
+      <c r="P6" s="41">
         <v>1.2067000000000001</v>
       </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="48"/>
     </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -64336,28 +64340,28 @@
         <f t="shared" ref="E7:E70" si="0">D7/25.3156</f>
         <v>2.0351801171589013E-2</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="44" t="s">
         <v>1268</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="P7" s="39">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="48"/>
+      <c r="P7" s="44">
         <v>2.3153000000000001</v>
       </c>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="48"/>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
@@ -64374,24 +64378,24 @@
         <f t="shared" si="0"/>
         <v>5.0064578872262167E-3</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
@@ -64408,24 +64412,24 @@
         <f t="shared" si="0"/>
         <v>5.9517944126020409E-3</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
@@ -64442,28 +64446,28 @@
         <f t="shared" si="0"/>
         <v>0.10027261948183333</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="P10" s="39">
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="P10" s="41">
         <v>8.7763000000000009</v>
       </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
     </row>
-    <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
@@ -64480,28 +64484,28 @@
         <f t="shared" si="0"/>
         <v>1.1025373854694015E-2</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="44" t="s">
         <v>1269</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="P11" s="39">
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="40"/>
+      <c r="P11" s="44">
         <v>4.7308000000000003</v>
       </c>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="40"/>
     </row>
-    <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>26</v>
       </c>
@@ -64518,24 +64522,24 @@
         <f t="shared" si="0"/>
         <v>2.263129088432906E-3</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="40"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="40"/>
     </row>
-    <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>29</v>
       </c>
@@ -64552,24 +64556,24 @@
         <f t="shared" si="0"/>
         <v>5.8905783856776604E-3</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="40"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="40"/>
     </row>
-    <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>32</v>
       </c>
@@ -64586,24 +64590,24 @@
         <f t="shared" si="0"/>
         <v>1.100018117271942E-2</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="40"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="40"/>
     </row>
-    <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>35</v>
       </c>
@@ -64620,24 +64624,24 @@
         <f t="shared" si="0"/>
         <v>3.0890763948928971E-3</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="40"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="40"/>
     </row>
-    <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>38</v>
       </c>
@@ -64654,24 +64658,24 @@
         <f t="shared" si="0"/>
         <v>1.3699821492367882E-2</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="40"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="40"/>
     </row>
-    <row r="17" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>41</v>
       </c>
@@ -64688,24 +64692,24 @@
         <f t="shared" si="0"/>
         <v>4.0132933101309134E-3</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="40"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="40"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>44</v>
       </c>
@@ -64722,28 +64726,28 @@
         <f t="shared" si="0"/>
         <v>7.8254434760840139E-3</v>
       </c>
-      <c r="F18" s="39" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="P18" s="39">
+      <c r="F18" s="44" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="P18" s="44">
         <v>0.89810000000000001</v>
       </c>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>47</v>
       </c>
@@ -64760,24 +64764,24 @@
         <f t="shared" si="0"/>
         <v>1.0980533332734569E-3</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>50</v>
       </c>
@@ -64794,28 +64798,28 @@
         <f t="shared" si="0"/>
         <v>1.2314444393460554E-3</v>
       </c>
-      <c r="F20" s="39" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="P20" s="39">
+      <c r="F20" s="44" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="P20" s="44">
         <v>0.15190000000000001</v>
       </c>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>53</v>
       </c>
@@ -64832,28 +64836,28 @@
         <f t="shared" si="0"/>
         <v>8.4988933383112378E-2</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="P21" s="39">
+      <c r="F21" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="P21" s="44">
         <v>9.1193000000000008</v>
       </c>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>56</v>
       </c>
@@ -64870,28 +64874,28 @@
         <f t="shared" si="0"/>
         <v>3.6142641019490586E-2</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="P22" s="39">
+      <c r="F22" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="P22" s="44">
         <v>3.6798000000000002</v>
       </c>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>59</v>
       </c>
@@ -64908,28 +64912,28 @@
         <f t="shared" si="0"/>
         <v>5.5391154083784699E-2</v>
       </c>
-      <c r="F23" s="39" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="P23" s="39">
+      <c r="F23" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="P23" s="44">
         <v>5.6840999999999999</v>
       </c>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>62</v>
       </c>
@@ -64946,28 +64950,28 @@
         <f t="shared" si="0"/>
         <v>2.2665025630622701E-3</v>
       </c>
-      <c r="F24" s="39" t="s">
-        <v>1271</v>
-      </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="P24" s="39">
+      <c r="F24" s="44" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="P24" s="44">
         <v>0.30980000000000002</v>
       </c>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>65</v>
       </c>
@@ -64984,28 +64988,28 @@
         <f t="shared" si="0"/>
         <v>1.6969158280165667E-2</v>
       </c>
-      <c r="F25" s="39" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="P25" s="39">
+      <c r="F25" s="44" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="P25" s="44">
         <v>2.7145999999999999</v>
       </c>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>68</v>
       </c>
@@ -65022,24 +65026,24 @@
         <f t="shared" si="0"/>
         <v>1.8560135042418671E-3</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>71</v>
       </c>
@@ -65056,24 +65060,24 @@
         <f t="shared" si="0"/>
         <v>3.2798370479288348E-3</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>74</v>
       </c>
@@ -65090,24 +65094,24 @@
         <f t="shared" si="0"/>
         <v>3.9897704335667963E-3</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>77</v>
       </c>
@@ -65124,28 +65128,28 @@
         <f t="shared" si="0"/>
         <v>1.4875143387962798E-2</v>
       </c>
-      <c r="F29" s="39" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="P29" s="39">
+      <c r="F29" s="44" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G29" s="44"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="P29" s="44">
         <v>1.0806</v>
       </c>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>80</v>
       </c>
@@ -65162,26 +65166,26 @@
         <f t="shared" si="0"/>
         <v>1.0638296987707659E-3</v>
       </c>
-      <c r="F30" s="39" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="P30" s="39">
+      <c r="F30" s="44" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="P30" s="44">
         <v>0.1221</v>
       </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -65200,28 +65204,28 @@
         <f t="shared" si="0"/>
         <v>2.9445923311867066E-2</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="P31" s="41">
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="P31" s="45">
         <v>2.5091999999999999</v>
       </c>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>86</v>
       </c>
@@ -65238,28 +65242,28 @@
         <f t="shared" si="0"/>
         <v>2.3196487715608491E-2</v>
       </c>
-      <c r="F32" s="39" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="P32" s="39">
+      <c r="F32" s="44" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="P32" s="44">
         <v>2.1776</v>
       </c>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>89</v>
       </c>
@@ -65276,24 +65280,24 @@
         <f t="shared" si="0"/>
         <v>1.1223073244939735E-3</v>
       </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>92</v>
       </c>
@@ -65310,28 +65314,28 @@
         <f t="shared" si="0"/>
         <v>3.2721768484480267E-2</v>
       </c>
-      <c r="F34" s="39" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="P34" s="39">
+      <c r="F34" s="44" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="P34" s="44">
         <v>5.6692</v>
       </c>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>95</v>
       </c>
@@ -65348,24 +65352,24 @@
         <f t="shared" si="0"/>
         <v>1.5331794106503085E-2</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>98</v>
       </c>
@@ -65382,24 +65386,24 @@
         <f t="shared" si="0"/>
         <v>6.323587098002308E-3</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>101</v>
       </c>
@@ -65416,22 +65420,22 @@
         <f t="shared" si="0"/>
         <v>2.4659911591076184E-3</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
@@ -65450,26 +65454,26 @@
         <f t="shared" si="0"/>
         <v>3.2113321643360691E-2</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="P38" s="41">
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="P38" s="45">
         <v>2.7397</v>
       </c>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
@@ -65488,26 +65492,26 @@
         <f t="shared" si="0"/>
         <v>1.3108020412051898E-2</v>
       </c>
-      <c r="F39" s="41" t="s">
-        <v>1276</v>
-      </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="P39" s="41">
+      <c r="F39" s="45" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="P39" s="45">
         <v>1.321</v>
       </c>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
     </row>
     <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
@@ -65526,26 +65530,26 @@
         <f t="shared" si="0"/>
         <v>4.8261293898731218E-3</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="P40" s="41">
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="P40" s="45">
         <v>0.28939999999999999</v>
       </c>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
@@ -65564,26 +65568,26 @@
         <f t="shared" si="0"/>
         <v>1.6601877641921465E-2</v>
       </c>
-      <c r="F41" s="39" t="s">
-        <v>1277</v>
-      </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="P41" s="39">
+      <c r="F41" s="44" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="P41" s="44">
         <v>4.1473000000000004</v>
       </c>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
@@ -65602,22 +65606,22 @@
         <f t="shared" si="0"/>
         <v>3.4377586311511998E-2</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
@@ -65636,26 +65640,26 @@
         <f t="shared" si="0"/>
         <v>6.2149088665026343E-3</v>
       </c>
-      <c r="F43" s="39" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="P43" s="39">
+      <c r="F43" s="44" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="P43" s="44">
         <v>7.4531000000000001</v>
       </c>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
@@ -65674,22 +65678,22 @@
         <f t="shared" si="0"/>
         <v>5.2834859436338508E-3</v>
       </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
@@ -65708,22 +65712,22 @@
         <f t="shared" si="0"/>
         <v>2.031631046298308E-3</v>
       </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
@@ -65742,22 +65746,22 @@
         <f t="shared" si="0"/>
         <v>7.5373855180317151E-4</v>
       </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
@@ -65776,22 +65780,22 @@
         <f t="shared" si="0"/>
         <v>2.8124594092554323E-3</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
@@ -65810,22 +65814,22 @@
         <f t="shared" si="0"/>
         <v>8.494495410179095E-3</v>
       </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
@@ -65844,22 +65848,22 @@
         <f t="shared" si="0"/>
         <v>8.7274901850951363E-3</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
     </row>
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
@@ -65878,22 +65882,22 @@
         <f t="shared" si="0"/>
         <v>4.0116942404753823E-3</v>
       </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
@@ -65912,22 +65916,22 @@
         <f t="shared" si="0"/>
         <v>6.0276484785121815E-4</v>
       </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
@@ -65946,22 +65950,22 @@
         <f t="shared" si="0"/>
         <v>4.2594572223640624E-3</v>
       </c>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
@@ -65980,22 +65984,22 @@
         <f t="shared" si="0"/>
         <v>5.8854736701786535E-3</v>
       </c>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
@@ -66014,22 +66018,22 @@
         <f t="shared" si="0"/>
         <v>1.1648160383657694E-2</v>
       </c>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -66048,22 +66052,22 @@
         <f t="shared" si="0"/>
         <v>1.038847789702615E-3</v>
       </c>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
@@ -66082,22 +66086,22 @@
         <f t="shared" si="0"/>
         <v>2.7748083453887802E-3</v>
       </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
+      <c r="W56" s="44"/>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
@@ -66116,26 +66120,26 @@
         <f t="shared" si="0"/>
         <v>1.8625723461661507E-3</v>
       </c>
-      <c r="F57" s="39" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="P57" s="39">
+      <c r="F57" s="44" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="P57" s="44">
         <v>3.1848999999999998</v>
       </c>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="44"/>
     </row>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -66154,22 +66158,22 @@
         <f t="shared" si="0"/>
         <v>8.5348767674558734E-3</v>
       </c>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
@@ -66188,22 +66192,22 @@
         <f t="shared" si="0"/>
         <v>3.1068999499606008E-3</v>
       </c>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
@@ -66222,22 +66226,22 @@
         <f t="shared" si="0"/>
         <v>2.074966657171494E-3</v>
       </c>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="44"/>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
@@ -66256,22 +66260,22 @@
         <f t="shared" si="0"/>
         <v>4.0351426383338947E-3</v>
       </c>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="44"/>
+      <c r="W61" s="44"/>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
@@ -66290,22 +66294,22 @@
         <f t="shared" si="0"/>
         <v>1.6836751315674034E-3</v>
       </c>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="44"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="44"/>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
@@ -66324,22 +66328,22 @@
         <f t="shared" si="0"/>
         <v>7.6213923702837371E-3</v>
       </c>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
@@ -66358,22 +66362,22 @@
         <f t="shared" si="0"/>
         <v>1.4419361965507657E-3</v>
       </c>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
     </row>
     <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
@@ -66392,22 +66396,22 @@
         <f t="shared" si="0"/>
         <v>1.5105340010418437E-3</v>
       </c>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
     </row>
     <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
@@ -66426,22 +66430,22 @@
         <f t="shared" si="0"/>
         <v>1.4900354049172228E-3</v>
       </c>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="44"/>
+      <c r="W66" s="44"/>
     </row>
     <row r="67" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
@@ -66460,26 +66464,26 @@
         <f t="shared" si="0"/>
         <v>1.8230943240911048E-3</v>
       </c>
-      <c r="F67" s="39" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="P67" s="39">
+      <c r="F67" s="44" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="P67" s="44">
         <v>10.5219</v>
       </c>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
@@ -66498,22 +66502,22 @@
         <f t="shared" si="0"/>
         <v>1.7260222943693221E-3</v>
       </c>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="44"/>
     </row>
     <row r="69" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
@@ -66532,22 +66536,22 @@
         <f t="shared" si="0"/>
         <v>6.1046068774752498E-3</v>
       </c>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="44"/>
+      <c r="V69" s="44"/>
+      <c r="W69" s="44"/>
     </row>
     <row r="70" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
@@ -66566,22 +66570,22 @@
         <f t="shared" si="0"/>
         <v>4.5638339162874325E-4</v>
       </c>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
+      <c r="W70" s="44"/>
     </row>
     <row r="71" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
@@ -66600,22 +66604,22 @@
         <f t="shared" ref="E71:E133" si="1">D71/25.3156</f>
         <v>2.6642884040434817E-2</v>
       </c>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
-      <c r="W71" s="39"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
+      <c r="W71" s="44"/>
     </row>
     <row r="72" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
@@ -66634,22 +66638,22 @@
         <f t="shared" si="1"/>
         <v>4.0745288556989362E-3</v>
       </c>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44"/>
+      <c r="V72" s="44"/>
+      <c r="W72" s="44"/>
     </row>
     <row r="73" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
@@ -66668,22 +66672,22 @@
         <f t="shared" si="1"/>
         <v>2.6291777205351132E-3</v>
       </c>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="44"/>
+      <c r="U73" s="44"/>
+      <c r="V73" s="44"/>
+      <c r="W73" s="44"/>
     </row>
     <row r="74" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -66702,22 +66706,22 @@
         <f t="shared" si="1"/>
         <v>2.4169813718144498E-3</v>
       </c>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="44"/>
+      <c r="U74" s="44"/>
+      <c r="V74" s="44"/>
+      <c r="W74" s="44"/>
     </row>
     <row r="75" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
@@ -66736,22 +66740,22 @@
         <f t="shared" si="1"/>
         <v>2.0113790678469297E-3</v>
       </c>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
+      <c r="U75" s="44"/>
+      <c r="V75" s="44"/>
+      <c r="W75" s="44"/>
     </row>
     <row r="76" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
@@ -66770,22 +66774,22 @@
         <f t="shared" si="1"/>
         <v>1.5928167106646553E-3</v>
       </c>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="44"/>
+      <c r="T76" s="44"/>
+      <c r="U76" s="44"/>
+      <c r="V76" s="44"/>
+      <c r="W76" s="44"/>
     </row>
     <row r="77" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
@@ -66804,22 +66808,22 @@
         <f t="shared" si="1"/>
         <v>8.93928526838755E-3</v>
       </c>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
-      <c r="W77" s="39"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
+      <c r="U77" s="44"/>
+      <c r="V77" s="44"/>
+      <c r="W77" s="44"/>
     </row>
     <row r="78" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -66838,22 +66842,22 @@
         <f t="shared" si="1"/>
         <v>1.4136498051078854E-3</v>
       </c>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="44"/>
+      <c r="U78" s="44"/>
+      <c r="V78" s="44"/>
+      <c r="W78" s="44"/>
     </row>
     <row r="79" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
@@ -66872,22 +66876,22 @@
         <f t="shared" si="1"/>
         <v>5.5109265198360999E-4</v>
       </c>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="44"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="44"/>
+      <c r="U79" s="44"/>
+      <c r="V79" s="44"/>
+      <c r="W79" s="44"/>
     </row>
     <row r="80" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
@@ -66906,22 +66910,22 @@
         <f t="shared" si="1"/>
         <v>1.9717806977418203E-3</v>
       </c>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="39"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="44"/>
+      <c r="T80" s="44"/>
+      <c r="U80" s="44"/>
+      <c r="V80" s="44"/>
+      <c r="W80" s="44"/>
     </row>
     <row r="81" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
@@ -66940,22 +66944,22 @@
         <f t="shared" si="1"/>
         <v>2.6256789103385925E-3</v>
       </c>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
-      <c r="W81" s="39"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44"/>
+      <c r="R81" s="44"/>
+      <c r="S81" s="44"/>
+      <c r="T81" s="44"/>
+      <c r="U81" s="44"/>
+      <c r="V81" s="44"/>
+      <c r="W81" s="44"/>
     </row>
     <row r="82" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
@@ -66974,22 +66978,22 @@
         <f t="shared" si="1"/>
         <v>2.0229045077588353E-3</v>
       </c>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="39"/>
-      <c r="R82" s="39"/>
-      <c r="S82" s="39"/>
-      <c r="T82" s="39"/>
-      <c r="U82" s="39"/>
-      <c r="V82" s="39"/>
-      <c r="W82" s="39"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="44"/>
+      <c r="T82" s="44"/>
+      <c r="U82" s="44"/>
+      <c r="V82" s="44"/>
+      <c r="W82" s="44"/>
     </row>
     <row r="83" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
@@ -67008,22 +67012,22 @@
         <f t="shared" si="1"/>
         <v>3.0987323283003103E-4</v>
       </c>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
-      <c r="S83" s="39"/>
-      <c r="T83" s="39"/>
-      <c r="U83" s="39"/>
-      <c r="V83" s="39"/>
-      <c r="W83" s="39"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
+      <c r="P83" s="44"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="44"/>
+      <c r="T83" s="44"/>
+      <c r="U83" s="44"/>
+      <c r="V83" s="44"/>
+      <c r="W83" s="44"/>
     </row>
     <row r="84" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
@@ -67042,22 +67046,22 @@
         <f t="shared" si="1"/>
         <v>5.7775011057238394E-3</v>
       </c>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
-      <c r="W84" s="39"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
+      <c r="P84" s="44"/>
+      <c r="Q84" s="44"/>
+      <c r="R84" s="44"/>
+      <c r="S84" s="44"/>
+      <c r="T84" s="44"/>
+      <c r="U84" s="44"/>
+      <c r="V84" s="44"/>
+      <c r="W84" s="44"/>
     </row>
     <row r="85" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
@@ -67076,22 +67080,22 @@
         <f t="shared" si="1"/>
         <v>1.4211888437760535E-3</v>
       </c>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="39"/>
-      <c r="P85" s="39"/>
-      <c r="Q85" s="39"/>
-      <c r="R85" s="39"/>
-      <c r="S85" s="39"/>
-      <c r="T85" s="39"/>
-      <c r="U85" s="39"/>
-      <c r="V85" s="39"/>
-      <c r="W85" s="39"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
+      <c r="P85" s="44"/>
+      <c r="Q85" s="44"/>
+      <c r="R85" s="44"/>
+      <c r="S85" s="44"/>
+      <c r="T85" s="44"/>
+      <c r="U85" s="44"/>
+      <c r="V85" s="44"/>
+      <c r="W85" s="44"/>
     </row>
     <row r="86" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
@@ -67110,22 +67114,22 @@
         <f t="shared" si="1"/>
         <v>5.7447327033877669E-4</v>
       </c>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="39"/>
-      <c r="P86" s="39"/>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39"/>
-      <c r="U86" s="39"/>
-      <c r="V86" s="39"/>
-      <c r="W86" s="39"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
+      <c r="R86" s="44"/>
+      <c r="S86" s="44"/>
+      <c r="T86" s="44"/>
+      <c r="U86" s="44"/>
+      <c r="V86" s="44"/>
+      <c r="W86" s="44"/>
     </row>
     <row r="87" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
@@ -67144,22 +67148,22 @@
         <f t="shared" si="1"/>
         <v>1.0611908574863403E-2</v>
       </c>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="39"/>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="39"/>
-      <c r="V87" s="39"/>
-      <c r="W87" s="39"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="44"/>
+      <c r="S87" s="44"/>
+      <c r="T87" s="44"/>
+      <c r="U87" s="44"/>
+      <c r="V87" s="44"/>
+      <c r="W87" s="44"/>
     </row>
     <row r="88" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
@@ -67178,22 +67182,22 @@
         <f t="shared" si="1"/>
         <v>2.0206809835523632E-3</v>
       </c>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="39"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="44"/>
+      <c r="S88" s="44"/>
+      <c r="T88" s="44"/>
+      <c r="U88" s="44"/>
+      <c r="V88" s="44"/>
+      <c r="W88" s="44"/>
     </row>
     <row r="89" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
@@ -67212,22 +67216,22 @@
         <f t="shared" si="1"/>
         <v>5.7707231490032585E-4</v>
       </c>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="39"/>
-      <c r="P89" s="39"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
-      <c r="T89" s="39"/>
-      <c r="U89" s="39"/>
-      <c r="V89" s="39"/>
-      <c r="W89" s="39"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="44"/>
+      <c r="R89" s="44"/>
+      <c r="S89" s="44"/>
+      <c r="T89" s="44"/>
+      <c r="U89" s="44"/>
+      <c r="V89" s="44"/>
+      <c r="W89" s="44"/>
     </row>
     <row r="90" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
@@ -67246,28 +67250,28 @@
         <f t="shared" si="1"/>
         <v>1.1804160924058841E-2</v>
       </c>
-      <c r="F90" s="39" t="s">
+      <c r="F90" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="39"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
-      <c r="P90" s="39">
+      <c r="G90" s="44"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="P90" s="44">
         <v>1.0684</v>
       </c>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
-      <c r="V90" s="39"/>
-      <c r="W90" s="39"/>
+      <c r="Q90" s="44"/>
+      <c r="R90" s="41"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="43"/>
+      <c r="U90" s="43"/>
+      <c r="V90" s="43"/>
+      <c r="W90" s="43"/>
     </row>
-    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
         <v>263</v>
       </c>
@@ -67284,28 +67288,28 @@
         <f t="shared" si="1"/>
         <v>4.0225590157415654E-3</v>
       </c>
-      <c r="F91" s="39" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
-      <c r="P91" s="39">
+      <c r="F91" s="44" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="P91" s="44">
         <v>1.1157999999999999</v>
       </c>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="43"/>
+      <c r="U91" s="43"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="43"/>
     </row>
-    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
         <v>266</v>
       </c>
@@ -67322,24 +67326,24 @@
         <f t="shared" si="1"/>
         <v>2.5475869773485607E-3</v>
       </c>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="39"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="39"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="43"/>
+      <c r="U92" s="43"/>
+      <c r="V92" s="43"/>
+      <c r="W92" s="43"/>
     </row>
-    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
         <v>269</v>
       </c>
@@ -67356,24 +67360,24 @@
         <f t="shared" si="1"/>
         <v>4.7219026014242837E-3</v>
       </c>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="39"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="39"/>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39"/>
-      <c r="S93" s="39"/>
-      <c r="T93" s="39"/>
-      <c r="U93" s="39"/>
-      <c r="V93" s="39"/>
-      <c r="W93" s="39"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="44"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="43"/>
+      <c r="U93" s="43"/>
+      <c r="V93" s="43"/>
+      <c r="W93" s="43"/>
     </row>
-    <row r="94" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
         <v>272</v>
       </c>
@@ -67390,28 +67394,28 @@
         <f t="shared" si="1"/>
         <v>9.4315957054802869E-4</v>
       </c>
-      <c r="F94" s="39" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="39"/>
-      <c r="K94" s="39"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
-      <c r="P94" s="39">
+      <c r="F94" s="44" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="44"/>
+      <c r="P94" s="44">
         <v>3.5074000000000001</v>
       </c>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39"/>
-      <c r="S94" s="39"/>
-      <c r="T94" s="39"/>
-      <c r="U94" s="39"/>
-      <c r="V94" s="39"/>
-      <c r="W94" s="39"/>
+      <c r="Q94" s="44"/>
+      <c r="R94" s="44"/>
+      <c r="S94" s="44"/>
+      <c r="T94" s="44"/>
+      <c r="U94" s="44"/>
+      <c r="V94" s="44"/>
+      <c r="W94" s="44"/>
     </row>
-    <row r="95" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
         <v>275</v>
       </c>
@@ -67428,24 +67432,24 @@
         <f t="shared" si="1"/>
         <v>1.1057177897891752E-3</v>
       </c>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="39"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="39"/>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="39"/>
-      <c r="S95" s="39"/>
-      <c r="T95" s="39"/>
-      <c r="U95" s="39"/>
-      <c r="V95" s="39"/>
-      <c r="W95" s="39"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+      <c r="S95" s="44"/>
+      <c r="T95" s="44"/>
+      <c r="U95" s="44"/>
+      <c r="V95" s="44"/>
+      <c r="W95" s="44"/>
     </row>
-    <row r="96" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
         <v>278</v>
       </c>
@@ -67462,24 +67466,24 @@
         <f t="shared" si="1"/>
         <v>6.4688931862543859E-3</v>
       </c>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
-      <c r="K96" s="39"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
-      <c r="R96" s="39"/>
-      <c r="S96" s="39"/>
-      <c r="T96" s="39"/>
-      <c r="U96" s="39"/>
-      <c r="V96" s="39"/>
-      <c r="W96" s="39"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
+      <c r="S96" s="44"/>
+      <c r="T96" s="44"/>
+      <c r="U96" s="44"/>
+      <c r="V96" s="44"/>
+      <c r="W96" s="44"/>
     </row>
-    <row r="97" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
         <v>281</v>
       </c>
@@ -67496,24 +67500,24 @@
         <f t="shared" si="1"/>
         <v>1.4793693649329047E-2</v>
       </c>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39"/>
-      <c r="S97" s="39"/>
-      <c r="T97" s="39"/>
-      <c r="U97" s="39"/>
-      <c r="V97" s="39"/>
-      <c r="W97" s="39"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="44"/>
+      <c r="M97" s="44"/>
+      <c r="P97" s="44"/>
+      <c r="Q97" s="44"/>
+      <c r="R97" s="44"/>
+      <c r="S97" s="44"/>
+      <c r="T97" s="44"/>
+      <c r="U97" s="44"/>
+      <c r="V97" s="44"/>
+      <c r="W97" s="44"/>
     </row>
-    <row r="98" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
         <v>284</v>
       </c>
@@ -67530,24 +67534,24 @@
         <f t="shared" si="1"/>
         <v>5.1633651161597377E-3</v>
       </c>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39"/>
-      <c r="S98" s="39"/>
-      <c r="T98" s="39"/>
-      <c r="U98" s="39"/>
-      <c r="V98" s="39"/>
-      <c r="W98" s="39"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="44"/>
+      <c r="M98" s="44"/>
+      <c r="P98" s="44"/>
+      <c r="Q98" s="44"/>
+      <c r="R98" s="44"/>
+      <c r="S98" s="44"/>
+      <c r="T98" s="44"/>
+      <c r="U98" s="44"/>
+      <c r="V98" s="44"/>
+      <c r="W98" s="44"/>
     </row>
-    <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
         <v>287</v>
       </c>
@@ -67564,28 +67568,28 @@
         <f t="shared" si="1"/>
         <v>1.286626734686825E-2</v>
       </c>
-      <c r="F99" s="39" t="s">
-        <v>1282</v>
-      </c>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
-      <c r="P99" s="39">
+      <c r="F99" s="44" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G99" s="44"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="P99" s="44">
         <v>1.5087999999999999</v>
       </c>
-      <c r="Q99" s="39"/>
-      <c r="R99" s="39"/>
-      <c r="S99" s="39"/>
-      <c r="T99" s="39"/>
-      <c r="U99" s="39"/>
-      <c r="V99" s="39"/>
-      <c r="W99" s="39"/>
+      <c r="Q99" s="44"/>
+      <c r="R99" s="42"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="43"/>
+      <c r="U99" s="43"/>
+      <c r="V99" s="43"/>
+      <c r="W99" s="43"/>
     </row>
-    <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
         <v>290</v>
       </c>
@@ -67602,24 +67606,24 @@
         <f t="shared" si="1"/>
         <v>2.0022687849941983E-3</v>
       </c>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
-      <c r="K100" s="39"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="39"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="39"/>
-      <c r="R100" s="39"/>
-      <c r="S100" s="39"/>
-      <c r="T100" s="39"/>
-      <c r="U100" s="39"/>
-      <c r="V100" s="39"/>
-      <c r="W100" s="39"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="P100" s="44"/>
+      <c r="Q100" s="44"/>
+      <c r="R100" s="42"/>
+      <c r="S100" s="43"/>
+      <c r="T100" s="43"/>
+      <c r="U100" s="43"/>
+      <c r="V100" s="43"/>
+      <c r="W100" s="43"/>
     </row>
-    <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
         <v>293</v>
       </c>
@@ -67636,28 +67640,28 @@
         <f t="shared" si="1"/>
         <v>1.3947727243241691E-3</v>
       </c>
-      <c r="F101" s="39" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
-      <c r="P101" s="39">
+      <c r="F101" s="44" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="43"/>
+      <c r="P101" s="44">
         <v>1.0296000000000001</v>
       </c>
-      <c r="Q101" s="39"/>
-      <c r="R101" s="39"/>
-      <c r="S101" s="39"/>
-      <c r="T101" s="39"/>
-      <c r="U101" s="39"/>
-      <c r="V101" s="39"/>
-      <c r="W101" s="39"/>
+      <c r="Q101" s="44"/>
+      <c r="R101" s="44"/>
+      <c r="S101" s="44"/>
+      <c r="T101" s="43"/>
+      <c r="U101" s="43"/>
+      <c r="V101" s="43"/>
+      <c r="W101" s="43"/>
     </row>
-    <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
         <v>296</v>
       </c>
@@ -67674,24 +67678,24 @@
         <f t="shared" si="1"/>
         <v>6.0041972118648965E-3</v>
       </c>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-      <c r="J102" s="39"/>
-      <c r="K102" s="39"/>
-      <c r="L102" s="39"/>
-      <c r="M102" s="39"/>
-      <c r="P102" s="39"/>
-      <c r="Q102" s="39"/>
-      <c r="R102" s="39"/>
-      <c r="S102" s="39"/>
-      <c r="T102" s="39"/>
-      <c r="U102" s="39"/>
-      <c r="V102" s="39"/>
-      <c r="W102" s="39"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="43"/>
+      <c r="P102" s="44"/>
+      <c r="Q102" s="44"/>
+      <c r="R102" s="44"/>
+      <c r="S102" s="44"/>
+      <c r="T102" s="43"/>
+      <c r="U102" s="43"/>
+      <c r="V102" s="43"/>
+      <c r="W102" s="43"/>
     </row>
-    <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
         <v>299</v>
       </c>
@@ -67708,24 +67712,24 @@
         <f t="shared" si="1"/>
         <v>2.0990300881380789E-3</v>
       </c>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="39"/>
-      <c r="K103" s="39"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="39"/>
-      <c r="P103" s="39"/>
-      <c r="Q103" s="39"/>
-      <c r="R103" s="39"/>
-      <c r="S103" s="39"/>
-      <c r="T103" s="39"/>
-      <c r="U103" s="39"/>
-      <c r="V103" s="39"/>
-      <c r="W103" s="39"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="P103" s="44"/>
+      <c r="Q103" s="44"/>
+      <c r="R103" s="44"/>
+      <c r="S103" s="44"/>
+      <c r="T103" s="43"/>
+      <c r="U103" s="43"/>
+      <c r="V103" s="43"/>
+      <c r="W103" s="43"/>
     </row>
-    <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
         <v>302</v>
       </c>
@@ -67742,24 +67746,24 @@
         <f t="shared" si="1"/>
         <v>2.2971233051472754E-3</v>
       </c>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="39"/>
-      <c r="K104" s="39"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="39"/>
-      <c r="P104" s="39"/>
-      <c r="Q104" s="39"/>
-      <c r="R104" s="39"/>
-      <c r="S104" s="39"/>
-      <c r="T104" s="39"/>
-      <c r="U104" s="39"/>
-      <c r="V104" s="39"/>
-      <c r="W104" s="39"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
+      <c r="P104" s="44"/>
+      <c r="Q104" s="44"/>
+      <c r="R104" s="44"/>
+      <c r="S104" s="44"/>
+      <c r="T104" s="43"/>
+      <c r="U104" s="43"/>
+      <c r="V104" s="43"/>
+      <c r="W104" s="43"/>
     </row>
-    <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
         <v>305</v>
       </c>
@@ -67776,24 +67780,24 @@
         <f t="shared" si="1"/>
         <v>5.9123862972986516E-4</v>
       </c>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-      <c r="J105" s="39"/>
-      <c r="K105" s="39"/>
-      <c r="L105" s="39"/>
-      <c r="M105" s="39"/>
-      <c r="P105" s="39"/>
-      <c r="Q105" s="39"/>
-      <c r="R105" s="39"/>
-      <c r="S105" s="39"/>
-      <c r="T105" s="39"/>
-      <c r="U105" s="39"/>
-      <c r="V105" s="39"/>
-      <c r="W105" s="39"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="P105" s="44"/>
+      <c r="Q105" s="44"/>
+      <c r="R105" s="44"/>
+      <c r="S105" s="44"/>
+      <c r="T105" s="43"/>
+      <c r="U105" s="43"/>
+      <c r="V105" s="43"/>
+      <c r="W105" s="43"/>
     </row>
-    <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
         <v>308</v>
       </c>
@@ -67810,28 +67814,28 @@
         <f t="shared" si="1"/>
         <v>7.5497983656986943E-3</v>
       </c>
-      <c r="F106" s="39" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="39"/>
-      <c r="K106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
-      <c r="P106" s="39">
+      <c r="F106" s="44" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="43"/>
+      <c r="P106" s="44">
         <v>2.4769999999999999</v>
       </c>
-      <c r="Q106" s="39"/>
-      <c r="R106" s="39"/>
-      <c r="S106" s="39"/>
-      <c r="T106" s="39"/>
-      <c r="U106" s="39"/>
-      <c r="V106" s="39"/>
-      <c r="W106" s="39"/>
+      <c r="Q106" s="44"/>
+      <c r="R106" s="44"/>
+      <c r="S106" s="44"/>
+      <c r="T106" s="43"/>
+      <c r="U106" s="43"/>
+      <c r="V106" s="43"/>
+      <c r="W106" s="43"/>
     </row>
-    <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
         <v>311</v>
       </c>
@@ -67848,24 +67852,24 @@
         <f t="shared" si="1"/>
         <v>4.5449436719292328E-3</v>
       </c>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
-      <c r="J107" s="39"/>
-      <c r="K107" s="39"/>
-      <c r="L107" s="39"/>
-      <c r="M107" s="39"/>
-      <c r="P107" s="39"/>
-      <c r="Q107" s="39"/>
-      <c r="R107" s="39"/>
-      <c r="S107" s="39"/>
-      <c r="T107" s="39"/>
-      <c r="U107" s="39"/>
-      <c r="V107" s="39"/>
-      <c r="W107" s="39"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="43"/>
+      <c r="P107" s="44"/>
+      <c r="Q107" s="44"/>
+      <c r="R107" s="44"/>
+      <c r="S107" s="44"/>
+      <c r="T107" s="43"/>
+      <c r="U107" s="43"/>
+      <c r="V107" s="43"/>
+      <c r="W107" s="43"/>
     </row>
-    <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A108" s="16" t="s">
         <v>314</v>
       </c>
@@ -67882,24 +67886,24 @@
         <f t="shared" si="1"/>
         <v>1.9085398848291437E-3</v>
       </c>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
-      <c r="J108" s="39"/>
-      <c r="K108" s="39"/>
-      <c r="L108" s="39"/>
-      <c r="M108" s="39"/>
-      <c r="P108" s="39"/>
-      <c r="Q108" s="39"/>
-      <c r="R108" s="39"/>
-      <c r="S108" s="39"/>
-      <c r="T108" s="39"/>
-      <c r="U108" s="39"/>
-      <c r="V108" s="39"/>
-      <c r="W108" s="39"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="43"/>
+      <c r="P108" s="44"/>
+      <c r="Q108" s="44"/>
+      <c r="R108" s="44"/>
+      <c r="S108" s="44"/>
+      <c r="T108" s="43"/>
+      <c r="U108" s="43"/>
+      <c r="V108" s="43"/>
+      <c r="W108" s="43"/>
     </row>
-    <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A109" s="16" t="s">
         <v>317</v>
       </c>
@@ -67916,24 +67920,24 @@
         <f t="shared" si="1"/>
         <v>1.1404586852766089E-3</v>
       </c>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="39"/>
-      <c r="K109" s="39"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
-      <c r="P109" s="39"/>
-      <c r="Q109" s="39"/>
-      <c r="R109" s="39"/>
-      <c r="S109" s="39"/>
-      <c r="T109" s="39"/>
-      <c r="U109" s="39"/>
-      <c r="V109" s="39"/>
-      <c r="W109" s="39"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="43"/>
+      <c r="P109" s="44"/>
+      <c r="Q109" s="44"/>
+      <c r="R109" s="44"/>
+      <c r="S109" s="44"/>
+      <c r="T109" s="43"/>
+      <c r="U109" s="43"/>
+      <c r="V109" s="43"/>
+      <c r="W109" s="43"/>
     </row>
-    <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
         <v>320</v>
       </c>
@@ -67950,22 +67954,22 @@
         <f t="shared" si="1"/>
         <v>4.3875883878211949E-3</v>
       </c>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
-      <c r="J110" s="39"/>
-      <c r="K110" s="39"/>
-      <c r="L110" s="39"/>
-      <c r="M110" s="39"/>
-      <c r="P110" s="39"/>
-      <c r="Q110" s="39"/>
-      <c r="R110" s="39"/>
-      <c r="S110" s="39"/>
-      <c r="T110" s="39"/>
-      <c r="U110" s="39"/>
-      <c r="V110" s="39"/>
-      <c r="W110" s="39"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="43"/>
+      <c r="P110" s="44"/>
+      <c r="Q110" s="44"/>
+      <c r="R110" s="44"/>
+      <c r="S110" s="44"/>
+      <c r="T110" s="43"/>
+      <c r="U110" s="43"/>
+      <c r="V110" s="43"/>
+      <c r="W110" s="43"/>
     </row>
     <row r="111" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -67984,28 +67988,28 @@
         <f t="shared" si="1"/>
         <v>6.182756121746907E-3</v>
       </c>
-      <c r="F111" s="39" t="s">
+      <c r="F111" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="G111" s="39"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="39"/>
-      <c r="J111" s="39"/>
-      <c r="K111" s="39"/>
-      <c r="L111" s="39"/>
-      <c r="M111" s="39"/>
-      <c r="P111" s="39">
+      <c r="G111" s="44"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="43"/>
+      <c r="P111" s="44">
         <v>0.47099999999999997</v>
       </c>
-      <c r="Q111" s="39"/>
-      <c r="R111" s="39"/>
-      <c r="S111" s="39"/>
-      <c r="T111" s="39"/>
-      <c r="U111" s="39"/>
-      <c r="V111" s="39"/>
-      <c r="W111" s="39"/>
+      <c r="Q111" s="44"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="43"/>
+      <c r="T111" s="43"/>
+      <c r="U111" s="43"/>
+      <c r="V111" s="43"/>
+      <c r="W111" s="43"/>
     </row>
-    <row r="112" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
         <v>326</v>
       </c>
@@ -68022,28 +68026,28 @@
         <f t="shared" si="1"/>
         <v>4.5488419725467112E-3</v>
       </c>
-      <c r="F112" s="39" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
-      <c r="J112" s="39"/>
-      <c r="K112" s="39"/>
-      <c r="L112" s="39"/>
-      <c r="M112" s="39"/>
-      <c r="P112" s="39">
+      <c r="F112" s="44" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G112" s="44"/>
+      <c r="H112" s="44"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="44"/>
+      <c r="M112" s="44"/>
+      <c r="P112" s="44">
         <v>1.4801</v>
       </c>
-      <c r="Q112" s="39"/>
-      <c r="R112" s="39"/>
-      <c r="S112" s="39"/>
-      <c r="T112" s="39"/>
-      <c r="U112" s="39"/>
-      <c r="V112" s="39"/>
-      <c r="W112" s="39"/>
+      <c r="Q112" s="44"/>
+      <c r="R112" s="44"/>
+      <c r="S112" s="44"/>
+      <c r="T112" s="44"/>
+      <c r="U112" s="44"/>
+      <c r="V112" s="44"/>
+      <c r="W112" s="44"/>
     </row>
-    <row r="113" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="16" t="s">
         <v>329</v>
       </c>
@@ -68060,24 +68064,24 @@
         <f t="shared" si="1"/>
         <v>1.2643411397832841E-3</v>
       </c>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
-      <c r="J113" s="39"/>
-      <c r="K113" s="39"/>
-      <c r="L113" s="39"/>
-      <c r="M113" s="39"/>
-      <c r="P113" s="39"/>
-      <c r="Q113" s="39"/>
-      <c r="R113" s="39"/>
-      <c r="S113" s="39"/>
-      <c r="T113" s="39"/>
-      <c r="U113" s="39"/>
-      <c r="V113" s="39"/>
-      <c r="W113" s="39"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="44"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="44"/>
+      <c r="P113" s="44"/>
+      <c r="Q113" s="44"/>
+      <c r="R113" s="44"/>
+      <c r="S113" s="44"/>
+      <c r="T113" s="44"/>
+      <c r="U113" s="44"/>
+      <c r="V113" s="44"/>
+      <c r="W113" s="44"/>
     </row>
-    <row r="114" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
         <v>332</v>
       </c>
@@ -68094,24 +68098,24 @@
         <f t="shared" si="1"/>
         <v>7.17358219820101E-4</v>
       </c>
-      <c r="F114" s="39"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="39"/>
-      <c r="J114" s="39"/>
-      <c r="K114" s="39"/>
-      <c r="L114" s="39"/>
-      <c r="M114" s="39"/>
-      <c r="P114" s="39"/>
-      <c r="Q114" s="39"/>
-      <c r="R114" s="39"/>
-      <c r="S114" s="39"/>
-      <c r="T114" s="39"/>
-      <c r="U114" s="39"/>
-      <c r="V114" s="39"/>
-      <c r="W114" s="39"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="44"/>
+      <c r="I114" s="44"/>
+      <c r="J114" s="44"/>
+      <c r="K114" s="44"/>
+      <c r="L114" s="44"/>
+      <c r="M114" s="44"/>
+      <c r="P114" s="44"/>
+      <c r="Q114" s="44"/>
+      <c r="R114" s="44"/>
+      <c r="S114" s="44"/>
+      <c r="T114" s="44"/>
+      <c r="U114" s="44"/>
+      <c r="V114" s="44"/>
+      <c r="W114" s="44"/>
     </row>
-    <row r="115" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
         <v>335</v>
       </c>
@@ -68128,24 +68132,24 @@
         <f t="shared" si="1"/>
         <v>9.7044154919025377E-4</v>
       </c>
-      <c r="F115" s="39"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
-      <c r="J115" s="39"/>
-      <c r="K115" s="39"/>
-      <c r="L115" s="39"/>
-      <c r="M115" s="39"/>
-      <c r="P115" s="39"/>
-      <c r="Q115" s="39"/>
-      <c r="R115" s="39"/>
-      <c r="S115" s="39"/>
-      <c r="T115" s="39"/>
-      <c r="U115" s="39"/>
-      <c r="V115" s="39"/>
-      <c r="W115" s="39"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
+      <c r="M115" s="44"/>
+      <c r="P115" s="44"/>
+      <c r="Q115" s="44"/>
+      <c r="R115" s="44"/>
+      <c r="S115" s="44"/>
+      <c r="T115" s="44"/>
+      <c r="U115" s="44"/>
+      <c r="V115" s="44"/>
+      <c r="W115" s="44"/>
     </row>
-    <row r="116" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="16" t="s">
         <v>338</v>
       </c>
@@ -68162,24 +68166,24 @@
         <f t="shared" si="1"/>
         <v>8.622444933183307E-4</v>
       </c>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="39"/>
-      <c r="K116" s="39"/>
-      <c r="L116" s="39"/>
-      <c r="M116" s="39"/>
-      <c r="P116" s="39"/>
-      <c r="Q116" s="39"/>
-      <c r="R116" s="39"/>
-      <c r="S116" s="39"/>
-      <c r="T116" s="39"/>
-      <c r="U116" s="39"/>
-      <c r="V116" s="39"/>
-      <c r="W116" s="39"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+      <c r="P116" s="44"/>
+      <c r="Q116" s="44"/>
+      <c r="R116" s="44"/>
+      <c r="S116" s="44"/>
+      <c r="T116" s="44"/>
+      <c r="U116" s="44"/>
+      <c r="V116" s="44"/>
+      <c r="W116" s="44"/>
     </row>
-    <row r="117" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
         <v>341</v>
       </c>
@@ -68196,24 +68200,24 @@
         <f t="shared" si="1"/>
         <v>6.41625620510107E-4</v>
       </c>
-      <c r="F117" s="39"/>
-      <c r="G117" s="39"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
-      <c r="J117" s="39"/>
-      <c r="K117" s="39"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="39"/>
-      <c r="P117" s="39"/>
-      <c r="Q117" s="39"/>
-      <c r="R117" s="39"/>
-      <c r="S117" s="39"/>
-      <c r="T117" s="39"/>
-      <c r="U117" s="39"/>
-      <c r="V117" s="39"/>
-      <c r="W117" s="39"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="44"/>
+      <c r="P117" s="44"/>
+      <c r="Q117" s="44"/>
+      <c r="R117" s="44"/>
+      <c r="S117" s="44"/>
+      <c r="T117" s="44"/>
+      <c r="U117" s="44"/>
+      <c r="V117" s="44"/>
+      <c r="W117" s="44"/>
     </row>
-    <row r="118" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
         <v>344</v>
       </c>
@@ -68230,24 +68234,24 @@
         <f t="shared" si="1"/>
         <v>1.6316793995459083E-3</v>
       </c>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="39"/>
-      <c r="K118" s="39"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
-      <c r="P118" s="39"/>
-      <c r="Q118" s="39"/>
-      <c r="R118" s="39"/>
-      <c r="S118" s="39"/>
-      <c r="T118" s="39"/>
-      <c r="U118" s="39"/>
-      <c r="V118" s="39"/>
-      <c r="W118" s="39"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="44"/>
+      <c r="P118" s="44"/>
+      <c r="Q118" s="44"/>
+      <c r="R118" s="44"/>
+      <c r="S118" s="44"/>
+      <c r="T118" s="44"/>
+      <c r="U118" s="44"/>
+      <c r="V118" s="44"/>
+      <c r="W118" s="44"/>
     </row>
-    <row r="119" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
         <v>347</v>
       </c>
@@ -68264,24 +68268,24 @@
         <f t="shared" si="1"/>
         <v>1.2009265342498032E-3</v>
       </c>
-      <c r="F119" s="39"/>
-      <c r="G119" s="39"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="39"/>
-      <c r="J119" s="39"/>
-      <c r="K119" s="39"/>
-      <c r="L119" s="39"/>
-      <c r="M119" s="39"/>
-      <c r="P119" s="39"/>
-      <c r="Q119" s="39"/>
-      <c r="R119" s="39"/>
-      <c r="S119" s="39"/>
-      <c r="T119" s="39"/>
-      <c r="U119" s="39"/>
-      <c r="V119" s="39"/>
-      <c r="W119" s="39"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="44"/>
+      <c r="M119" s="44"/>
+      <c r="P119" s="44"/>
+      <c r="Q119" s="44"/>
+      <c r="R119" s="44"/>
+      <c r="S119" s="44"/>
+      <c r="T119" s="44"/>
+      <c r="U119" s="44"/>
+      <c r="V119" s="44"/>
+      <c r="W119" s="44"/>
     </row>
-    <row r="120" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
         <v>350</v>
       </c>
@@ -68298,24 +68302,24 @@
         <f t="shared" si="1"/>
         <v>7.7026154572660231E-4</v>
       </c>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="39"/>
-      <c r="J120" s="39"/>
-      <c r="K120" s="39"/>
-      <c r="L120" s="39"/>
-      <c r="M120" s="39"/>
-      <c r="P120" s="39"/>
-      <c r="Q120" s="39"/>
-      <c r="R120" s="39"/>
-      <c r="S120" s="39"/>
-      <c r="T120" s="39"/>
-      <c r="U120" s="39"/>
-      <c r="V120" s="39"/>
-      <c r="W120" s="39"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
+      <c r="K120" s="44"/>
+      <c r="L120" s="44"/>
+      <c r="M120" s="44"/>
+      <c r="P120" s="44"/>
+      <c r="Q120" s="44"/>
+      <c r="R120" s="44"/>
+      <c r="S120" s="44"/>
+      <c r="T120" s="44"/>
+      <c r="U120" s="44"/>
+      <c r="V120" s="44"/>
+      <c r="W120" s="44"/>
     </row>
-    <row r="121" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
         <v>353</v>
       </c>
@@ -68332,28 +68336,28 @@
         <f t="shared" si="1"/>
         <v>4.6169494266120386E-3</v>
       </c>
-      <c r="F121" s="39" t="s">
+      <c r="F121" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="G121" s="39"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="39"/>
-      <c r="J121" s="39"/>
-      <c r="K121" s="39"/>
-      <c r="L121" s="39"/>
-      <c r="M121" s="39"/>
-      <c r="P121" s="39">
+      <c r="G121" s="44"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="43"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="43"/>
+      <c r="M121" s="43"/>
+      <c r="P121" s="44">
         <v>0.68469999999999998</v>
       </c>
-      <c r="Q121" s="39"/>
-      <c r="R121" s="39"/>
-      <c r="S121" s="39"/>
-      <c r="T121" s="39"/>
-      <c r="U121" s="39"/>
-      <c r="V121" s="39"/>
-      <c r="W121" s="39"/>
+      <c r="Q121" s="44"/>
+      <c r="R121" s="42"/>
+      <c r="S121" s="43"/>
+      <c r="T121" s="43"/>
+      <c r="U121" s="43"/>
+      <c r="V121" s="43"/>
+      <c r="W121" s="43"/>
     </row>
-    <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
         <v>356</v>
       </c>
@@ -68370,24 +68374,24 @@
         <f t="shared" si="1"/>
         <v>3.1122018197843331E-3</v>
       </c>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="39"/>
-      <c r="K122" s="39"/>
-      <c r="L122" s="39"/>
-      <c r="M122" s="39"/>
-      <c r="P122" s="39"/>
-      <c r="Q122" s="39"/>
-      <c r="R122" s="39"/>
-      <c r="S122" s="39"/>
-      <c r="T122" s="39"/>
-      <c r="U122" s="39"/>
-      <c r="V122" s="39"/>
-      <c r="W122" s="39"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="P122" s="44"/>
+      <c r="Q122" s="44"/>
+      <c r="R122" s="42"/>
+      <c r="S122" s="43"/>
+      <c r="T122" s="43"/>
+      <c r="U122" s="43"/>
+      <c r="V122" s="43"/>
+      <c r="W122" s="43"/>
     </row>
-    <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A123" s="16" t="s">
         <v>359</v>
       </c>
@@ -68404,28 +68408,28 @@
         <f t="shared" si="1"/>
         <v>2.1583441506133571E-2</v>
       </c>
-      <c r="F123" s="39" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G123" s="39"/>
-      <c r="H123" s="39"/>
-      <c r="I123" s="39"/>
-      <c r="J123" s="39"/>
-      <c r="K123" s="39"/>
-      <c r="L123" s="39"/>
-      <c r="M123" s="39"/>
-      <c r="P123" s="39">
+      <c r="F123" s="44" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G123" s="44"/>
+      <c r="H123" s="44"/>
+      <c r="I123" s="43"/>
+      <c r="J123" s="43"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="43"/>
+      <c r="M123" s="43"/>
+      <c r="P123" s="44">
         <v>2.5407000000000002</v>
       </c>
-      <c r="Q123" s="39"/>
-      <c r="R123" s="39"/>
-      <c r="S123" s="39"/>
-      <c r="T123" s="39"/>
-      <c r="U123" s="39"/>
-      <c r="V123" s="39"/>
-      <c r="W123" s="39"/>
+      <c r="Q123" s="44"/>
+      <c r="R123" s="44"/>
+      <c r="S123" s="43"/>
+      <c r="T123" s="43"/>
+      <c r="U123" s="43"/>
+      <c r="V123" s="43"/>
+      <c r="W123" s="43"/>
     </row>
-    <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A124" s="16" t="s">
         <v>362</v>
       </c>
@@ -68442,24 +68446,24 @@
         <f t="shared" si="1"/>
         <v>3.5833597366647572E-4</v>
       </c>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="39"/>
-      <c r="I124" s="39"/>
-      <c r="J124" s="39"/>
-      <c r="K124" s="39"/>
-      <c r="L124" s="39"/>
-      <c r="M124" s="39"/>
-      <c r="P124" s="39"/>
-      <c r="Q124" s="39"/>
-      <c r="R124" s="39"/>
-      <c r="S124" s="39"/>
-      <c r="T124" s="39"/>
-      <c r="U124" s="39"/>
-      <c r="V124" s="39"/>
-      <c r="W124" s="39"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="44"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="43"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
+      <c r="P124" s="44"/>
+      <c r="Q124" s="44"/>
+      <c r="R124" s="44"/>
+      <c r="S124" s="43"/>
+      <c r="T124" s="43"/>
+      <c r="U124" s="43"/>
+      <c r="V124" s="43"/>
+      <c r="W124" s="43"/>
     </row>
-    <row r="125" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A125" s="16" t="s">
         <v>365</v>
       </c>
@@ -68476,28 +68480,28 @@
         <f t="shared" si="1"/>
         <v>1.7789130660513796E-4</v>
       </c>
-      <c r="F125" s="39" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G125" s="39"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="39"/>
-      <c r="J125" s="39"/>
-      <c r="K125" s="39"/>
-      <c r="L125" s="39"/>
-      <c r="M125" s="39"/>
-      <c r="P125" s="39">
+      <c r="F125" s="44" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G125" s="44"/>
+      <c r="H125" s="44"/>
+      <c r="I125" s="43"/>
+      <c r="J125" s="43"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="43"/>
+      <c r="M125" s="43"/>
+      <c r="P125" s="44">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="Q125" s="39"/>
-      <c r="R125" s="39"/>
-      <c r="S125" s="39"/>
-      <c r="T125" s="39"/>
-      <c r="U125" s="39"/>
-      <c r="V125" s="39"/>
-      <c r="W125" s="39"/>
+      <c r="Q125" s="44"/>
+      <c r="R125" s="44"/>
+      <c r="S125" s="43"/>
+      <c r="T125" s="43"/>
+      <c r="U125" s="43"/>
+      <c r="V125" s="43"/>
+      <c r="W125" s="43"/>
     </row>
-    <row r="126" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
         <v>368</v>
       </c>
@@ -68514,24 +68518,24 @@
         <f t="shared" si="1"/>
         <v>5.1820600438399598E-5</v>
       </c>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
-      <c r="J126" s="39"/>
-      <c r="K126" s="39"/>
-      <c r="L126" s="39"/>
-      <c r="M126" s="39"/>
-      <c r="P126" s="39"/>
-      <c r="Q126" s="39"/>
-      <c r="R126" s="39"/>
-      <c r="S126" s="39"/>
-      <c r="T126" s="39"/>
-      <c r="U126" s="39"/>
-      <c r="V126" s="39"/>
-      <c r="W126" s="39"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="44"/>
+      <c r="I126" s="43"/>
+      <c r="J126" s="43"/>
+      <c r="K126" s="43"/>
+      <c r="L126" s="43"/>
+      <c r="M126" s="43"/>
+      <c r="P126" s="44"/>
+      <c r="Q126" s="44"/>
+      <c r="R126" s="44"/>
+      <c r="S126" s="43"/>
+      <c r="T126" s="43"/>
+      <c r="U126" s="43"/>
+      <c r="V126" s="43"/>
+      <c r="W126" s="43"/>
     </row>
-    <row r="127" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A127" s="16" t="s">
         <v>370</v>
       </c>
@@ -68548,28 +68552,28 @@
         <f t="shared" si="1"/>
         <v>1.1870447343377302E-2</v>
       </c>
-      <c r="F127" s="39" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G127" s="39"/>
-      <c r="H127" s="39"/>
-      <c r="I127" s="39"/>
-      <c r="J127" s="39"/>
-      <c r="K127" s="39"/>
-      <c r="L127" s="39"/>
-      <c r="M127" s="39"/>
-      <c r="P127" s="39">
+      <c r="F127" s="44" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G127" s="44"/>
+      <c r="H127" s="44"/>
+      <c r="I127" s="43"/>
+      <c r="J127" s="43"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="43"/>
+      <c r="M127" s="43"/>
+      <c r="P127" s="44">
         <v>1.4917</v>
       </c>
-      <c r="Q127" s="39"/>
-      <c r="R127" s="39"/>
-      <c r="S127" s="39"/>
-      <c r="T127" s="39"/>
-      <c r="U127" s="39"/>
-      <c r="V127" s="39"/>
-      <c r="W127" s="39"/>
+      <c r="Q127" s="44"/>
+      <c r="R127" s="44"/>
+      <c r="S127" s="43"/>
+      <c r="T127" s="43"/>
+      <c r="U127" s="43"/>
+      <c r="V127" s="43"/>
+      <c r="W127" s="43"/>
     </row>
-    <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A128" s="16" t="s">
         <v>373</v>
       </c>
@@ -68586,24 +68590,24 @@
         <f t="shared" si="1"/>
         <v>2.8454158319941285E-3</v>
       </c>
-      <c r="F128" s="39"/>
-      <c r="G128" s="39"/>
-      <c r="H128" s="39"/>
-      <c r="I128" s="39"/>
-      <c r="J128" s="39"/>
-      <c r="K128" s="39"/>
-      <c r="L128" s="39"/>
-      <c r="M128" s="39"/>
-      <c r="P128" s="39"/>
-      <c r="Q128" s="39"/>
-      <c r="R128" s="39"/>
-      <c r="S128" s="39"/>
-      <c r="T128" s="39"/>
-      <c r="U128" s="39"/>
-      <c r="V128" s="39"/>
-      <c r="W128" s="39"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="44"/>
+      <c r="I128" s="43"/>
+      <c r="J128" s="43"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="43"/>
+      <c r="M128" s="43"/>
+      <c r="P128" s="44"/>
+      <c r="Q128" s="44"/>
+      <c r="R128" s="44"/>
+      <c r="S128" s="43"/>
+      <c r="T128" s="43"/>
+      <c r="U128" s="43"/>
+      <c r="V128" s="43"/>
+      <c r="W128" s="43"/>
     </row>
-    <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
         <v>376</v>
       </c>
@@ -68620,28 +68624,28 @@
         <f t="shared" si="1"/>
         <v>2.0499309469324115E-3</v>
       </c>
-      <c r="F129" s="39" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G129" s="39"/>
-      <c r="H129" s="39"/>
-      <c r="I129" s="39"/>
-      <c r="J129" s="39"/>
-      <c r="K129" s="39"/>
-      <c r="L129" s="39"/>
-      <c r="M129" s="39"/>
-      <c r="P129" s="39">
+      <c r="F129" s="44" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G129" s="44"/>
+      <c r="H129" s="44"/>
+      <c r="I129" s="44"/>
+      <c r="J129" s="43"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43"/>
+      <c r="M129" s="43"/>
+      <c r="P129" s="44">
         <v>1.3724000000000001</v>
       </c>
-      <c r="Q129" s="39"/>
-      <c r="R129" s="39"/>
-      <c r="S129" s="39"/>
-      <c r="T129" s="39"/>
-      <c r="U129" s="39"/>
-      <c r="V129" s="39"/>
-      <c r="W129" s="39"/>
+      <c r="Q129" s="44"/>
+      <c r="R129" s="44"/>
+      <c r="S129" s="44"/>
+      <c r="T129" s="43"/>
+      <c r="U129" s="43"/>
+      <c r="V129" s="43"/>
+      <c r="W129" s="43"/>
     </row>
-    <row r="130" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>379</v>
       </c>
@@ -68658,24 +68662,24 @@
         <f t="shared" si="1"/>
         <v>7.4626489403514882E-3</v>
       </c>
-      <c r="F130" s="39"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="39"/>
-      <c r="J130" s="39"/>
-      <c r="K130" s="39"/>
-      <c r="L130" s="39"/>
-      <c r="M130" s="39"/>
-      <c r="P130" s="39"/>
-      <c r="Q130" s="39"/>
-      <c r="R130" s="39"/>
-      <c r="S130" s="39"/>
-      <c r="T130" s="39"/>
-      <c r="U130" s="39"/>
-      <c r="V130" s="39"/>
-      <c r="W130" s="39"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="44"/>
+      <c r="I130" s="44"/>
+      <c r="J130" s="43"/>
+      <c r="K130" s="43"/>
+      <c r="L130" s="43"/>
+      <c r="M130" s="43"/>
+      <c r="P130" s="44"/>
+      <c r="Q130" s="44"/>
+      <c r="R130" s="44"/>
+      <c r="S130" s="44"/>
+      <c r="T130" s="43"/>
+      <c r="U130" s="43"/>
+      <c r="V130" s="43"/>
+      <c r="W130" s="43"/>
     </row>
-    <row r="131" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
         <v>382</v>
       </c>
@@ -68692,24 +68696,24 @@
         <f t="shared" si="1"/>
         <v>9.4076737554517364E-4</v>
       </c>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
-      <c r="J131" s="39"/>
-      <c r="K131" s="39"/>
-      <c r="L131" s="39"/>
-      <c r="M131" s="39"/>
-      <c r="P131" s="39"/>
-      <c r="Q131" s="39"/>
-      <c r="R131" s="39"/>
-      <c r="S131" s="39"/>
-      <c r="T131" s="39"/>
-      <c r="U131" s="39"/>
-      <c r="V131" s="39"/>
-      <c r="W131" s="39"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="44"/>
+      <c r="I131" s="44"/>
+      <c r="J131" s="43"/>
+      <c r="K131" s="43"/>
+      <c r="L131" s="43"/>
+      <c r="M131" s="43"/>
+      <c r="P131" s="44"/>
+      <c r="Q131" s="44"/>
+      <c r="R131" s="44"/>
+      <c r="S131" s="44"/>
+      <c r="T131" s="43"/>
+      <c r="U131" s="43"/>
+      <c r="V131" s="43"/>
+      <c r="W131" s="43"/>
     </row>
-    <row r="132" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
         <v>385</v>
       </c>
@@ -68726,22 +68730,22 @@
         <f t="shared" si="1"/>
         <v>1.5950373183413913E-3</v>
       </c>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="39"/>
-      <c r="K132" s="39"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
-      <c r="P132" s="39"/>
-      <c r="Q132" s="39"/>
-      <c r="R132" s="39"/>
-      <c r="S132" s="39"/>
-      <c r="T132" s="39"/>
-      <c r="U132" s="39"/>
-      <c r="V132" s="39"/>
-      <c r="W132" s="39"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="44"/>
+      <c r="I132" s="44"/>
+      <c r="J132" s="43"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="43"/>
+      <c r="M132" s="43"/>
+      <c r="P132" s="44"/>
+      <c r="Q132" s="44"/>
+      <c r="R132" s="44"/>
+      <c r="S132" s="44"/>
+      <c r="T132" s="43"/>
+      <c r="U132" s="43"/>
+      <c r="V132" s="43"/>
+      <c r="W132" s="43"/>
     </row>
     <row r="133" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
@@ -68760,26 +68764,26 @@
         <f t="shared" si="1"/>
         <v>4.684792529425769E-3</v>
       </c>
-      <c r="F133" s="39" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
-      <c r="J133" s="39"/>
-      <c r="K133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
-      <c r="P133" s="39">
+      <c r="F133" s="44" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G133" s="44"/>
+      <c r="H133" s="44"/>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="43"/>
+      <c r="M133" s="43"/>
+      <c r="P133" s="44">
         <v>0.42809999999999998</v>
       </c>
-      <c r="Q133" s="39"/>
-      <c r="R133" s="39"/>
-      <c r="S133" s="39"/>
-      <c r="T133" s="39"/>
-      <c r="U133" s="39"/>
-      <c r="V133" s="39"/>
-      <c r="W133" s="39"/>
+      <c r="Q133" s="44"/>
+      <c r="R133" s="44"/>
+      <c r="S133" s="43"/>
+      <c r="T133" s="43"/>
+      <c r="U133" s="43"/>
+      <c r="V133" s="43"/>
+      <c r="W133" s="43"/>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="20"/>
@@ -73054,82 +73058,78 @@
       <c r="C448" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="P133:W133"/>
-    <mergeCell ref="P121:W122"/>
-    <mergeCell ref="P123:W124"/>
-    <mergeCell ref="P125:W126"/>
-    <mergeCell ref="P127:W128"/>
-    <mergeCell ref="P129:W132"/>
+  <mergeCells count="71">
+    <mergeCell ref="P123:R124"/>
+    <mergeCell ref="P125:R126"/>
+    <mergeCell ref="P127:R128"/>
+    <mergeCell ref="P129:S132"/>
+    <mergeCell ref="P133:R133"/>
+    <mergeCell ref="P101:S105"/>
+    <mergeCell ref="P106:S110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="P112:W120"/>
+    <mergeCell ref="P121:Q122"/>
+    <mergeCell ref="P67:W89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:R93"/>
     <mergeCell ref="P94:W98"/>
-    <mergeCell ref="P90:W90"/>
-    <mergeCell ref="P91:W93"/>
-    <mergeCell ref="P99:W100"/>
-    <mergeCell ref="P112:W120"/>
-    <mergeCell ref="P101:W105"/>
-    <mergeCell ref="P106:W110"/>
-    <mergeCell ref="P111:W111"/>
+    <mergeCell ref="P99:Q100"/>
+    <mergeCell ref="P39:W39"/>
     <mergeCell ref="P40:W40"/>
     <mergeCell ref="P41:W42"/>
     <mergeCell ref="P43:W56"/>
     <mergeCell ref="P57:W66"/>
-    <mergeCell ref="P67:W89"/>
-    <mergeCell ref="F94:M98"/>
-    <mergeCell ref="P7:W9"/>
-    <mergeCell ref="P18:W19"/>
-    <mergeCell ref="P20:W20"/>
-    <mergeCell ref="P21:W21"/>
-    <mergeCell ref="P22:W22"/>
-    <mergeCell ref="P23:W23"/>
-    <mergeCell ref="P24:W24"/>
-    <mergeCell ref="P25:W28"/>
-    <mergeCell ref="P29:W29"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:S33"/>
+    <mergeCell ref="P34:S37"/>
     <mergeCell ref="P38:W38"/>
-    <mergeCell ref="P30:W30"/>
-    <mergeCell ref="P31:W31"/>
-    <mergeCell ref="P32:W33"/>
-    <mergeCell ref="P34:W37"/>
-    <mergeCell ref="P39:W39"/>
-    <mergeCell ref="F91:M93"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="P25:T28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P7:R9"/>
+    <mergeCell ref="P11:V17"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="F133:H133"/>
     <mergeCell ref="F67:M89"/>
     <mergeCell ref="F57:M66"/>
     <mergeCell ref="F43:M56"/>
     <mergeCell ref="F41:M42"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F32:M33"/>
-    <mergeCell ref="F34:M37"/>
-    <mergeCell ref="F90:M90"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="F7:M9"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="F11:M17"/>
-    <mergeCell ref="F127:M128"/>
-    <mergeCell ref="F129:M132"/>
-    <mergeCell ref="F133:M133"/>
-    <mergeCell ref="F99:M100"/>
-    <mergeCell ref="F101:M105"/>
-    <mergeCell ref="F106:M110"/>
-    <mergeCell ref="F111:M111"/>
-    <mergeCell ref="F121:M122"/>
+    <mergeCell ref="F121:G122"/>
+    <mergeCell ref="F123:H124"/>
+    <mergeCell ref="F125:H126"/>
+    <mergeCell ref="F127:H128"/>
+    <mergeCell ref="F129:I132"/>
+    <mergeCell ref="F111:G111"/>
     <mergeCell ref="F112:M120"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="P11:W17"/>
-    <mergeCell ref="F123:M124"/>
-    <mergeCell ref="F125:M126"/>
-    <mergeCell ref="F18:M19"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F25:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F94:M98"/>
+    <mergeCell ref="F99:G100"/>
+    <mergeCell ref="F101:I105"/>
+    <mergeCell ref="F106:I110"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:H93"/>
     <mergeCell ref="F40:M40"/>
     <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="F34:I37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F25:J28"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="F11:L17"/>
+    <mergeCell ref="F7:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="B174:B175 B185">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">

--- a/Weights_2022.xlsx
+++ b/Weights_2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\streamlit-inflation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\streamlit-gfe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC2BAAB-1988-4996-A0C8-490867ED0B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97357510-4EBE-408D-AE4C-7BEA75FA2836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4242,7 +4242,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -4460,19 +4460,22 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5"/>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4480,9 +4483,6 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -63905,8 +63905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F55F94E-7669-44BC-B5AD-777700EFA1D6}">
   <dimension ref="A1:W448"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G440" sqref="G440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -64252,10 +64252,10 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
@@ -64270,9 +64270,7 @@
       <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11">
-        <v>25.3156</v>
-      </c>
+      <c r="D4" s="11"/>
       <c r="F4" s="12"/>
       <c r="K4" s="12"/>
       <c r="M4"/>
@@ -64302,26 +64300,26 @@
         <f>D6/25.3156</f>
         <v>1.0129318467642954E-2</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="48"/>
-      <c r="P6" s="41">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="45"/>
+      <c r="P6" s="40">
         <v>1.2067000000000001</v>
       </c>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="48"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="45"/>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -64340,26 +64338,26 @@
         <f t="shared" ref="E7:E70" si="0">D7/25.3156</f>
         <v>2.0351801171589013E-2</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="47" t="s">
         <v>1268</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="48"/>
-      <c r="P7" s="44">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="45"/>
+      <c r="P7" s="47">
         <v>2.3153000000000001</v>
       </c>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="48"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
@@ -64378,22 +64376,22 @@
         <f t="shared" si="0"/>
         <v>5.0064578872262167E-3</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -64412,22 +64410,22 @@
         <f t="shared" si="0"/>
         <v>5.9517944126020409E-3</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -64446,26 +64444,26 @@
         <f t="shared" si="0"/>
         <v>0.10027261948183333</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="P10" s="41">
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="P10" s="40">
         <v>8.7763000000000009</v>
       </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
     </row>
     <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -64484,26 +64482,26 @@
         <f t="shared" si="0"/>
         <v>1.1025373854694015E-2</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="47" t="s">
         <v>1269</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="40"/>
-      <c r="P11" s="44">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="39"/>
+      <c r="P11" s="47">
         <v>4.7308000000000003</v>
       </c>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="40"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="39"/>
     </row>
     <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -64522,22 +64520,22 @@
         <f t="shared" si="0"/>
         <v>2.263129088432906E-3</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="40"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="40"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="39"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="39"/>
     </row>
     <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -64556,22 +64554,22 @@
         <f t="shared" si="0"/>
         <v>5.8905783856776604E-3</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="40"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="40"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="39"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="39"/>
     </row>
     <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -64590,22 +64588,22 @@
         <f t="shared" si="0"/>
         <v>1.100018117271942E-2</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="40"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="40"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="39"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="39"/>
     </row>
     <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
@@ -64624,22 +64622,22 @@
         <f t="shared" si="0"/>
         <v>3.0890763948928971E-3</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="40"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="40"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="39"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="39"/>
     </row>
     <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -64658,22 +64656,22 @@
         <f t="shared" si="0"/>
         <v>1.3699821492367882E-2</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="40"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="40"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="39"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="39"/>
     </row>
     <row r="17" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
@@ -64692,22 +64690,22 @@
         <f t="shared" si="0"/>
         <v>4.0132933101309134E-3</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="40"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="40"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="39"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="39"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
@@ -64726,26 +64724,26 @@
         <f t="shared" si="0"/>
         <v>7.8254434760840139E-3</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="47" t="s">
         <v>1270</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="P18" s="44">
+      <c r="G18" s="47"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="P18" s="47">
         <v>0.89810000000000001</v>
       </c>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
@@ -64764,22 +64762,22 @@
         <f t="shared" si="0"/>
         <v>1.0980533332734569E-3</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
@@ -64798,26 +64796,26 @@
         <f t="shared" si="0"/>
         <v>1.2314444393460554E-3</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="47" t="s">
         <v>1271</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="P20" s="44">
+      <c r="G20" s="47"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="P20" s="47">
         <v>0.15190000000000001</v>
       </c>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
@@ -64836,26 +64834,26 @@
         <f t="shared" si="0"/>
         <v>8.4988933383112378E-2</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="P21" s="44">
+      <c r="G21" s="47"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="P21" s="47">
         <v>9.1193000000000008</v>
       </c>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
@@ -64874,26 +64872,26 @@
         <f t="shared" si="0"/>
         <v>3.6142641019490586E-2</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="P22" s="44">
+      <c r="G22" s="47"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="P22" s="47">
         <v>3.6798000000000002</v>
       </c>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
@@ -64912,26 +64910,26 @@
         <f t="shared" si="0"/>
         <v>5.5391154083784699E-2</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="P23" s="44">
+      <c r="G23" s="47"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="P23" s="47">
         <v>5.6840999999999999</v>
       </c>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
@@ -64950,26 +64948,26 @@
         <f t="shared" si="0"/>
         <v>2.2665025630622701E-3</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="47" t="s">
         <v>1272</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="P24" s="44">
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="P24" s="47">
         <v>0.30980000000000002</v>
       </c>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
@@ -64988,26 +64986,26 @@
         <f t="shared" si="0"/>
         <v>1.6969158280165667E-2</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="47" t="s">
         <v>1273</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="P25" s="44">
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="P25" s="47">
         <v>2.7145999999999999</v>
       </c>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
@@ -65026,22 +65024,22 @@
         <f t="shared" si="0"/>
         <v>1.8560135042418671E-3</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
@@ -65060,22 +65058,22 @@
         <f t="shared" si="0"/>
         <v>3.2798370479288348E-3</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
@@ -65094,22 +65092,22 @@
         <f t="shared" si="0"/>
         <v>3.9897704335667963E-3</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
@@ -65128,26 +65126,26 @@
         <f t="shared" si="0"/>
         <v>1.4875143387962798E-2</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="47" t="s">
         <v>1274</v>
       </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="P29" s="44">
+      <c r="G29" s="47"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="P29" s="47">
         <v>1.0806</v>
       </c>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
@@ -65166,26 +65164,26 @@
         <f t="shared" si="0"/>
         <v>1.0638296987707659E-3</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="47" t="s">
         <v>1275</v>
       </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="P30" s="44">
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="P30" s="47">
         <v>0.1221</v>
       </c>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -65204,26 +65202,26 @@
         <f t="shared" si="0"/>
         <v>2.9445923311867066E-2</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="45"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="P31" s="45">
+      <c r="G31" s="48"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="P31" s="48">
         <v>2.5091999999999999</v>
       </c>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
@@ -65242,26 +65240,26 @@
         <f t="shared" si="0"/>
         <v>2.3196487715608491E-2</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="47" t="s">
         <v>1276</v>
       </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="P32" s="44">
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="P32" s="47">
         <v>2.1776</v>
       </c>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
@@ -65280,22 +65278,22 @@
         <f t="shared" si="0"/>
         <v>1.1223073244939735E-3</v>
       </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
@@ -65314,26 +65312,26 @@
         <f t="shared" si="0"/>
         <v>3.2721768484480267E-2</v>
       </c>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="47" t="s">
         <v>1277</v>
       </c>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="P34" s="44">
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="P34" s="47">
         <v>5.6692</v>
       </c>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
@@ -65352,22 +65350,22 @@
         <f t="shared" si="0"/>
         <v>1.5331794106503085E-2</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
     </row>
     <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
@@ -65386,22 +65384,22 @@
         <f t="shared" si="0"/>
         <v>6.323587098002308E-3</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
     </row>
     <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
@@ -65420,22 +65418,22 @@
         <f t="shared" si="0"/>
         <v>2.4659911591076184E-3</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
@@ -65454,26 +65452,26 @@
         <f t="shared" si="0"/>
         <v>3.2113321643360691E-2</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="P38" s="45">
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="P38" s="48">
         <v>2.7397</v>
       </c>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
@@ -65492,26 +65490,26 @@
         <f t="shared" si="0"/>
         <v>1.3108020412051898E-2</v>
       </c>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="48" t="s">
         <v>1278</v>
       </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="P39" s="45">
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="P39" s="48">
         <v>1.321</v>
       </c>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
     </row>
     <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
@@ -65530,26 +65528,26 @@
         <f t="shared" si="0"/>
         <v>4.8261293898731218E-3</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="P40" s="45">
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="P40" s="48">
         <v>0.28939999999999999</v>
       </c>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
@@ -65568,26 +65566,26 @@
         <f t="shared" si="0"/>
         <v>1.6601877641921465E-2</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="47" t="s">
         <v>1279</v>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="P41" s="44">
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="P41" s="47">
         <v>4.1473000000000004</v>
       </c>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
@@ -65606,22 +65604,22 @@
         <f t="shared" si="0"/>
         <v>3.4377586311511998E-2</v>
       </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
@@ -65640,26 +65638,26 @@
         <f t="shared" si="0"/>
         <v>6.2149088665026343E-3</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="47" t="s">
         <v>1280</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="P43" s="44">
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="P43" s="47">
         <v>7.4531000000000001</v>
       </c>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
@@ -65678,22 +65676,22 @@
         <f t="shared" si="0"/>
         <v>5.2834859436338508E-3</v>
       </c>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
@@ -65712,22 +65710,22 @@
         <f t="shared" si="0"/>
         <v>2.031631046298308E-3</v>
       </c>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
@@ -65746,22 +65744,22 @@
         <f t="shared" si="0"/>
         <v>7.5373855180317151E-4</v>
       </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
@@ -65780,22 +65778,22 @@
         <f t="shared" si="0"/>
         <v>2.8124594092554323E-3</v>
       </c>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
@@ -65814,22 +65812,22 @@
         <f t="shared" si="0"/>
         <v>8.494495410179095E-3</v>
       </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
@@ -65848,22 +65846,22 @@
         <f t="shared" si="0"/>
         <v>8.7274901850951363E-3</v>
       </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
     </row>
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
@@ -65882,22 +65880,22 @@
         <f t="shared" si="0"/>
         <v>4.0116942404753823E-3</v>
       </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
@@ -65916,22 +65914,22 @@
         <f t="shared" si="0"/>
         <v>6.0276484785121815E-4</v>
       </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
@@ -65950,22 +65948,22 @@
         <f t="shared" si="0"/>
         <v>4.2594572223640624E-3</v>
       </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
@@ -65984,22 +65982,22 @@
         <f t="shared" si="0"/>
         <v>5.8854736701786535E-3</v>
       </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
@@ -66018,22 +66016,22 @@
         <f t="shared" si="0"/>
         <v>1.1648160383657694E-2</v>
       </c>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="44"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -66052,22 +66050,22 @@
         <f t="shared" si="0"/>
         <v>1.038847789702615E-3</v>
       </c>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
@@ -66086,22 +66084,22 @@
         <f t="shared" si="0"/>
         <v>2.7748083453887802E-3</v>
       </c>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="44"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="44"/>
-      <c r="U56" s="44"/>
-      <c r="V56" s="44"/>
-      <c r="W56" s="44"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
@@ -66120,26 +66118,26 @@
         <f t="shared" si="0"/>
         <v>1.8625723461661507E-3</v>
       </c>
-      <c r="F57" s="44" t="s">
+      <c r="F57" s="47" t="s">
         <v>1281</v>
       </c>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="P57" s="44">
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="P57" s="47">
         <v>3.1848999999999998</v>
       </c>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="44"/>
-      <c r="S57" s="44"/>
-      <c r="T57" s="44"/>
-      <c r="U57" s="44"/>
-      <c r="V57" s="44"/>
-      <c r="W57" s="44"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
     </row>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -66158,22 +66156,22 @@
         <f t="shared" si="0"/>
         <v>8.5348767674558734E-3</v>
       </c>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="44"/>
-      <c r="T58" s="44"/>
-      <c r="U58" s="44"/>
-      <c r="V58" s="44"/>
-      <c r="W58" s="44"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
@@ -66192,22 +66190,22 @@
         <f t="shared" si="0"/>
         <v>3.1068999499606008E-3</v>
       </c>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="P59" s="44"/>
-      <c r="Q59" s="44"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="44"/>
-      <c r="T59" s="44"/>
-      <c r="U59" s="44"/>
-      <c r="V59" s="44"/>
-      <c r="W59" s="44"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
@@ -66226,22 +66224,22 @@
         <f t="shared" si="0"/>
         <v>2.074966657171494E-3</v>
       </c>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="P60" s="44"/>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="44"/>
-      <c r="T60" s="44"/>
-      <c r="U60" s="44"/>
-      <c r="V60" s="44"/>
-      <c r="W60" s="44"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="47"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="47"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="47"/>
+      <c r="W60" s="47"/>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
@@ -66260,22 +66258,22 @@
         <f t="shared" si="0"/>
         <v>4.0351426383338947E-3</v>
       </c>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
-      <c r="P61" s="44"/>
-      <c r="Q61" s="44"/>
-      <c r="R61" s="44"/>
-      <c r="S61" s="44"/>
-      <c r="T61" s="44"/>
-      <c r="U61" s="44"/>
-      <c r="V61" s="44"/>
-      <c r="W61" s="44"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="47"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="47"/>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
@@ -66294,22 +66292,22 @@
         <f t="shared" si="0"/>
         <v>1.6836751315674034E-3</v>
       </c>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="44"/>
-      <c r="S62" s="44"/>
-      <c r="T62" s="44"/>
-      <c r="U62" s="44"/>
-      <c r="V62" s="44"/>
-      <c r="W62" s="44"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="47"/>
+      <c r="T62" s="47"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
@@ -66328,22 +66326,22 @@
         <f t="shared" si="0"/>
         <v>7.6213923702837371E-3</v>
       </c>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="44"/>
-      <c r="T63" s="44"/>
-      <c r="U63" s="44"/>
-      <c r="V63" s="44"/>
-      <c r="W63" s="44"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="47"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
@@ -66362,22 +66360,22 @@
         <f t="shared" si="0"/>
         <v>1.4419361965507657E-3</v>
       </c>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="44"/>
-      <c r="R64" s="44"/>
-      <c r="S64" s="44"/>
-      <c r="T64" s="44"/>
-      <c r="U64" s="44"/>
-      <c r="V64" s="44"/>
-      <c r="W64" s="44"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="47"/>
+      <c r="T64" s="47"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
     </row>
     <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
@@ -66396,22 +66394,22 @@
         <f t="shared" si="0"/>
         <v>1.5105340010418437E-3</v>
       </c>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="44"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="44"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
     </row>
     <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
@@ -66430,22 +66428,22 @@
         <f t="shared" si="0"/>
         <v>1.4900354049172228E-3</v>
       </c>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="44"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="44"/>
-      <c r="T66" s="44"/>
-      <c r="U66" s="44"/>
-      <c r="V66" s="44"/>
-      <c r="W66" s="44"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
     </row>
     <row r="67" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
@@ -66464,26 +66462,26 @@
         <f t="shared" si="0"/>
         <v>1.8230943240911048E-3</v>
       </c>
-      <c r="F67" s="44" t="s">
+      <c r="F67" s="47" t="s">
         <v>1282</v>
       </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
-      <c r="P67" s="44">
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="P67" s="47">
         <v>10.5219</v>
       </c>
-      <c r="Q67" s="44"/>
-      <c r="R67" s="44"/>
-      <c r="S67" s="44"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="44"/>
-      <c r="V67" s="44"/>
-      <c r="W67" s="44"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="47"/>
+      <c r="T67" s="47"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
@@ -66502,22 +66500,22 @@
         <f t="shared" si="0"/>
         <v>1.7260222943693221E-3</v>
       </c>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="P68" s="44"/>
-      <c r="Q68" s="44"/>
-      <c r="R68" s="44"/>
-      <c r="S68" s="44"/>
-      <c r="T68" s="44"/>
-      <c r="U68" s="44"/>
-      <c r="V68" s="44"/>
-      <c r="W68" s="44"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="47"/>
     </row>
     <row r="69" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
@@ -66536,22 +66534,22 @@
         <f t="shared" si="0"/>
         <v>6.1046068774752498E-3</v>
       </c>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
-      <c r="U69" s="44"/>
-      <c r="V69" s="44"/>
-      <c r="W69" s="44"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
     </row>
     <row r="70" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
@@ -66570,22 +66568,22 @@
         <f t="shared" si="0"/>
         <v>4.5638339162874325E-4</v>
       </c>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="P70" s="44"/>
-      <c r="Q70" s="44"/>
-      <c r="R70" s="44"/>
-      <c r="S70" s="44"/>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
-      <c r="V70" s="44"/>
-      <c r="W70" s="44"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="47"/>
     </row>
     <row r="71" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
@@ -66604,22 +66602,22 @@
         <f t="shared" ref="E71:E133" si="1">D71/25.3156</f>
         <v>2.6642884040434817E-2</v>
       </c>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="P71" s="44"/>
-      <c r="Q71" s="44"/>
-      <c r="R71" s="44"/>
-      <c r="S71" s="44"/>
-      <c r="T71" s="44"/>
-      <c r="U71" s="44"/>
-      <c r="V71" s="44"/>
-      <c r="W71" s="44"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="47"/>
     </row>
     <row r="72" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
@@ -66638,22 +66636,22 @@
         <f t="shared" si="1"/>
         <v>4.0745288556989362E-3</v>
       </c>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="44"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="44"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="44"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="44"/>
-      <c r="T72" s="44"/>
-      <c r="U72" s="44"/>
-      <c r="V72" s="44"/>
-      <c r="W72" s="44"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="47"/>
+      <c r="S72" s="47"/>
+      <c r="T72" s="47"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="47"/>
+      <c r="W72" s="47"/>
     </row>
     <row r="73" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
@@ -66672,22 +66670,22 @@
         <f t="shared" si="1"/>
         <v>2.6291777205351132E-3</v>
       </c>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="44"/>
-      <c r="T73" s="44"/>
-      <c r="U73" s="44"/>
-      <c r="V73" s="44"/>
-      <c r="W73" s="44"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="47"/>
+      <c r="S73" s="47"/>
+      <c r="T73" s="47"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="47"/>
     </row>
     <row r="74" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -66706,22 +66704,22 @@
         <f t="shared" si="1"/>
         <v>2.4169813718144498E-3</v>
       </c>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="44"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="44"/>
-      <c r="P74" s="44"/>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="44"/>
-      <c r="S74" s="44"/>
-      <c r="T74" s="44"/>
-      <c r="U74" s="44"/>
-      <c r="V74" s="44"/>
-      <c r="W74" s="44"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="47"/>
+      <c r="S74" s="47"/>
+      <c r="T74" s="47"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="47"/>
+      <c r="W74" s="47"/>
     </row>
     <row r="75" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
@@ -66740,22 +66738,22 @@
         <f t="shared" si="1"/>
         <v>2.0113790678469297E-3</v>
       </c>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="44"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="44"/>
-      <c r="S75" s="44"/>
-      <c r="T75" s="44"/>
-      <c r="U75" s="44"/>
-      <c r="V75" s="44"/>
-      <c r="W75" s="44"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
+      <c r="S75" s="47"/>
+      <c r="T75" s="47"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="47"/>
     </row>
     <row r="76" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
@@ -66774,22 +66772,22 @@
         <f t="shared" si="1"/>
         <v>1.5928167106646553E-3</v>
       </c>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="44"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="44"/>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="44"/>
-      <c r="S76" s="44"/>
-      <c r="T76" s="44"/>
-      <c r="U76" s="44"/>
-      <c r="V76" s="44"/>
-      <c r="W76" s="44"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="47"/>
+      <c r="S76" s="47"/>
+      <c r="T76" s="47"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
     </row>
     <row r="77" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
@@ -66808,22 +66806,22 @@
         <f t="shared" si="1"/>
         <v>8.93928526838755E-3</v>
       </c>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
-      <c r="P77" s="44"/>
-      <c r="Q77" s="44"/>
-      <c r="R77" s="44"/>
-      <c r="S77" s="44"/>
-      <c r="T77" s="44"/>
-      <c r="U77" s="44"/>
-      <c r="V77" s="44"/>
-      <c r="W77" s="44"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
+      <c r="S77" s="47"/>
+      <c r="T77" s="47"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="47"/>
+      <c r="W77" s="47"/>
     </row>
     <row r="78" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -66842,22 +66840,22 @@
         <f t="shared" si="1"/>
         <v>1.4136498051078854E-3</v>
       </c>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="44"/>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
-      <c r="R78" s="44"/>
-      <c r="S78" s="44"/>
-      <c r="T78" s="44"/>
-      <c r="U78" s="44"/>
-      <c r="V78" s="44"/>
-      <c r="W78" s="44"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="47"/>
+      <c r="S78" s="47"/>
+      <c r="T78" s="47"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="47"/>
+      <c r="W78" s="47"/>
     </row>
     <row r="79" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
@@ -66876,22 +66874,22 @@
         <f t="shared" si="1"/>
         <v>5.5109265198360999E-4</v>
       </c>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="44"/>
-      <c r="P79" s="44"/>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="44"/>
-      <c r="S79" s="44"/>
-      <c r="T79" s="44"/>
-      <c r="U79" s="44"/>
-      <c r="V79" s="44"/>
-      <c r="W79" s="44"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
+      <c r="S79" s="47"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
     </row>
     <row r="80" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
@@ -66910,22 +66908,22 @@
         <f t="shared" si="1"/>
         <v>1.9717806977418203E-3</v>
       </c>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="44"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="44"/>
-      <c r="P80" s="44"/>
-      <c r="Q80" s="44"/>
-      <c r="R80" s="44"/>
-      <c r="S80" s="44"/>
-      <c r="T80" s="44"/>
-      <c r="U80" s="44"/>
-      <c r="V80" s="44"/>
-      <c r="W80" s="44"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+      <c r="S80" s="47"/>
+      <c r="T80" s="47"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
     </row>
     <row r="81" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
@@ -66944,22 +66942,22 @@
         <f t="shared" si="1"/>
         <v>2.6256789103385925E-3</v>
       </c>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="44"/>
-      <c r="P81" s="44"/>
-      <c r="Q81" s="44"/>
-      <c r="R81" s="44"/>
-      <c r="S81" s="44"/>
-      <c r="T81" s="44"/>
-      <c r="U81" s="44"/>
-      <c r="V81" s="44"/>
-      <c r="W81" s="44"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="47"/>
+      <c r="S81" s="47"/>
+      <c r="T81" s="47"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="47"/>
+      <c r="W81" s="47"/>
     </row>
     <row r="82" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
@@ -66978,22 +66976,22 @@
         <f t="shared" si="1"/>
         <v>2.0229045077588353E-3</v>
       </c>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="44"/>
-      <c r="L82" s="44"/>
-      <c r="M82" s="44"/>
-      <c r="P82" s="44"/>
-      <c r="Q82" s="44"/>
-      <c r="R82" s="44"/>
-      <c r="S82" s="44"/>
-      <c r="T82" s="44"/>
-      <c r="U82" s="44"/>
-      <c r="V82" s="44"/>
-      <c r="W82" s="44"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="47"/>
+      <c r="S82" s="47"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
     </row>
     <row r="83" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
@@ -67012,22 +67010,22 @@
         <f t="shared" si="1"/>
         <v>3.0987323283003103E-4</v>
       </c>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="P83" s="44"/>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="44"/>
-      <c r="S83" s="44"/>
-      <c r="T83" s="44"/>
-      <c r="U83" s="44"/>
-      <c r="V83" s="44"/>
-      <c r="W83" s="44"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="47"/>
+      <c r="S83" s="47"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="47"/>
+      <c r="W83" s="47"/>
     </row>
     <row r="84" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
@@ -67046,22 +67044,22 @@
         <f t="shared" si="1"/>
         <v>5.7775011057238394E-3</v>
       </c>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="44"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="44"/>
-      <c r="P84" s="44"/>
-      <c r="Q84" s="44"/>
-      <c r="R84" s="44"/>
-      <c r="S84" s="44"/>
-      <c r="T84" s="44"/>
-      <c r="U84" s="44"/>
-      <c r="V84" s="44"/>
-      <c r="W84" s="44"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="47"/>
+      <c r="R84" s="47"/>
+      <c r="S84" s="47"/>
+      <c r="T84" s="47"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="47"/>
+      <c r="W84" s="47"/>
     </row>
     <row r="85" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
@@ -67080,22 +67078,22 @@
         <f t="shared" si="1"/>
         <v>1.4211888437760535E-3</v>
       </c>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="P85" s="44"/>
-      <c r="Q85" s="44"/>
-      <c r="R85" s="44"/>
-      <c r="S85" s="44"/>
-      <c r="T85" s="44"/>
-      <c r="U85" s="44"/>
-      <c r="V85" s="44"/>
-      <c r="W85" s="44"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="47"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="47"/>
+      <c r="R85" s="47"/>
+      <c r="S85" s="47"/>
+      <c r="T85" s="47"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="47"/>
+      <c r="W85" s="47"/>
     </row>
     <row r="86" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
@@ -67114,22 +67112,22 @@
         <f t="shared" si="1"/>
         <v>5.7447327033877669E-4</v>
       </c>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="44"/>
-      <c r="R86" s="44"/>
-      <c r="S86" s="44"/>
-      <c r="T86" s="44"/>
-      <c r="U86" s="44"/>
-      <c r="V86" s="44"/>
-      <c r="W86" s="44"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="47"/>
+      <c r="S86" s="47"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="47"/>
+      <c r="W86" s="47"/>
     </row>
     <row r="87" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
@@ -67148,22 +67146,22 @@
         <f t="shared" si="1"/>
         <v>1.0611908574863403E-2</v>
       </c>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="44"/>
-      <c r="R87" s="44"/>
-      <c r="S87" s="44"/>
-      <c r="T87" s="44"/>
-      <c r="U87" s="44"/>
-      <c r="V87" s="44"/>
-      <c r="W87" s="44"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="47"/>
+      <c r="R87" s="47"/>
+      <c r="S87" s="47"/>
+      <c r="T87" s="47"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="47"/>
+      <c r="W87" s="47"/>
     </row>
     <row r="88" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
@@ -67182,22 +67180,22 @@
         <f t="shared" si="1"/>
         <v>2.0206809835523632E-3</v>
       </c>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="44"/>
-      <c r="S88" s="44"/>
-      <c r="T88" s="44"/>
-      <c r="U88" s="44"/>
-      <c r="V88" s="44"/>
-      <c r="W88" s="44"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="P88" s="47"/>
+      <c r="Q88" s="47"/>
+      <c r="R88" s="47"/>
+      <c r="S88" s="47"/>
+      <c r="T88" s="47"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="47"/>
+      <c r="W88" s="47"/>
     </row>
     <row r="89" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
@@ -67216,22 +67214,22 @@
         <f t="shared" si="1"/>
         <v>5.7707231490032585E-4</v>
       </c>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="44"/>
-      <c r="P89" s="44"/>
-      <c r="Q89" s="44"/>
-      <c r="R89" s="44"/>
-      <c r="S89" s="44"/>
-      <c r="T89" s="44"/>
-      <c r="U89" s="44"/>
-      <c r="V89" s="44"/>
-      <c r="W89" s="44"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="47"/>
+      <c r="R89" s="47"/>
+      <c r="S89" s="47"/>
+      <c r="T89" s="47"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="47"/>
+      <c r="W89" s="47"/>
     </row>
     <row r="90" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
@@ -67250,26 +67248,26 @@
         <f t="shared" si="1"/>
         <v>1.1804160924058841E-2</v>
       </c>
-      <c r="F90" s="44" t="s">
+      <c r="F90" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="G90" s="44"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="43"/>
-      <c r="P90" s="44">
+      <c r="G90" s="47"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="P90" s="47">
         <v>1.0684</v>
       </c>
-      <c r="Q90" s="44"/>
-      <c r="R90" s="41"/>
-      <c r="S90" s="43"/>
-      <c r="T90" s="43"/>
-      <c r="U90" s="43"/>
-      <c r="V90" s="43"/>
-      <c r="W90" s="43"/>
+      <c r="Q90" s="47"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="42"/>
+      <c r="T90" s="42"/>
+      <c r="U90" s="42"/>
+      <c r="V90" s="42"/>
+      <c r="W90" s="42"/>
     </row>
     <row r="91" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
@@ -67288,26 +67286,26 @@
         <f t="shared" si="1"/>
         <v>4.0225590157415654E-3</v>
       </c>
-      <c r="F91" s="44" t="s">
+      <c r="F91" s="47" t="s">
         <v>1283</v>
       </c>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="43"/>
-      <c r="P91" s="44">
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="P91" s="47">
         <v>1.1157999999999999</v>
       </c>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="43"/>
-      <c r="T91" s="43"/>
-      <c r="U91" s="43"/>
-      <c r="V91" s="43"/>
-      <c r="W91" s="43"/>
+      <c r="Q91" s="47"/>
+      <c r="R91" s="47"/>
+      <c r="S91" s="42"/>
+      <c r="T91" s="42"/>
+      <c r="U91" s="42"/>
+      <c r="V91" s="42"/>
+      <c r="W91" s="42"/>
     </row>
     <row r="92" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -67326,22 +67324,22 @@
         <f t="shared" si="1"/>
         <v>2.5475869773485607E-3</v>
       </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="43"/>
-      <c r="L92" s="43"/>
-      <c r="M92" s="43"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
-      <c r="S92" s="43"/>
-      <c r="T92" s="43"/>
-      <c r="U92" s="43"/>
-      <c r="V92" s="43"/>
-      <c r="W92" s="43"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="47"/>
+      <c r="S92" s="42"/>
+      <c r="T92" s="42"/>
+      <c r="U92" s="42"/>
+      <c r="V92" s="42"/>
+      <c r="W92" s="42"/>
     </row>
     <row r="93" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
@@ -67360,22 +67358,22 @@
         <f t="shared" si="1"/>
         <v>4.7219026014242837E-3</v>
       </c>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43"/>
-      <c r="K93" s="43"/>
-      <c r="L93" s="43"/>
-      <c r="M93" s="43"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="44"/>
-      <c r="S93" s="43"/>
-      <c r="T93" s="43"/>
-      <c r="U93" s="43"/>
-      <c r="V93" s="43"/>
-      <c r="W93" s="43"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
+      <c r="S93" s="42"/>
+      <c r="T93" s="42"/>
+      <c r="U93" s="42"/>
+      <c r="V93" s="42"/>
+      <c r="W93" s="42"/>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
@@ -67394,26 +67392,26 @@
         <f t="shared" si="1"/>
         <v>9.4315957054802869E-4</v>
       </c>
-      <c r="F94" s="44" t="s">
+      <c r="F94" s="47" t="s">
         <v>1284</v>
       </c>
-      <c r="G94" s="44"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
-      <c r="K94" s="44"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="44"/>
-      <c r="P94" s="44">
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="P94" s="47">
         <v>3.5074000000000001</v>
       </c>
-      <c r="Q94" s="44"/>
-      <c r="R94" s="44"/>
-      <c r="S94" s="44"/>
-      <c r="T94" s="44"/>
-      <c r="U94" s="44"/>
-      <c r="V94" s="44"/>
-      <c r="W94" s="44"/>
+      <c r="Q94" s="47"/>
+      <c r="R94" s="47"/>
+      <c r="S94" s="47"/>
+      <c r="T94" s="47"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="47"/>
+      <c r="W94" s="47"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
@@ -67432,22 +67430,22 @@
         <f t="shared" si="1"/>
         <v>1.1057177897891752E-3</v>
       </c>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="44"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="44"/>
-      <c r="P95" s="44"/>
-      <c r="Q95" s="44"/>
-      <c r="R95" s="44"/>
-      <c r="S95" s="44"/>
-      <c r="T95" s="44"/>
-      <c r="U95" s="44"/>
-      <c r="V95" s="44"/>
-      <c r="W95" s="44"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="47"/>
+      <c r="P95" s="47"/>
+      <c r="Q95" s="47"/>
+      <c r="R95" s="47"/>
+      <c r="S95" s="47"/>
+      <c r="T95" s="47"/>
+      <c r="U95" s="47"/>
+      <c r="V95" s="47"/>
+      <c r="W95" s="47"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
@@ -67466,22 +67464,22 @@
         <f t="shared" si="1"/>
         <v>6.4688931862543859E-3</v>
       </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="44"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="44"/>
-      <c r="K96" s="44"/>
-      <c r="L96" s="44"/>
-      <c r="M96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
-      <c r="S96" s="44"/>
-      <c r="T96" s="44"/>
-      <c r="U96" s="44"/>
-      <c r="V96" s="44"/>
-      <c r="W96" s="44"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="47"/>
+      <c r="P96" s="47"/>
+      <c r="Q96" s="47"/>
+      <c r="R96" s="47"/>
+      <c r="S96" s="47"/>
+      <c r="T96" s="47"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="47"/>
+      <c r="W96" s="47"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -67500,22 +67498,22 @@
         <f t="shared" si="1"/>
         <v>1.4793693649329047E-2</v>
       </c>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="44"/>
-      <c r="L97" s="44"/>
-      <c r="M97" s="44"/>
-      <c r="P97" s="44"/>
-      <c r="Q97" s="44"/>
-      <c r="R97" s="44"/>
-      <c r="S97" s="44"/>
-      <c r="T97" s="44"/>
-      <c r="U97" s="44"/>
-      <c r="V97" s="44"/>
-      <c r="W97" s="44"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="47"/>
+      <c r="L97" s="47"/>
+      <c r="M97" s="47"/>
+      <c r="P97" s="47"/>
+      <c r="Q97" s="47"/>
+      <c r="R97" s="47"/>
+      <c r="S97" s="47"/>
+      <c r="T97" s="47"/>
+      <c r="U97" s="47"/>
+      <c r="V97" s="47"/>
+      <c r="W97" s="47"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
@@ -67534,22 +67532,22 @@
         <f t="shared" si="1"/>
         <v>5.1633651161597377E-3</v>
       </c>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="44"/>
-      <c r="I98" s="44"/>
-      <c r="J98" s="44"/>
-      <c r="K98" s="44"/>
-      <c r="L98" s="44"/>
-      <c r="M98" s="44"/>
-      <c r="P98" s="44"/>
-      <c r="Q98" s="44"/>
-      <c r="R98" s="44"/>
-      <c r="S98" s="44"/>
-      <c r="T98" s="44"/>
-      <c r="U98" s="44"/>
-      <c r="V98" s="44"/>
-      <c r="W98" s="44"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
+      <c r="L98" s="47"/>
+      <c r="M98" s="47"/>
+      <c r="P98" s="47"/>
+      <c r="Q98" s="47"/>
+      <c r="R98" s="47"/>
+      <c r="S98" s="47"/>
+      <c r="T98" s="47"/>
+      <c r="U98" s="47"/>
+      <c r="V98" s="47"/>
+      <c r="W98" s="47"/>
     </row>
     <row r="99" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
@@ -67568,26 +67566,26 @@
         <f t="shared" si="1"/>
         <v>1.286626734686825E-2</v>
       </c>
-      <c r="F99" s="44" t="s">
+      <c r="F99" s="47" t="s">
         <v>1285</v>
       </c>
-      <c r="G99" s="44"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="43"/>
-      <c r="M99" s="43"/>
-      <c r="P99" s="44">
+      <c r="G99" s="47"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="P99" s="47">
         <v>1.5087999999999999</v>
       </c>
-      <c r="Q99" s="44"/>
-      <c r="R99" s="42"/>
-      <c r="S99" s="43"/>
-      <c r="T99" s="43"/>
-      <c r="U99" s="43"/>
-      <c r="V99" s="43"/>
-      <c r="W99" s="43"/>
+      <c r="Q99" s="47"/>
+      <c r="R99" s="41"/>
+      <c r="S99" s="42"/>
+      <c r="T99" s="42"/>
+      <c r="U99" s="42"/>
+      <c r="V99" s="42"/>
+      <c r="W99" s="42"/>
     </row>
     <row r="100" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
@@ -67606,22 +67604,22 @@
         <f t="shared" si="1"/>
         <v>2.0022687849941983E-3</v>
       </c>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="43"/>
-      <c r="L100" s="43"/>
-      <c r="M100" s="43"/>
-      <c r="P100" s="44"/>
-      <c r="Q100" s="44"/>
-      <c r="R100" s="42"/>
-      <c r="S100" s="43"/>
-      <c r="T100" s="43"/>
-      <c r="U100" s="43"/>
-      <c r="V100" s="43"/>
-      <c r="W100" s="43"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="42"/>
+      <c r="P100" s="47"/>
+      <c r="Q100" s="47"/>
+      <c r="R100" s="41"/>
+      <c r="S100" s="42"/>
+      <c r="T100" s="42"/>
+      <c r="U100" s="42"/>
+      <c r="V100" s="42"/>
+      <c r="W100" s="42"/>
     </row>
     <row r="101" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
@@ -67640,26 +67638,26 @@
         <f t="shared" si="1"/>
         <v>1.3947727243241691E-3</v>
       </c>
-      <c r="F101" s="44" t="s">
+      <c r="F101" s="47" t="s">
         <v>1286</v>
       </c>
-      <c r="G101" s="44"/>
-      <c r="H101" s="44"/>
-      <c r="I101" s="44"/>
-      <c r="J101" s="43"/>
-      <c r="K101" s="43"/>
-      <c r="L101" s="43"/>
-      <c r="M101" s="43"/>
-      <c r="P101" s="44">
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="42"/>
+      <c r="M101" s="42"/>
+      <c r="P101" s="47">
         <v>1.0296000000000001</v>
       </c>
-      <c r="Q101" s="44"/>
-      <c r="R101" s="44"/>
-      <c r="S101" s="44"/>
-      <c r="T101" s="43"/>
-      <c r="U101" s="43"/>
-      <c r="V101" s="43"/>
-      <c r="W101" s="43"/>
+      <c r="Q101" s="47"/>
+      <c r="R101" s="47"/>
+      <c r="S101" s="47"/>
+      <c r="T101" s="42"/>
+      <c r="U101" s="42"/>
+      <c r="V101" s="42"/>
+      <c r="W101" s="42"/>
     </row>
     <row r="102" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
@@ -67678,22 +67676,22 @@
         <f t="shared" si="1"/>
         <v>6.0041972118648965E-3</v>
       </c>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="43"/>
-      <c r="L102" s="43"/>
-      <c r="M102" s="43"/>
-      <c r="P102" s="44"/>
-      <c r="Q102" s="44"/>
-      <c r="R102" s="44"/>
-      <c r="S102" s="44"/>
-      <c r="T102" s="43"/>
-      <c r="U102" s="43"/>
-      <c r="V102" s="43"/>
-      <c r="W102" s="43"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="P102" s="47"/>
+      <c r="Q102" s="47"/>
+      <c r="R102" s="47"/>
+      <c r="S102" s="47"/>
+      <c r="T102" s="42"/>
+      <c r="U102" s="42"/>
+      <c r="V102" s="42"/>
+      <c r="W102" s="42"/>
     </row>
     <row r="103" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
@@ -67712,22 +67710,22 @@
         <f t="shared" si="1"/>
         <v>2.0990300881380789E-3</v>
       </c>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="43"/>
-      <c r="K103" s="43"/>
-      <c r="L103" s="43"/>
-      <c r="M103" s="43"/>
-      <c r="P103" s="44"/>
-      <c r="Q103" s="44"/>
-      <c r="R103" s="44"/>
-      <c r="S103" s="44"/>
-      <c r="T103" s="43"/>
-      <c r="U103" s="43"/>
-      <c r="V103" s="43"/>
-      <c r="W103" s="43"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="P103" s="47"/>
+      <c r="Q103" s="47"/>
+      <c r="R103" s="47"/>
+      <c r="S103" s="47"/>
+      <c r="T103" s="42"/>
+      <c r="U103" s="42"/>
+      <c r="V103" s="42"/>
+      <c r="W103" s="42"/>
     </row>
     <row r="104" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
@@ -67746,22 +67744,22 @@
         <f t="shared" si="1"/>
         <v>2.2971233051472754E-3</v>
       </c>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="43"/>
-      <c r="K104" s="43"/>
-      <c r="L104" s="43"/>
-      <c r="M104" s="43"/>
-      <c r="P104" s="44"/>
-      <c r="Q104" s="44"/>
-      <c r="R104" s="44"/>
-      <c r="S104" s="44"/>
-      <c r="T104" s="43"/>
-      <c r="U104" s="43"/>
-      <c r="V104" s="43"/>
-      <c r="W104" s="43"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="P104" s="47"/>
+      <c r="Q104" s="47"/>
+      <c r="R104" s="47"/>
+      <c r="S104" s="47"/>
+      <c r="T104" s="42"/>
+      <c r="U104" s="42"/>
+      <c r="V104" s="42"/>
+      <c r="W104" s="42"/>
     </row>
     <row r="105" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
@@ -67780,22 +67778,22 @@
         <f t="shared" si="1"/>
         <v>5.9123862972986516E-4</v>
       </c>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="43"/>
-      <c r="K105" s="43"/>
-      <c r="L105" s="43"/>
-      <c r="M105" s="43"/>
-      <c r="P105" s="44"/>
-      <c r="Q105" s="44"/>
-      <c r="R105" s="44"/>
-      <c r="S105" s="44"/>
-      <c r="T105" s="43"/>
-      <c r="U105" s="43"/>
-      <c r="V105" s="43"/>
-      <c r="W105" s="43"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="P105" s="47"/>
+      <c r="Q105" s="47"/>
+      <c r="R105" s="47"/>
+      <c r="S105" s="47"/>
+      <c r="T105" s="42"/>
+      <c r="U105" s="42"/>
+      <c r="V105" s="42"/>
+      <c r="W105" s="42"/>
     </row>
     <row r="106" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
@@ -67814,26 +67812,26 @@
         <f t="shared" si="1"/>
         <v>7.5497983656986943E-3</v>
       </c>
-      <c r="F106" s="44" t="s">
+      <c r="F106" s="47" t="s">
         <v>1287</v>
       </c>
-      <c r="G106" s="44"/>
-      <c r="H106" s="44"/>
-      <c r="I106" s="44"/>
-      <c r="J106" s="43"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="43"/>
-      <c r="M106" s="43"/>
-      <c r="P106" s="44">
+      <c r="G106" s="47"/>
+      <c r="H106" s="47"/>
+      <c r="I106" s="47"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="P106" s="47">
         <v>2.4769999999999999</v>
       </c>
-      <c r="Q106" s="44"/>
-      <c r="R106" s="44"/>
-      <c r="S106" s="44"/>
-      <c r="T106" s="43"/>
-      <c r="U106" s="43"/>
-      <c r="V106" s="43"/>
-      <c r="W106" s="43"/>
+      <c r="Q106" s="47"/>
+      <c r="R106" s="47"/>
+      <c r="S106" s="47"/>
+      <c r="T106" s="42"/>
+      <c r="U106" s="42"/>
+      <c r="V106" s="42"/>
+      <c r="W106" s="42"/>
     </row>
     <row r="107" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
@@ -67852,22 +67850,22 @@
         <f t="shared" si="1"/>
         <v>4.5449436719292328E-3</v>
       </c>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
-      <c r="I107" s="44"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="43"/>
-      <c r="M107" s="43"/>
-      <c r="P107" s="44"/>
-      <c r="Q107" s="44"/>
-      <c r="R107" s="44"/>
-      <c r="S107" s="44"/>
-      <c r="T107" s="43"/>
-      <c r="U107" s="43"/>
-      <c r="V107" s="43"/>
-      <c r="W107" s="43"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="P107" s="47"/>
+      <c r="Q107" s="47"/>
+      <c r="R107" s="47"/>
+      <c r="S107" s="47"/>
+      <c r="T107" s="42"/>
+      <c r="U107" s="42"/>
+      <c r="V107" s="42"/>
+      <c r="W107" s="42"/>
     </row>
     <row r="108" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A108" s="16" t="s">
@@ -67886,22 +67884,22 @@
         <f t="shared" si="1"/>
         <v>1.9085398848291437E-3</v>
       </c>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="44"/>
-      <c r="I108" s="44"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="43"/>
-      <c r="L108" s="43"/>
-      <c r="M108" s="43"/>
-      <c r="P108" s="44"/>
-      <c r="Q108" s="44"/>
-      <c r="R108" s="44"/>
-      <c r="S108" s="44"/>
-      <c r="T108" s="43"/>
-      <c r="U108" s="43"/>
-      <c r="V108" s="43"/>
-      <c r="W108" s="43"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="P108" s="47"/>
+      <c r="Q108" s="47"/>
+      <c r="R108" s="47"/>
+      <c r="S108" s="47"/>
+      <c r="T108" s="42"/>
+      <c r="U108" s="42"/>
+      <c r="V108" s="42"/>
+      <c r="W108" s="42"/>
     </row>
     <row r="109" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A109" s="16" t="s">
@@ -67920,22 +67918,22 @@
         <f t="shared" si="1"/>
         <v>1.1404586852766089E-3</v>
       </c>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="44"/>
-      <c r="I109" s="44"/>
-      <c r="J109" s="43"/>
-      <c r="K109" s="43"/>
-      <c r="L109" s="43"/>
-      <c r="M109" s="43"/>
-      <c r="P109" s="44"/>
-      <c r="Q109" s="44"/>
-      <c r="R109" s="44"/>
-      <c r="S109" s="44"/>
-      <c r="T109" s="43"/>
-      <c r="U109" s="43"/>
-      <c r="V109" s="43"/>
-      <c r="W109" s="43"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="P109" s="47"/>
+      <c r="Q109" s="47"/>
+      <c r="R109" s="47"/>
+      <c r="S109" s="47"/>
+      <c r="T109" s="42"/>
+      <c r="U109" s="42"/>
+      <c r="V109" s="42"/>
+      <c r="W109" s="42"/>
     </row>
     <row r="110" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
@@ -67954,22 +67952,22 @@
         <f t="shared" si="1"/>
         <v>4.3875883878211949E-3</v>
       </c>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="44"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="43"/>
-      <c r="L110" s="43"/>
-      <c r="M110" s="43"/>
-      <c r="P110" s="44"/>
-      <c r="Q110" s="44"/>
-      <c r="R110" s="44"/>
-      <c r="S110" s="44"/>
-      <c r="T110" s="43"/>
-      <c r="U110" s="43"/>
-      <c r="V110" s="43"/>
-      <c r="W110" s="43"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="42"/>
+      <c r="P110" s="47"/>
+      <c r="Q110" s="47"/>
+      <c r="R110" s="47"/>
+      <c r="S110" s="47"/>
+      <c r="T110" s="42"/>
+      <c r="U110" s="42"/>
+      <c r="V110" s="42"/>
+      <c r="W110" s="42"/>
     </row>
     <row r="111" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -67988,26 +67986,26 @@
         <f t="shared" si="1"/>
         <v>6.182756121746907E-3</v>
       </c>
-      <c r="F111" s="44" t="s">
+      <c r="F111" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="G111" s="44"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
-      <c r="K111" s="43"/>
-      <c r="L111" s="43"/>
-      <c r="M111" s="43"/>
-      <c r="P111" s="44">
+      <c r="G111" s="47"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="P111" s="47">
         <v>0.47099999999999997</v>
       </c>
-      <c r="Q111" s="44"/>
-      <c r="R111" s="42"/>
-      <c r="S111" s="43"/>
-      <c r="T111" s="43"/>
-      <c r="U111" s="43"/>
-      <c r="V111" s="43"/>
-      <c r="W111" s="43"/>
+      <c r="Q111" s="47"/>
+      <c r="R111" s="41"/>
+      <c r="S111" s="42"/>
+      <c r="T111" s="42"/>
+      <c r="U111" s="42"/>
+      <c r="V111" s="42"/>
+      <c r="W111" s="42"/>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
@@ -68026,26 +68024,26 @@
         <f t="shared" si="1"/>
         <v>4.5488419725467112E-3</v>
       </c>
-      <c r="F112" s="44" t="s">
+      <c r="F112" s="47" t="s">
         <v>1288</v>
       </c>
-      <c r="G112" s="44"/>
-      <c r="H112" s="44"/>
-      <c r="I112" s="44"/>
-      <c r="J112" s="44"/>
-      <c r="K112" s="44"/>
-      <c r="L112" s="44"/>
-      <c r="M112" s="44"/>
-      <c r="P112" s="44">
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="47"/>
+      <c r="M112" s="47"/>
+      <c r="P112" s="47">
         <v>1.4801</v>
       </c>
-      <c r="Q112" s="44"/>
-      <c r="R112" s="44"/>
-      <c r="S112" s="44"/>
-      <c r="T112" s="44"/>
-      <c r="U112" s="44"/>
-      <c r="V112" s="44"/>
-      <c r="W112" s="44"/>
+      <c r="Q112" s="47"/>
+      <c r="R112" s="47"/>
+      <c r="S112" s="47"/>
+      <c r="T112" s="47"/>
+      <c r="U112" s="47"/>
+      <c r="V112" s="47"/>
+      <c r="W112" s="47"/>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="16" t="s">
@@ -68064,22 +68062,22 @@
         <f t="shared" si="1"/>
         <v>1.2643411397832841E-3</v>
       </c>
-      <c r="F113" s="44"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="44"/>
-      <c r="I113" s="44"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="44"/>
-      <c r="L113" s="44"/>
-      <c r="M113" s="44"/>
-      <c r="P113" s="44"/>
-      <c r="Q113" s="44"/>
-      <c r="R113" s="44"/>
-      <c r="S113" s="44"/>
-      <c r="T113" s="44"/>
-      <c r="U113" s="44"/>
-      <c r="V113" s="44"/>
-      <c r="W113" s="44"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="47"/>
+      <c r="K113" s="47"/>
+      <c r="L113" s="47"/>
+      <c r="M113" s="47"/>
+      <c r="P113" s="47"/>
+      <c r="Q113" s="47"/>
+      <c r="R113" s="47"/>
+      <c r="S113" s="47"/>
+      <c r="T113" s="47"/>
+      <c r="U113" s="47"/>
+      <c r="V113" s="47"/>
+      <c r="W113" s="47"/>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
@@ -68098,22 +68096,22 @@
         <f t="shared" si="1"/>
         <v>7.17358219820101E-4</v>
       </c>
-      <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="44"/>
-      <c r="I114" s="44"/>
-      <c r="J114" s="44"/>
-      <c r="K114" s="44"/>
-      <c r="L114" s="44"/>
-      <c r="M114" s="44"/>
-      <c r="P114" s="44"/>
-      <c r="Q114" s="44"/>
-      <c r="R114" s="44"/>
-      <c r="S114" s="44"/>
-      <c r="T114" s="44"/>
-      <c r="U114" s="44"/>
-      <c r="V114" s="44"/>
-      <c r="W114" s="44"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="47"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="47"/>
+      <c r="K114" s="47"/>
+      <c r="L114" s="47"/>
+      <c r="M114" s="47"/>
+      <c r="P114" s="47"/>
+      <c r="Q114" s="47"/>
+      <c r="R114" s="47"/>
+      <c r="S114" s="47"/>
+      <c r="T114" s="47"/>
+      <c r="U114" s="47"/>
+      <c r="V114" s="47"/>
+      <c r="W114" s="47"/>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
@@ -68132,22 +68130,22 @@
         <f t="shared" si="1"/>
         <v>9.7044154919025377E-4</v>
       </c>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="44"/>
-      <c r="I115" s="44"/>
-      <c r="J115" s="44"/>
-      <c r="K115" s="44"/>
-      <c r="L115" s="44"/>
-      <c r="M115" s="44"/>
-      <c r="P115" s="44"/>
-      <c r="Q115" s="44"/>
-      <c r="R115" s="44"/>
-      <c r="S115" s="44"/>
-      <c r="T115" s="44"/>
-      <c r="U115" s="44"/>
-      <c r="V115" s="44"/>
-      <c r="W115" s="44"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="47"/>
+      <c r="K115" s="47"/>
+      <c r="L115" s="47"/>
+      <c r="M115" s="47"/>
+      <c r="P115" s="47"/>
+      <c r="Q115" s="47"/>
+      <c r="R115" s="47"/>
+      <c r="S115" s="47"/>
+      <c r="T115" s="47"/>
+      <c r="U115" s="47"/>
+      <c r="V115" s="47"/>
+      <c r="W115" s="47"/>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="16" t="s">
@@ -68166,22 +68164,22 @@
         <f t="shared" si="1"/>
         <v>8.622444933183307E-4</v>
       </c>
-      <c r="F116" s="44"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="44"/>
-      <c r="I116" s="44"/>
-      <c r="J116" s="44"/>
-      <c r="K116" s="44"/>
-      <c r="L116" s="44"/>
-      <c r="M116" s="44"/>
-      <c r="P116" s="44"/>
-      <c r="Q116" s="44"/>
-      <c r="R116" s="44"/>
-      <c r="S116" s="44"/>
-      <c r="T116" s="44"/>
-      <c r="U116" s="44"/>
-      <c r="V116" s="44"/>
-      <c r="W116" s="44"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="47"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="47"/>
+      <c r="K116" s="47"/>
+      <c r="L116" s="47"/>
+      <c r="M116" s="47"/>
+      <c r="P116" s="47"/>
+      <c r="Q116" s="47"/>
+      <c r="R116" s="47"/>
+      <c r="S116" s="47"/>
+      <c r="T116" s="47"/>
+      <c r="U116" s="47"/>
+      <c r="V116" s="47"/>
+      <c r="W116" s="47"/>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -68200,22 +68198,22 @@
         <f t="shared" si="1"/>
         <v>6.41625620510107E-4</v>
       </c>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="44"/>
-      <c r="I117" s="44"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="44"/>
-      <c r="L117" s="44"/>
-      <c r="M117" s="44"/>
-      <c r="P117" s="44"/>
-      <c r="Q117" s="44"/>
-      <c r="R117" s="44"/>
-      <c r="S117" s="44"/>
-      <c r="T117" s="44"/>
-      <c r="U117" s="44"/>
-      <c r="V117" s="44"/>
-      <c r="W117" s="44"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="47"/>
+      <c r="K117" s="47"/>
+      <c r="L117" s="47"/>
+      <c r="M117" s="47"/>
+      <c r="P117" s="47"/>
+      <c r="Q117" s="47"/>
+      <c r="R117" s="47"/>
+      <c r="S117" s="47"/>
+      <c r="T117" s="47"/>
+      <c r="U117" s="47"/>
+      <c r="V117" s="47"/>
+      <c r="W117" s="47"/>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
@@ -68234,22 +68232,22 @@
         <f t="shared" si="1"/>
         <v>1.6316793995459083E-3</v>
       </c>
-      <c r="F118" s="44"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="44"/>
-      <c r="I118" s="44"/>
-      <c r="J118" s="44"/>
-      <c r="K118" s="44"/>
-      <c r="L118" s="44"/>
-      <c r="M118" s="44"/>
-      <c r="P118" s="44"/>
-      <c r="Q118" s="44"/>
-      <c r="R118" s="44"/>
-      <c r="S118" s="44"/>
-      <c r="T118" s="44"/>
-      <c r="U118" s="44"/>
-      <c r="V118" s="44"/>
-      <c r="W118" s="44"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="47"/>
+      <c r="I118" s="47"/>
+      <c r="J118" s="47"/>
+      <c r="K118" s="47"/>
+      <c r="L118" s="47"/>
+      <c r="M118" s="47"/>
+      <c r="P118" s="47"/>
+      <c r="Q118" s="47"/>
+      <c r="R118" s="47"/>
+      <c r="S118" s="47"/>
+      <c r="T118" s="47"/>
+      <c r="U118" s="47"/>
+      <c r="V118" s="47"/>
+      <c r="W118" s="47"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
@@ -68268,22 +68266,22 @@
         <f t="shared" si="1"/>
         <v>1.2009265342498032E-3</v>
       </c>
-      <c r="F119" s="44"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="44"/>
-      <c r="I119" s="44"/>
-      <c r="J119" s="44"/>
-      <c r="K119" s="44"/>
-      <c r="L119" s="44"/>
-      <c r="M119" s="44"/>
-      <c r="P119" s="44"/>
-      <c r="Q119" s="44"/>
-      <c r="R119" s="44"/>
-      <c r="S119" s="44"/>
-      <c r="T119" s="44"/>
-      <c r="U119" s="44"/>
-      <c r="V119" s="44"/>
-      <c r="W119" s="44"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="47"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="47"/>
+      <c r="P119" s="47"/>
+      <c r="Q119" s="47"/>
+      <c r="R119" s="47"/>
+      <c r="S119" s="47"/>
+      <c r="T119" s="47"/>
+      <c r="U119" s="47"/>
+      <c r="V119" s="47"/>
+      <c r="W119" s="47"/>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
@@ -68302,22 +68300,22 @@
         <f t="shared" si="1"/>
         <v>7.7026154572660231E-4</v>
       </c>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="44"/>
-      <c r="I120" s="44"/>
-      <c r="J120" s="44"/>
-      <c r="K120" s="44"/>
-      <c r="L120" s="44"/>
-      <c r="M120" s="44"/>
-      <c r="P120" s="44"/>
-      <c r="Q120" s="44"/>
-      <c r="R120" s="44"/>
-      <c r="S120" s="44"/>
-      <c r="T120" s="44"/>
-      <c r="U120" s="44"/>
-      <c r="V120" s="44"/>
-      <c r="W120" s="44"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="47"/>
+      <c r="I120" s="47"/>
+      <c r="J120" s="47"/>
+      <c r="K120" s="47"/>
+      <c r="L120" s="47"/>
+      <c r="M120" s="47"/>
+      <c r="P120" s="47"/>
+      <c r="Q120" s="47"/>
+      <c r="R120" s="47"/>
+      <c r="S120" s="47"/>
+      <c r="T120" s="47"/>
+      <c r="U120" s="47"/>
+      <c r="V120" s="47"/>
+      <c r="W120" s="47"/>
     </row>
     <row r="121" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
@@ -68336,26 +68334,26 @@
         <f t="shared" si="1"/>
         <v>4.6169494266120386E-3</v>
       </c>
-      <c r="F121" s="44" t="s">
+      <c r="F121" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="G121" s="44"/>
-      <c r="H121" s="42"/>
-      <c r="I121" s="43"/>
-      <c r="J121" s="43"/>
-      <c r="K121" s="43"/>
-      <c r="L121" s="43"/>
-      <c r="M121" s="43"/>
-      <c r="P121" s="44">
+      <c r="G121" s="47"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="42"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="42"/>
+      <c r="M121" s="42"/>
+      <c r="P121" s="47">
         <v>0.68469999999999998</v>
       </c>
-      <c r="Q121" s="44"/>
-      <c r="R121" s="42"/>
-      <c r="S121" s="43"/>
-      <c r="T121" s="43"/>
-      <c r="U121" s="43"/>
-      <c r="V121" s="43"/>
-      <c r="W121" s="43"/>
+      <c r="Q121" s="47"/>
+      <c r="R121" s="41"/>
+      <c r="S121" s="42"/>
+      <c r="T121" s="42"/>
+      <c r="U121" s="42"/>
+      <c r="V121" s="42"/>
+      <c r="W121" s="42"/>
     </row>
     <row r="122" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
@@ -68374,22 +68372,22 @@
         <f t="shared" si="1"/>
         <v>3.1122018197843331E-3</v>
       </c>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="43"/>
-      <c r="K122" s="43"/>
-      <c r="L122" s="43"/>
-      <c r="M122" s="43"/>
-      <c r="P122" s="44"/>
-      <c r="Q122" s="44"/>
-      <c r="R122" s="42"/>
-      <c r="S122" s="43"/>
-      <c r="T122" s="43"/>
-      <c r="U122" s="43"/>
-      <c r="V122" s="43"/>
-      <c r="W122" s="43"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="42"/>
+      <c r="M122" s="42"/>
+      <c r="P122" s="47"/>
+      <c r="Q122" s="47"/>
+      <c r="R122" s="41"/>
+      <c r="S122" s="42"/>
+      <c r="T122" s="42"/>
+      <c r="U122" s="42"/>
+      <c r="V122" s="42"/>
+      <c r="W122" s="42"/>
     </row>
     <row r="123" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A123" s="16" t="s">
@@ -68408,26 +68406,26 @@
         <f t="shared" si="1"/>
         <v>2.1583441506133571E-2</v>
       </c>
-      <c r="F123" s="44" t="s">
+      <c r="F123" s="47" t="s">
         <v>1289</v>
       </c>
-      <c r="G123" s="44"/>
-      <c r="H123" s="44"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="43"/>
-      <c r="K123" s="43"/>
-      <c r="L123" s="43"/>
-      <c r="M123" s="43"/>
-      <c r="P123" s="44">
+      <c r="G123" s="47"/>
+      <c r="H123" s="47"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="42"/>
+      <c r="M123" s="42"/>
+      <c r="P123" s="47">
         <v>2.5407000000000002</v>
       </c>
-      <c r="Q123" s="44"/>
-      <c r="R123" s="44"/>
-      <c r="S123" s="43"/>
-      <c r="T123" s="43"/>
-      <c r="U123" s="43"/>
-      <c r="V123" s="43"/>
-      <c r="W123" s="43"/>
+      <c r="Q123" s="47"/>
+      <c r="R123" s="47"/>
+      <c r="S123" s="42"/>
+      <c r="T123" s="42"/>
+      <c r="U123" s="42"/>
+      <c r="V123" s="42"/>
+      <c r="W123" s="42"/>
     </row>
     <row r="124" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A124" s="16" t="s">
@@ -68446,22 +68444,22 @@
         <f t="shared" si="1"/>
         <v>3.5833597366647572E-4</v>
       </c>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="44"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43"/>
-      <c r="K124" s="43"/>
-      <c r="L124" s="43"/>
-      <c r="M124" s="43"/>
-      <c r="P124" s="44"/>
-      <c r="Q124" s="44"/>
-      <c r="R124" s="44"/>
-      <c r="S124" s="43"/>
-      <c r="T124" s="43"/>
-      <c r="U124" s="43"/>
-      <c r="V124" s="43"/>
-      <c r="W124" s="43"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="42"/>
+      <c r="P124" s="47"/>
+      <c r="Q124" s="47"/>
+      <c r="R124" s="47"/>
+      <c r="S124" s="42"/>
+      <c r="T124" s="42"/>
+      <c r="U124" s="42"/>
+      <c r="V124" s="42"/>
+      <c r="W124" s="42"/>
     </row>
     <row r="125" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A125" s="16" t="s">
@@ -68480,26 +68478,26 @@
         <f t="shared" si="1"/>
         <v>1.7789130660513796E-4</v>
       </c>
-      <c r="F125" s="44" t="s">
+      <c r="F125" s="47" t="s">
         <v>1290</v>
       </c>
-      <c r="G125" s="44"/>
-      <c r="H125" s="44"/>
-      <c r="I125" s="43"/>
-      <c r="J125" s="43"/>
-      <c r="K125" s="43"/>
-      <c r="L125" s="43"/>
-      <c r="M125" s="43"/>
-      <c r="P125" s="44">
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="42"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="42"/>
+      <c r="M125" s="42"/>
+      <c r="P125" s="47">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="Q125" s="44"/>
-      <c r="R125" s="44"/>
-      <c r="S125" s="43"/>
-      <c r="T125" s="43"/>
-      <c r="U125" s="43"/>
-      <c r="V125" s="43"/>
-      <c r="W125" s="43"/>
+      <c r="Q125" s="47"/>
+      <c r="R125" s="47"/>
+      <c r="S125" s="42"/>
+      <c r="T125" s="42"/>
+      <c r="U125" s="42"/>
+      <c r="V125" s="42"/>
+      <c r="W125" s="42"/>
     </row>
     <row r="126" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
@@ -68518,22 +68516,22 @@
         <f t="shared" si="1"/>
         <v>5.1820600438399598E-5</v>
       </c>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="44"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="43"/>
-      <c r="K126" s="43"/>
-      <c r="L126" s="43"/>
-      <c r="M126" s="43"/>
-      <c r="P126" s="44"/>
-      <c r="Q126" s="44"/>
-      <c r="R126" s="44"/>
-      <c r="S126" s="43"/>
-      <c r="T126" s="43"/>
-      <c r="U126" s="43"/>
-      <c r="V126" s="43"/>
-      <c r="W126" s="43"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="47"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="42"/>
+      <c r="K126" s="42"/>
+      <c r="L126" s="42"/>
+      <c r="M126" s="42"/>
+      <c r="P126" s="47"/>
+      <c r="Q126" s="47"/>
+      <c r="R126" s="47"/>
+      <c r="S126" s="42"/>
+      <c r="T126" s="42"/>
+      <c r="U126" s="42"/>
+      <c r="V126" s="42"/>
+      <c r="W126" s="42"/>
     </row>
     <row r="127" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A127" s="16" t="s">
@@ -68552,26 +68550,26 @@
         <f t="shared" si="1"/>
         <v>1.1870447343377302E-2</v>
       </c>
-      <c r="F127" s="44" t="s">
+      <c r="F127" s="47" t="s">
         <v>1291</v>
       </c>
-      <c r="G127" s="44"/>
-      <c r="H127" s="44"/>
-      <c r="I127" s="43"/>
-      <c r="J127" s="43"/>
-      <c r="K127" s="43"/>
-      <c r="L127" s="43"/>
-      <c r="M127" s="43"/>
-      <c r="P127" s="44">
+      <c r="G127" s="47"/>
+      <c r="H127" s="47"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="42"/>
+      <c r="K127" s="42"/>
+      <c r="L127" s="42"/>
+      <c r="M127" s="42"/>
+      <c r="P127" s="47">
         <v>1.4917</v>
       </c>
-      <c r="Q127" s="44"/>
-      <c r="R127" s="44"/>
-      <c r="S127" s="43"/>
-      <c r="T127" s="43"/>
-      <c r="U127" s="43"/>
-      <c r="V127" s="43"/>
-      <c r="W127" s="43"/>
+      <c r="Q127" s="47"/>
+      <c r="R127" s="47"/>
+      <c r="S127" s="42"/>
+      <c r="T127" s="42"/>
+      <c r="U127" s="42"/>
+      <c r="V127" s="42"/>
+      <c r="W127" s="42"/>
     </row>
     <row r="128" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A128" s="16" t="s">
@@ -68590,22 +68588,22 @@
         <f t="shared" si="1"/>
         <v>2.8454158319941285E-3</v>
       </c>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="44"/>
-      <c r="I128" s="43"/>
-      <c r="J128" s="43"/>
-      <c r="K128" s="43"/>
-      <c r="L128" s="43"/>
-      <c r="M128" s="43"/>
-      <c r="P128" s="44"/>
-      <c r="Q128" s="44"/>
-      <c r="R128" s="44"/>
-      <c r="S128" s="43"/>
-      <c r="T128" s="43"/>
-      <c r="U128" s="43"/>
-      <c r="V128" s="43"/>
-      <c r="W128" s="43"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="42"/>
+      <c r="K128" s="42"/>
+      <c r="L128" s="42"/>
+      <c r="M128" s="42"/>
+      <c r="P128" s="47"/>
+      <c r="Q128" s="47"/>
+      <c r="R128" s="47"/>
+      <c r="S128" s="42"/>
+      <c r="T128" s="42"/>
+      <c r="U128" s="42"/>
+      <c r="V128" s="42"/>
+      <c r="W128" s="42"/>
     </row>
     <row r="129" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
@@ -68624,26 +68622,26 @@
         <f t="shared" si="1"/>
         <v>2.0499309469324115E-3</v>
       </c>
-      <c r="F129" s="44" t="s">
+      <c r="F129" s="47" t="s">
         <v>1292</v>
       </c>
-      <c r="G129" s="44"/>
-      <c r="H129" s="44"/>
-      <c r="I129" s="44"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="43"/>
-      <c r="L129" s="43"/>
-      <c r="M129" s="43"/>
-      <c r="P129" s="44">
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="42"/>
+      <c r="K129" s="42"/>
+      <c r="L129" s="42"/>
+      <c r="M129" s="42"/>
+      <c r="P129" s="47">
         <v>1.3724000000000001</v>
       </c>
-      <c r="Q129" s="44"/>
-      <c r="R129" s="44"/>
-      <c r="S129" s="44"/>
-      <c r="T129" s="43"/>
-      <c r="U129" s="43"/>
-      <c r="V129" s="43"/>
-      <c r="W129" s="43"/>
+      <c r="Q129" s="47"/>
+      <c r="R129" s="47"/>
+      <c r="S129" s="47"/>
+      <c r="T129" s="42"/>
+      <c r="U129" s="42"/>
+      <c r="V129" s="42"/>
+      <c r="W129" s="42"/>
     </row>
     <row r="130" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
@@ -68662,22 +68660,22 @@
         <f t="shared" si="1"/>
         <v>7.4626489403514882E-3</v>
       </c>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="44"/>
-      <c r="I130" s="44"/>
-      <c r="J130" s="43"/>
-      <c r="K130" s="43"/>
-      <c r="L130" s="43"/>
-      <c r="M130" s="43"/>
-      <c r="P130" s="44"/>
-      <c r="Q130" s="44"/>
-      <c r="R130" s="44"/>
-      <c r="S130" s="44"/>
-      <c r="T130" s="43"/>
-      <c r="U130" s="43"/>
-      <c r="V130" s="43"/>
-      <c r="W130" s="43"/>
+      <c r="F130" s="47"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="47"/>
+      <c r="I130" s="47"/>
+      <c r="J130" s="42"/>
+      <c r="K130" s="42"/>
+      <c r="L130" s="42"/>
+      <c r="M130" s="42"/>
+      <c r="P130" s="47"/>
+      <c r="Q130" s="47"/>
+      <c r="R130" s="47"/>
+      <c r="S130" s="47"/>
+      <c r="T130" s="42"/>
+      <c r="U130" s="42"/>
+      <c r="V130" s="42"/>
+      <c r="W130" s="42"/>
     </row>
     <row r="131" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
@@ -68696,22 +68694,22 @@
         <f t="shared" si="1"/>
         <v>9.4076737554517364E-4</v>
       </c>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="44"/>
-      <c r="I131" s="44"/>
-      <c r="J131" s="43"/>
-      <c r="K131" s="43"/>
-      <c r="L131" s="43"/>
-      <c r="M131" s="43"/>
-      <c r="P131" s="44"/>
-      <c r="Q131" s="44"/>
-      <c r="R131" s="44"/>
-      <c r="S131" s="44"/>
-      <c r="T131" s="43"/>
-      <c r="U131" s="43"/>
-      <c r="V131" s="43"/>
-      <c r="W131" s="43"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="47"/>
+      <c r="J131" s="42"/>
+      <c r="K131" s="42"/>
+      <c r="L131" s="42"/>
+      <c r="M131" s="42"/>
+      <c r="P131" s="47"/>
+      <c r="Q131" s="47"/>
+      <c r="R131" s="47"/>
+      <c r="S131" s="47"/>
+      <c r="T131" s="42"/>
+      <c r="U131" s="42"/>
+      <c r="V131" s="42"/>
+      <c r="W131" s="42"/>
     </row>
     <row r="132" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
@@ -68730,22 +68728,22 @@
         <f t="shared" si="1"/>
         <v>1.5950373183413913E-3</v>
       </c>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="43"/>
-      <c r="K132" s="43"/>
-      <c r="L132" s="43"/>
-      <c r="M132" s="43"/>
-      <c r="P132" s="44"/>
-      <c r="Q132" s="44"/>
-      <c r="R132" s="44"/>
-      <c r="S132" s="44"/>
-      <c r="T132" s="43"/>
-      <c r="U132" s="43"/>
-      <c r="V132" s="43"/>
-      <c r="W132" s="43"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47"/>
+      <c r="I132" s="47"/>
+      <c r="J132" s="42"/>
+      <c r="K132" s="42"/>
+      <c r="L132" s="42"/>
+      <c r="M132" s="42"/>
+      <c r="P132" s="47"/>
+      <c r="Q132" s="47"/>
+      <c r="R132" s="47"/>
+      <c r="S132" s="47"/>
+      <c r="T132" s="42"/>
+      <c r="U132" s="42"/>
+      <c r="V132" s="42"/>
+      <c r="W132" s="42"/>
     </row>
     <row r="133" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
@@ -68764,26 +68762,26 @@
         <f t="shared" si="1"/>
         <v>4.684792529425769E-3</v>
       </c>
-      <c r="F133" s="44" t="s">
+      <c r="F133" s="47" t="s">
         <v>1293</v>
       </c>
-      <c r="G133" s="44"/>
-      <c r="H133" s="44"/>
-      <c r="I133" s="43"/>
-      <c r="J133" s="43"/>
-      <c r="K133" s="43"/>
-      <c r="L133" s="43"/>
-      <c r="M133" s="43"/>
-      <c r="P133" s="44">
+      <c r="G133" s="47"/>
+      <c r="H133" s="47"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+      <c r="K133" s="42"/>
+      <c r="L133" s="42"/>
+      <c r="M133" s="42"/>
+      <c r="P133" s="47">
         <v>0.42809999999999998</v>
       </c>
-      <c r="Q133" s="44"/>
-      <c r="R133" s="44"/>
-      <c r="S133" s="43"/>
-      <c r="T133" s="43"/>
-      <c r="U133" s="43"/>
-      <c r="V133" s="43"/>
-      <c r="W133" s="43"/>
+      <c r="Q133" s="47"/>
+      <c r="R133" s="47"/>
+      <c r="S133" s="42"/>
+      <c r="T133" s="42"/>
+      <c r="U133" s="42"/>
+      <c r="V133" s="42"/>
+      <c r="W133" s="42"/>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="20"/>
@@ -68803,9 +68801,7 @@
       <c r="C135" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="D135" s="11">
-        <v>4.3064</v>
-      </c>
+      <c r="D135" s="11"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="21"/>
@@ -68901,9 +68897,7 @@
       <c r="C143" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="D143" s="11">
-        <v>6.4238</v>
-      </c>
+      <c r="D143" s="11"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
@@ -69798,9 +69792,7 @@
       <c r="C208" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="D208" s="11">
-        <v>14.115</v>
-      </c>
+      <c r="D208" s="11"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="21"/>
@@ -69995,9 +69987,7 @@
       <c r="C223" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="D223" s="11">
-        <v>8.8550000000000004</v>
-      </c>
+      <c r="D223" s="11"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="21"/>
@@ -70841,9 +70831,7 @@
       <c r="C284" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="D284" s="11">
-        <v>3.2364999999999999</v>
-      </c>
+      <c r="D284" s="11"/>
       <c r="E284" s="3"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
@@ -71095,9 +71083,7 @@
       <c r="C303" s="22" t="s">
         <v>866</v>
       </c>
-      <c r="D303" s="11">
-        <v>16.795300000000001</v>
-      </c>
+      <c r="D303" s="11"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="20"/>
@@ -71544,9 +71530,7 @@
       <c r="C336" s="22" t="s">
         <v>959</v>
       </c>
-      <c r="D336" s="11">
-        <v>3.7808000000000002</v>
-      </c>
+      <c r="D336" s="11"/>
       <c r="E336" s="3"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -71685,9 +71669,7 @@
       <c r="C347" s="22" t="s">
         <v>986</v>
       </c>
-      <c r="D347" s="11">
-        <v>3.0613999999999999</v>
-      </c>
+      <c r="D347" s="11"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="20"/>
@@ -72207,9 +72189,7 @@
       <c r="C385" s="22" t="s">
         <v>1094</v>
       </c>
-      <c r="D385" s="11">
-        <v>2.0348000000000002</v>
-      </c>
+      <c r="D385" s="11"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="20"/>
@@ -72305,9 +72285,7 @@
       <c r="C393" s="22" t="s">
         <v>1112</v>
       </c>
-      <c r="D393" s="11">
-        <v>7.1111000000000004</v>
-      </c>
+      <c r="D393" s="11"/>
       <c r="E393" s="3"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -72558,9 +72536,7 @@
       <c r="C412" s="22" t="s">
         <v>1163</v>
       </c>
-      <c r="D412" s="11">
-        <v>4.9642999999999997</v>
-      </c>
+      <c r="D412" s="11"/>
       <c r="E412" s="3"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -73118,7 +73094,6 @@
     <mergeCell ref="F32:I33"/>
     <mergeCell ref="F34:I37"/>
     <mergeCell ref="F38:M38"/>
-    <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="F25:J28"/>
     <mergeCell ref="F20:G20"/>
@@ -73130,6 +73105,7 @@
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="F11:L17"/>
     <mergeCell ref="F7:H9"/>
+    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <conditionalFormatting sqref="B174:B175 B185">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">

--- a/Weights_2022.xlsx
+++ b/Weights_2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\streamlit-gfe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E02895-E960-4D83-95CD-86BD2D3E2F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51B9DB3-092C-4854-82E4-5D93B82E6B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1294">
   <si>
     <t>Tüketici fiyat endeksi (2003=100) 2022 yılı ana grup ve madde ağırlıkları (Türkiye)</t>
   </si>
@@ -4230,13 +4230,10 @@
     <t>Etek</t>
   </si>
   <si>
-    <t>Bulgur pilavlık/köftelik</t>
-  </si>
-  <si>
     <t>Baklava soğuk</t>
   </si>
   <si>
-    <t>Dana Eti kıyma kuşbaşı köfte</t>
+    <t>Bulgur</t>
   </si>
 </sst>
 </file>
@@ -4477,14 +4474,14 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -63908,8 +63905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F55F94E-7669-44BC-B5AD-777700EFA1D6}">
   <dimension ref="A1:W448"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -64255,10 +64252,10 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
@@ -64335,21 +64332,21 @@
         <v>0.51521805773947882</v>
       </c>
       <c r="E7" s="38"/>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="47" t="s">
         <v>1265</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
       <c r="M7" s="45"/>
-      <c r="P7" s="46">
+      <c r="P7" s="47">
         <v>2.3153000000000001</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
       <c r="S7" s="39"/>
       <c r="T7" s="39"/>
       <c r="U7" s="39"/>
@@ -64370,17 +64367,17 @@
         <v>0.12674148528986401</v>
       </c>
       <c r="E8" s="38"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="39"/>
@@ -64392,7 +64389,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>18</v>
@@ -64401,17 +64398,17 @@
         <v>0.15067324663166823</v>
       </c>
       <c r="E9" s="38"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="39"/>
@@ -64467,25 +64464,25 @@
         <v>0.27911395435589181</v>
       </c>
       <c r="E11" s="38"/>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="47" t="s">
         <v>1266</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="39"/>
-      <c r="P11" s="46">
+      <c r="P11" s="47">
         <v>4.7308000000000003</v>
       </c>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
       <c r="W11" s="39"/>
     </row>
     <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64502,21 +64499,21 @@
         <v>5.7292470751132078E-2</v>
       </c>
       <c r="E12" s="38"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
       <c r="M12" s="39"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
       <c r="W12" s="39"/>
     </row>
     <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64533,21 +64530,21 @@
         <v>0.14912352618046137</v>
       </c>
       <c r="E13" s="38"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="39"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
       <c r="W13" s="39"/>
     </row>
     <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64564,21 +64561,21 @@
         <v>0.27847618649609573</v>
       </c>
       <c r="E14" s="38"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="39"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
       <c r="W14" s="39"/>
     </row>
     <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64595,21 +64592,21 @@
         <v>7.820182238255062E-2</v>
       </c>
       <c r="E15" s="38"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="39"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
       <c r="W15" s="39"/>
     </row>
     <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64617,7 +64614,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>38</v>
@@ -64626,21 +64623,21 @@
         <v>0.34681920097218832</v>
       </c>
       <c r="E16" s="38"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="39"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
       <c r="W16" s="39"/>
     </row>
     <row r="17" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64657,21 +64654,21 @@
         <v>0.10159892812195015</v>
       </c>
       <c r="E17" s="38"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="39"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
       <c r="W17" s="39"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -64688,20 +64685,20 @@
         <v>0.19810579686315247</v>
       </c>
       <c r="E18" s="38"/>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="47" t="s">
         <v>1267</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="41"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
-      <c r="P18" s="46">
+      <c r="P18" s="47">
         <v>0.89810000000000001</v>
       </c>
-      <c r="Q18" s="46"/>
+      <c r="Q18" s="47"/>
       <c r="R18" s="41"/>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
@@ -64723,16 +64720,16 @@
         <v>2.7797878963817524E-2</v>
       </c>
       <c r="E19" s="38"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="41"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
       <c r="L19" s="39"/>
       <c r="M19" s="39"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="41"/>
       <c r="S19" s="42"/>
       <c r="T19" s="42"/>
@@ -64754,20 +64751,20 @@
         <v>3.1174754848709001E-2</v>
       </c>
       <c r="E20" s="38"/>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="47" t="s">
         <v>1268</v>
       </c>
-      <c r="G20" s="46"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="41"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
-      <c r="P20" s="46">
+      <c r="P20" s="47">
         <v>0.15190000000000001</v>
       </c>
-      <c r="Q20" s="46"/>
+      <c r="Q20" s="47"/>
       <c r="R20" s="41"/>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
@@ -64780,7 +64777,7 @@
         <v>51</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1294</v>
+        <v>52</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>53</v>
@@ -64789,20 +64786,20 @@
         <v>2.1515458419535198</v>
       </c>
       <c r="E21" s="38"/>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="46"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="41"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
-      <c r="P21" s="46">
+      <c r="P21" s="47">
         <v>9.1193000000000008</v>
       </c>
-      <c r="Q21" s="46"/>
+      <c r="Q21" s="47"/>
       <c r="R21" s="41"/>
       <c r="S21" s="42"/>
       <c r="T21" s="42"/>
@@ -64824,20 +64821,20 @@
         <v>0.91497264299301595</v>
       </c>
       <c r="E22" s="38"/>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="46"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="41"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
-      <c r="P22" s="46">
+      <c r="P22" s="47">
         <v>3.6798000000000002</v>
       </c>
-      <c r="Q22" s="46"/>
+      <c r="Q22" s="47"/>
       <c r="R22" s="41"/>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
@@ -64859,20 +64856,20 @@
         <v>1.4022603003234599</v>
       </c>
       <c r="E23" s="38"/>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="41"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
-      <c r="P23" s="46">
+      <c r="P23" s="47">
         <v>5.6840999999999999</v>
       </c>
-      <c r="Q23" s="46"/>
+      <c r="Q23" s="47"/>
       <c r="R23" s="41"/>
       <c r="S23" s="42"/>
       <c r="T23" s="42"/>
@@ -64894,22 +64891,22 @@
         <v>5.7377872285459201E-2</v>
       </c>
       <c r="E24" s="38"/>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="47" t="s">
         <v>1269</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
       <c r="L24" s="39"/>
       <c r="M24" s="39"/>
-      <c r="P24" s="46">
+      <c r="P24" s="47">
         <v>0.30980000000000002</v>
       </c>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
       <c r="T24" s="42"/>
       <c r="U24" s="42"/>
       <c r="V24" s="39"/>
@@ -64929,23 +64926,23 @@
         <v>0.42958442335736191</v>
       </c>
       <c r="E25" s="38"/>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="47" t="s">
         <v>1270</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="42"/>
       <c r="L25" s="39"/>
       <c r="M25" s="39"/>
-      <c r="P25" s="46">
+      <c r="P25" s="47">
         <v>2.7145999999999999</v>
       </c>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
       <c r="U25" s="42"/>
       <c r="V25" s="39"/>
       <c r="W25" s="39"/>
@@ -64964,19 +64961,19 @@
         <v>4.6986095467985413E-2</v>
       </c>
       <c r="E26" s="38"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
       <c r="K26" s="42"/>
       <c r="L26" s="39"/>
       <c r="M26" s="39"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
       <c r="U26" s="42"/>
       <c r="V26" s="39"/>
       <c r="W26" s="39"/>
@@ -64995,19 +64992,19 @@
         <v>8.3031042770547209E-2</v>
       </c>
       <c r="E27" s="38"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="42"/>
       <c r="L27" s="39"/>
       <c r="M27" s="39"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
       <c r="U27" s="42"/>
       <c r="V27" s="39"/>
       <c r="W27" s="39"/>
@@ -65026,19 +65023,19 @@
         <v>0.10100343238800358</v>
       </c>
       <c r="E28" s="38"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="42"/>
       <c r="L28" s="39"/>
       <c r="M28" s="39"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
       <c r="U28" s="42"/>
       <c r="V28" s="39"/>
       <c r="W28" s="39"/>
@@ -65057,20 +65054,20 @@
         <v>0.37657317995231099</v>
       </c>
       <c r="E29" s="38"/>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="47" t="s">
         <v>1271</v>
       </c>
-      <c r="G29" s="46"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
-      <c r="P29" s="46">
+      <c r="P29" s="47">
         <v>1.0806</v>
       </c>
-      <c r="Q29" s="46"/>
+      <c r="Q29" s="47"/>
       <c r="R29" s="40"/>
       <c r="S29" s="40"/>
       <c r="T29" s="42"/>
@@ -65092,22 +65089,22 @@
         <v>2.6931487122201201E-2</v>
       </c>
       <c r="E30" s="38"/>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="47" t="s">
         <v>1272</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
       <c r="J30" s="42"/>
       <c r="K30" s="42"/>
       <c r="L30" s="39"/>
       <c r="M30" s="39"/>
-      <c r="P30" s="46">
+      <c r="P30" s="47">
         <v>0.1221</v>
       </c>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
       <c r="T30" s="42"/>
       <c r="U30" s="42"/>
       <c r="V30" s="39"/>
@@ -65127,20 +65124,20 @@
         <v>0.74544121619390191</v>
       </c>
       <c r="E31" s="38"/>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="47"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="43"/>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
       <c r="L31" s="39"/>
       <c r="M31" s="39"/>
-      <c r="P31" s="47">
+      <c r="P31" s="48">
         <v>2.5091999999999999</v>
       </c>
-      <c r="Q31" s="47"/>
+      <c r="Q31" s="48"/>
       <c r="R31" s="43"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
@@ -65162,22 +65159,22 @@
         <v>0.58723300441325832</v>
       </c>
       <c r="E32" s="38"/>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="47" t="s">
         <v>1273</v>
       </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
       <c r="L32" s="39"/>
       <c r="M32" s="39"/>
-      <c r="P32" s="46">
+      <c r="P32" s="47">
         <v>2.1776</v>
       </c>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
       <c r="T32" s="44"/>
       <c r="U32" s="44"/>
       <c r="V32" s="39"/>
@@ -65197,18 +65194,18 @@
         <v>2.8411883303959638E-2</v>
       </c>
       <c r="E33" s="38"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="39"/>
       <c r="M33" s="39"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
       <c r="T33" s="44"/>
       <c r="U33" s="44"/>
       <c r="V33" s="39"/>
@@ -65228,22 +65225,22 @@
         <v>0.8283712022457087</v>
       </c>
       <c r="E34" s="38"/>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="47" t="s">
         <v>1274</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
       <c r="L34" s="39"/>
       <c r="M34" s="39"/>
-      <c r="P34" s="46">
+      <c r="P34" s="47">
         <v>5.6692</v>
       </c>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
       <c r="T34" s="44"/>
       <c r="U34" s="44"/>
       <c r="V34" s="39"/>
@@ -65263,18 +65260,18 @@
         <v>0.38813356688258949</v>
       </c>
       <c r="E35" s="38"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
       <c r="L35" s="39"/>
       <c r="M35" s="39"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
       <c r="T35" s="44"/>
       <c r="U35" s="44"/>
       <c r="V35" s="39"/>
@@ -65294,18 +65291,18 @@
         <v>0.16008540153818723</v>
       </c>
       <c r="E36" s="38"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
       <c r="T36" s="44"/>
       <c r="U36" s="44"/>
       <c r="V36" s="39"/>
@@ -65325,18 +65322,18 @@
         <v>6.2428045787504827E-2</v>
       </c>
       <c r="E37" s="38"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
       <c r="J37" s="44"/>
       <c r="K37" s="44"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
       <c r="T37" s="44"/>
       <c r="U37" s="44"/>
       <c r="V37" s="39"/>
@@ -65356,26 +65353,26 @@
         <v>0.81296800539466196</v>
       </c>
       <c r="E38" s="38"/>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="P38" s="47">
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="P38" s="48">
         <v>2.7397</v>
       </c>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
@@ -65391,26 +65388,26 @@
         <v>0.33183740154334102</v>
       </c>
       <c r="E39" s="38"/>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="48" t="s">
         <v>1275</v>
       </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="P39" s="47">
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="P39" s="48">
         <v>1.321</v>
       </c>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
     </row>
     <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
@@ -65426,26 +65423,26 @@
         <v>0.122176361182272</v>
       </c>
       <c r="E40" s="38"/>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="P40" s="47">
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="P40" s="48">
         <v>0.28939999999999999</v>
       </c>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
@@ -65461,26 +65458,26 @@
         <v>0.42028649363182702</v>
       </c>
       <c r="E41" s="38"/>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="47" t="s">
         <v>1276</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="P41" s="46">
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="P41" s="47">
         <v>4.1473000000000004</v>
       </c>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
@@ -65496,22 +65493,22 @@
         <v>0.87028922402771314</v>
       </c>
       <c r="E42" s="38"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
@@ -65527,26 +65524,26 @@
         <v>0.15733414690083408</v>
       </c>
       <c r="E43" s="38"/>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="47" t="s">
         <v>1277</v>
       </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="P43" s="46">
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="P43" s="47">
         <v>7.4531000000000001</v>
       </c>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
@@ -65562,22 +65559,22 @@
         <v>0.13375461675465711</v>
       </c>
       <c r="E44" s="38"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
@@ -65593,22 +65590,22 @@
         <v>5.143195891566945E-2</v>
       </c>
       <c r="E45" s="38"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
@@ -65624,22 +65621,22 @@
         <v>1.9081343682028368E-2</v>
       </c>
       <c r="E46" s="38"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
@@ -65655,22 +65652,22 @@
         <v>7.1199097420946822E-2</v>
       </c>
       <c r="E47" s="38"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
@@ -65686,22 +65683,22 @@
         <v>0.21504324800592992</v>
       </c>
       <c r="E48" s="38"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
@@ -65717,22 +65714,22 @@
         <v>0.22094165052979442</v>
       </c>
       <c r="E49" s="38"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
     </row>
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
@@ -65748,22 +65745,22 @@
         <v>0.10155844671417859</v>
       </c>
       <c r="E50" s="38"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
@@ -65779,22 +65776,22 @@
         <v>1.5259353782262298E-2</v>
       </c>
       <c r="E51" s="38"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
@@ -65810,22 +65807,22 @@
         <v>0.10783071525847965</v>
       </c>
       <c r="E52" s="38"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
@@ -65841,22 +65838,22 @@
         <v>0.14899429724477473</v>
       </c>
       <c r="E53" s="38"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
@@ -65872,22 +65869,22 @@
         <v>0.29488016900852471</v>
       </c>
       <c r="E54" s="38"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="46"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -65903,22 +65900,22 @@
         <v>2.6299055104995521E-2</v>
       </c>
       <c r="E55" s="38"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="46"/>
-      <c r="R55" s="46"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
@@ -65934,22 +65931,22 @@
         <v>7.0245938148524201E-2</v>
       </c>
       <c r="E56" s="38"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
@@ -65965,26 +65962,26 @@
         <v>4.7152136486603803E-2</v>
       </c>
       <c r="E57" s="38"/>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="47" t="s">
         <v>1278</v>
       </c>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="P57" s="46">
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="P57" s="47">
         <v>3.1848999999999998</v>
       </c>
-      <c r="Q57" s="46"/>
-      <c r="R57" s="46"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="46"/>
-      <c r="V57" s="46"/>
-      <c r="W57" s="46"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
     </row>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -66000,22 +65997,22 @@
         <v>0.21606552629420589</v>
       </c>
       <c r="E58" s="38"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
-      <c r="V58" s="46"/>
-      <c r="W58" s="46"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
@@ -66031,22 +66028,22 @@
         <v>7.8653036373222587E-2</v>
       </c>
       <c r="E59" s="38"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="46"/>
-      <c r="R59" s="46"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="46"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
@@ -66062,22 +66059,22 @@
         <v>5.2529025906290674E-2</v>
       </c>
       <c r="E60" s="38"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="46"/>
-      <c r="R60" s="46"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="46"/>
-      <c r="U60" s="46"/>
-      <c r="V60" s="46"/>
-      <c r="W60" s="46"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="47"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="47"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="47"/>
+      <c r="W60" s="47"/>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
@@ -66093,22 +66090,22 @@
         <v>0.10215205697500554</v>
       </c>
       <c r="E61" s="38"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="46"/>
-      <c r="R61" s="46"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="46"/>
-      <c r="W61" s="46"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="47"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="47"/>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
@@ -66124,22 +66121,22 @@
         <v>4.2623246160707756E-2</v>
       </c>
       <c r="E62" s="38"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="46"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="47"/>
+      <c r="T62" s="47"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
@@ -66155,22 +66152,22 @@
         <v>0.19294012068915498</v>
       </c>
       <c r="E63" s="38"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="46"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="47"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
@@ -66186,22 +66183,22 @@
         <v>3.6503479977400562E-2</v>
       </c>
       <c r="E64" s="38"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="46"/>
-      <c r="W64" s="46"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="47"/>
+      <c r="T64" s="47"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
     </row>
     <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
@@ -66217,22 +66214,22 @@
         <v>3.8240074556774896E-2</v>
       </c>
       <c r="E65" s="38"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="46"/>
-      <c r="R65" s="46"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="46"/>
-      <c r="V65" s="46"/>
-      <c r="W65" s="46"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
     </row>
     <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
@@ -66248,22 +66245,22 @@
         <v>3.7721140296722445E-2</v>
       </c>
       <c r="E66" s="38"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="46"/>
-      <c r="R66" s="46"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="46"/>
-      <c r="V66" s="46"/>
-      <c r="W66" s="46"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
     </row>
     <row r="67" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
@@ -66279,26 +66276,26 @@
         <v>4.6152726670960771E-2</v>
       </c>
       <c r="E67" s="38"/>
-      <c r="F67" s="46" t="s">
+      <c r="F67" s="47" t="s">
         <v>1279</v>
       </c>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="P67" s="46">
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="P67" s="47">
         <v>10.5219</v>
       </c>
-      <c r="Q67" s="46"/>
-      <c r="R67" s="46"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="46"/>
-      <c r="V67" s="46"/>
-      <c r="W67" s="46"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="47"/>
+      <c r="T67" s="47"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
@@ -66314,22 +66311,22 @@
         <v>4.3695289995336013E-2</v>
       </c>
       <c r="E68" s="38"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="P68" s="46"/>
-      <c r="Q68" s="46"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="46"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="46"/>
-      <c r="V68" s="46"/>
-      <c r="W68" s="46"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="47"/>
     </row>
     <row r="69" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
@@ -66345,22 +66342,22 @@
         <v>0.15454178586741243</v>
       </c>
       <c r="E69" s="38"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="46"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="46"/>
-      <c r="T69" s="46"/>
-      <c r="U69" s="46"/>
-      <c r="V69" s="46"/>
-      <c r="W69" s="46"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
     </row>
     <row r="70" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
@@ -66376,22 +66373,22 @@
         <v>1.1553619389116613E-2</v>
       </c>
       <c r="E70" s="38"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="46"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="46"/>
-      <c r="V70" s="46"/>
-      <c r="W70" s="46"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="47"/>
     </row>
     <row r="71" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
@@ -66407,22 +66404,22 @@
         <v>0.6744805952140317</v>
       </c>
       <c r="E71" s="38"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="46"/>
-      <c r="R71" s="46"/>
-      <c r="S71" s="46"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="46"/>
-      <c r="V71" s="46"/>
-      <c r="W71" s="46"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="47"/>
     </row>
     <row r="72" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
@@ -66438,22 +66435,22 @@
         <v>0.10314914269933199</v>
       </c>
       <c r="E72" s="38"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="P72" s="46"/>
-      <c r="Q72" s="46"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="46"/>
-      <c r="T72" s="46"/>
-      <c r="U72" s="46"/>
-      <c r="V72" s="46"/>
-      <c r="W72" s="46"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="47"/>
+      <c r="S72" s="47"/>
+      <c r="T72" s="47"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="47"/>
+      <c r="W72" s="47"/>
     </row>
     <row r="73" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
@@ -66469,22 +66466,22 @@
         <v>6.6559211501978716E-2</v>
       </c>
       <c r="E73" s="38"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="46"/>
-      <c r="W73" s="46"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="47"/>
+      <c r="S73" s="47"/>
+      <c r="T73" s="47"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="47"/>
     </row>
     <row r="74" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -66500,22 +66497,22 @@
         <v>6.1187333616305885E-2</v>
       </c>
       <c r="E74" s="38"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="46"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="46"/>
-      <c r="W74" s="46"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="47"/>
+      <c r="S74" s="47"/>
+      <c r="T74" s="47"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="47"/>
+      <c r="W74" s="47"/>
     </row>
     <row r="75" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
@@ -66531,22 +66528,22 @@
         <v>5.0919267929985731E-2</v>
       </c>
       <c r="E75" s="38"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="46"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="46"/>
-      <c r="W75" s="46"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
+      <c r="S75" s="47"/>
+      <c r="T75" s="47"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="47"/>
     </row>
     <row r="76" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
@@ -66562,22 +66559,22 @@
         <v>4.0323110720502146E-2</v>
       </c>
       <c r="E76" s="38"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="46"/>
-      <c r="S76" s="46"/>
-      <c r="T76" s="46"/>
-      <c r="U76" s="46"/>
-      <c r="V76" s="46"/>
-      <c r="W76" s="46"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="47"/>
+      <c r="S76" s="47"/>
+      <c r="T76" s="47"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
     </row>
     <row r="77" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
@@ -66593,22 +66590,22 @@
         <v>0.22630337014039187</v>
       </c>
       <c r="E77" s="38"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
-      <c r="P77" s="46"/>
-      <c r="Q77" s="46"/>
-      <c r="R77" s="46"/>
-      <c r="S77" s="46"/>
-      <c r="T77" s="46"/>
-      <c r="U77" s="46"/>
-      <c r="V77" s="46"/>
-      <c r="W77" s="46"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
+      <c r="S77" s="47"/>
+      <c r="T77" s="47"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="47"/>
+      <c r="W77" s="47"/>
     </row>
     <row r="78" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -66624,22 +66621,22 @@
         <v>3.5787393006189182E-2</v>
       </c>
       <c r="E78" s="38"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="46"/>
-      <c r="S78" s="46"/>
-      <c r="T78" s="46"/>
-      <c r="U78" s="46"/>
-      <c r="V78" s="46"/>
-      <c r="W78" s="46"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="47"/>
+      <c r="S78" s="47"/>
+      <c r="T78" s="47"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="47"/>
+      <c r="W78" s="47"/>
     </row>
     <row r="79" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
@@ -66655,22 +66652,22 @@
         <v>1.3951241140556276E-2</v>
       </c>
       <c r="E79" s="38"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="P79" s="46"/>
-      <c r="Q79" s="46"/>
-      <c r="R79" s="46"/>
-      <c r="S79" s="46"/>
-      <c r="T79" s="46"/>
-      <c r="U79" s="46"/>
-      <c r="V79" s="46"/>
-      <c r="W79" s="46"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
+      <c r="S79" s="47"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
     </row>
     <row r="80" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
@@ -66686,22 +66683,22 @@
         <v>4.9916811431752826E-2</v>
       </c>
       <c r="E80" s="38"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="46"/>
-      <c r="R80" s="46"/>
-      <c r="S80" s="46"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="46"/>
-      <c r="V80" s="46"/>
-      <c r="W80" s="46"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+      <c r="S80" s="47"/>
+      <c r="T80" s="47"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
     </row>
     <row r="81" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
@@ -66717,22 +66714,22 @@
         <v>6.6470637022567669E-2</v>
       </c>
       <c r="E81" s="38"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="P81" s="46"/>
-      <c r="Q81" s="46"/>
-      <c r="R81" s="46"/>
-      <c r="S81" s="46"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="46"/>
-      <c r="V81" s="46"/>
-      <c r="W81" s="46"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="47"/>
+      <c r="S81" s="47"/>
+      <c r="T81" s="47"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="47"/>
+      <c r="W81" s="47"/>
     </row>
     <row r="82" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
@@ -66748,22 +66745,22 @@
         <v>5.1211041356619573E-2</v>
       </c>
       <c r="E82" s="38"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="46"/>
-      <c r="R82" s="46"/>
-      <c r="S82" s="46"/>
-      <c r="T82" s="46"/>
-      <c r="U82" s="46"/>
-      <c r="V82" s="46"/>
-      <c r="W82" s="46"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="47"/>
+      <c r="S82" s="47"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
     </row>
     <row r="83" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
@@ -66779,22 +66776,22 @@
         <v>7.8446268130319338E-3</v>
       </c>
       <c r="E83" s="38"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="P83" s="46"/>
-      <c r="Q83" s="46"/>
-      <c r="R83" s="46"/>
-      <c r="S83" s="46"/>
-      <c r="T83" s="46"/>
-      <c r="U83" s="46"/>
-      <c r="V83" s="46"/>
-      <c r="W83" s="46"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="47"/>
+      <c r="S83" s="47"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="47"/>
+      <c r="W83" s="47"/>
     </row>
     <row r="84" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
@@ -66810,22 +66807,22 @@
         <v>0.14626090699206243</v>
       </c>
       <c r="E84" s="38"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="46"/>
-      <c r="P84" s="46"/>
-      <c r="Q84" s="46"/>
-      <c r="R84" s="46"/>
-      <c r="S84" s="46"/>
-      <c r="T84" s="46"/>
-      <c r="U84" s="46"/>
-      <c r="V84" s="46"/>
-      <c r="W84" s="46"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="47"/>
+      <c r="R84" s="47"/>
+      <c r="S84" s="47"/>
+      <c r="T84" s="47"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="47"/>
+      <c r="W84" s="47"/>
     </row>
     <row r="85" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
@@ -66841,22 +66838,22 @@
         <v>3.5978248293497057E-2</v>
       </c>
       <c r="E85" s="38"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="46"/>
-      <c r="P85" s="46"/>
-      <c r="Q85" s="46"/>
-      <c r="R85" s="46"/>
-      <c r="S85" s="46"/>
-      <c r="T85" s="46"/>
-      <c r="U85" s="46"/>
-      <c r="V85" s="46"/>
-      <c r="W85" s="46"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="47"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="47"/>
+      <c r="R85" s="47"/>
+      <c r="S85" s="47"/>
+      <c r="T85" s="47"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="47"/>
+      <c r="W85" s="47"/>
     </row>
     <row r="86" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
@@ -66872,22 +66869,22 @@
         <v>1.4543135522588336E-2</v>
       </c>
       <c r="E86" s="38"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="46"/>
-      <c r="K86" s="46"/>
-      <c r="L86" s="46"/>
-      <c r="M86" s="46"/>
-      <c r="P86" s="46"/>
-      <c r="Q86" s="46"/>
-      <c r="R86" s="46"/>
-      <c r="S86" s="46"/>
-      <c r="T86" s="46"/>
-      <c r="U86" s="46"/>
-      <c r="V86" s="46"/>
-      <c r="W86" s="46"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="47"/>
+      <c r="S86" s="47"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="47"/>
+      <c r="W86" s="47"/>
     </row>
     <row r="87" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
@@ -66903,22 +66900,22 @@
         <v>0.26864683271781198</v>
       </c>
       <c r="E87" s="38"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="46"/>
-      <c r="P87" s="46"/>
-      <c r="Q87" s="46"/>
-      <c r="R87" s="46"/>
-      <c r="S87" s="46"/>
-      <c r="T87" s="46"/>
-      <c r="U87" s="46"/>
-      <c r="V87" s="46"/>
-      <c r="W87" s="46"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="47"/>
+      <c r="R87" s="47"/>
+      <c r="S87" s="47"/>
+      <c r="T87" s="47"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="47"/>
+      <c r="W87" s="47"/>
     </row>
     <row r="88" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
@@ -66934,22 +66931,22 @@
         <v>5.115475150721821E-2</v>
       </c>
       <c r="E88" s="38"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="46"/>
-      <c r="M88" s="46"/>
-      <c r="P88" s="46"/>
-      <c r="Q88" s="46"/>
-      <c r="R88" s="46"/>
-      <c r="S88" s="46"/>
-      <c r="T88" s="46"/>
-      <c r="U88" s="46"/>
-      <c r="V88" s="46"/>
-      <c r="W88" s="46"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="P88" s="47"/>
+      <c r="Q88" s="47"/>
+      <c r="R88" s="47"/>
+      <c r="S88" s="47"/>
+      <c r="T88" s="47"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="47"/>
+      <c r="W88" s="47"/>
     </row>
     <row r="89" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
@@ -66965,22 +66962,22 @@
         <v>1.4608931895090688E-2</v>
       </c>
       <c r="E89" s="38"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="46"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="46"/>
-      <c r="P89" s="46"/>
-      <c r="Q89" s="46"/>
-      <c r="R89" s="46"/>
-      <c r="S89" s="46"/>
-      <c r="T89" s="46"/>
-      <c r="U89" s="46"/>
-      <c r="V89" s="46"/>
-      <c r="W89" s="46"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="47"/>
+      <c r="R89" s="47"/>
+      <c r="S89" s="47"/>
+      <c r="T89" s="47"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="47"/>
+      <c r="W89" s="47"/>
     </row>
     <row r="90" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
@@ -66996,20 +66993,20 @@
         <v>0.29882941628910398</v>
       </c>
       <c r="E90" s="38"/>
-      <c r="F90" s="46" t="s">
+      <c r="F90" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="G90" s="46"/>
+      <c r="G90" s="47"/>
       <c r="H90" s="40"/>
       <c r="I90" s="42"/>
       <c r="J90" s="42"/>
       <c r="K90" s="42"/>
       <c r="L90" s="42"/>
       <c r="M90" s="42"/>
-      <c r="P90" s="46">
+      <c r="P90" s="47">
         <v>1.0684</v>
       </c>
-      <c r="Q90" s="46"/>
+      <c r="Q90" s="47"/>
       <c r="R90" s="40"/>
       <c r="S90" s="42"/>
       <c r="T90" s="42"/>
@@ -67031,21 +67028,21 @@
         <v>0.10183349501890718</v>
       </c>
       <c r="E91" s="38"/>
-      <c r="F91" s="46" t="s">
+      <c r="F91" s="47" t="s">
         <v>1280</v>
       </c>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
       <c r="I91" s="42"/>
       <c r="J91" s="42"/>
       <c r="K91" s="42"/>
       <c r="L91" s="42"/>
       <c r="M91" s="42"/>
-      <c r="P91" s="46">
+      <c r="P91" s="47">
         <v>1.1157999999999999</v>
       </c>
-      <c r="Q91" s="46"/>
-      <c r="R91" s="46"/>
+      <c r="Q91" s="47"/>
+      <c r="R91" s="47"/>
       <c r="S91" s="42"/>
       <c r="T91" s="42"/>
       <c r="U91" s="42"/>
@@ -67066,17 +67063,17 @@
         <v>6.4493692883765219E-2</v>
       </c>
       <c r="E92" s="38"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
       <c r="I92" s="42"/>
       <c r="J92" s="42"/>
       <c r="K92" s="42"/>
       <c r="L92" s="42"/>
       <c r="M92" s="42"/>
-      <c r="P92" s="46"/>
-      <c r="Q92" s="46"/>
-      <c r="R92" s="46"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="47"/>
       <c r="S92" s="42"/>
       <c r="T92" s="42"/>
       <c r="U92" s="42"/>
@@ -67097,17 +67094,17 @@
         <v>0.1195377974966166</v>
       </c>
       <c r="E93" s="38"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
       <c r="I93" s="42"/>
       <c r="J93" s="42"/>
       <c r="K93" s="42"/>
       <c r="L93" s="42"/>
       <c r="M93" s="42"/>
-      <c r="P93" s="46"/>
-      <c r="Q93" s="46"/>
-      <c r="R93" s="46"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
       <c r="S93" s="42"/>
       <c r="T93" s="42"/>
       <c r="U93" s="42"/>
@@ -67128,26 +67125,26 @@
         <v>2.3876650424165674E-2</v>
       </c>
       <c r="E94" s="38"/>
-      <c r="F94" s="46" t="s">
+      <c r="F94" s="47" t="s">
         <v>1281</v>
       </c>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="46"/>
-      <c r="J94" s="46"/>
-      <c r="K94" s="46"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="46"/>
-      <c r="P94" s="46">
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="P94" s="47">
         <v>3.5074000000000001</v>
       </c>
-      <c r="Q94" s="46"/>
-      <c r="R94" s="46"/>
-      <c r="S94" s="46"/>
-      <c r="T94" s="46"/>
-      <c r="U94" s="46"/>
-      <c r="V94" s="46"/>
-      <c r="W94" s="46"/>
+      <c r="Q94" s="47"/>
+      <c r="R94" s="47"/>
+      <c r="S94" s="47"/>
+      <c r="T94" s="47"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="47"/>
+      <c r="W94" s="47"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
@@ -67163,22 +67160,22 @@
         <v>2.7991909279186846E-2</v>
       </c>
       <c r="E95" s="38"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="46"/>
-      <c r="K95" s="46"/>
-      <c r="L95" s="46"/>
-      <c r="M95" s="46"/>
-      <c r="P95" s="46"/>
-      <c r="Q95" s="46"/>
-      <c r="R95" s="46"/>
-      <c r="S95" s="46"/>
-      <c r="T95" s="46"/>
-      <c r="U95" s="46"/>
-      <c r="V95" s="46"/>
-      <c r="W95" s="46"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="47"/>
+      <c r="P95" s="47"/>
+      <c r="Q95" s="47"/>
+      <c r="R95" s="47"/>
+      <c r="S95" s="47"/>
+      <c r="T95" s="47"/>
+      <c r="U95" s="47"/>
+      <c r="V95" s="47"/>
+      <c r="W95" s="47"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
@@ -67194,22 +67191,22 @@
         <v>0.16376391234594154</v>
       </c>
       <c r="E96" s="38"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="46"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="46"/>
-      <c r="R96" s="46"/>
-      <c r="S96" s="46"/>
-      <c r="T96" s="46"/>
-      <c r="U96" s="46"/>
-      <c r="V96" s="46"/>
-      <c r="W96" s="46"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="47"/>
+      <c r="P96" s="47"/>
+      <c r="Q96" s="47"/>
+      <c r="R96" s="47"/>
+      <c r="S96" s="47"/>
+      <c r="T96" s="47"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="47"/>
+      <c r="W96" s="47"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -67225,22 +67222,22 @@
         <v>0.37451123094895444</v>
       </c>
       <c r="E97" s="38"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="46"/>
-      <c r="J97" s="46"/>
-      <c r="K97" s="46"/>
-      <c r="L97" s="46"/>
-      <c r="M97" s="46"/>
-      <c r="P97" s="46"/>
-      <c r="Q97" s="46"/>
-      <c r="R97" s="46"/>
-      <c r="S97" s="46"/>
-      <c r="T97" s="46"/>
-      <c r="U97" s="46"/>
-      <c r="V97" s="46"/>
-      <c r="W97" s="46"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="47"/>
+      <c r="L97" s="47"/>
+      <c r="M97" s="47"/>
+      <c r="P97" s="47"/>
+      <c r="Q97" s="47"/>
+      <c r="R97" s="47"/>
+      <c r="S97" s="47"/>
+      <c r="T97" s="47"/>
+      <c r="U97" s="47"/>
+      <c r="V97" s="47"/>
+      <c r="W97" s="47"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
@@ -67256,22 +67253,22 @@
         <v>0.13071368593465346</v>
       </c>
       <c r="E98" s="38"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="46"/>
-      <c r="J98" s="46"/>
-      <c r="K98" s="46"/>
-      <c r="L98" s="46"/>
-      <c r="M98" s="46"/>
-      <c r="P98" s="46"/>
-      <c r="Q98" s="46"/>
-      <c r="R98" s="46"/>
-      <c r="S98" s="46"/>
-      <c r="T98" s="46"/>
-      <c r="U98" s="46"/>
-      <c r="V98" s="46"/>
-      <c r="W98" s="46"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
+      <c r="L98" s="47"/>
+      <c r="M98" s="47"/>
+      <c r="P98" s="47"/>
+      <c r="Q98" s="47"/>
+      <c r="R98" s="47"/>
+      <c r="S98" s="47"/>
+      <c r="T98" s="47"/>
+      <c r="U98" s="47"/>
+      <c r="V98" s="47"/>
+      <c r="W98" s="47"/>
     </row>
     <row r="99" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
@@ -67287,20 +67284,20 @@
         <v>0.32571727764637787</v>
       </c>
       <c r="E99" s="38"/>
-      <c r="F99" s="46" t="s">
+      <c r="F99" s="47" t="s">
         <v>1282</v>
       </c>
-      <c r="G99" s="46"/>
+      <c r="G99" s="47"/>
       <c r="H99" s="41"/>
       <c r="I99" s="42"/>
       <c r="J99" s="42"/>
       <c r="K99" s="42"/>
       <c r="L99" s="42"/>
       <c r="M99" s="42"/>
-      <c r="P99" s="46">
+      <c r="P99" s="47">
         <v>1.5087999999999999</v>
       </c>
-      <c r="Q99" s="46"/>
+      <c r="Q99" s="47"/>
       <c r="R99" s="41"/>
       <c r="S99" s="42"/>
       <c r="T99" s="42"/>
@@ -67322,16 +67319,16 @@
         <v>5.0688635653399122E-2</v>
       </c>
       <c r="E100" s="38"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
       <c r="H100" s="41"/>
       <c r="I100" s="42"/>
       <c r="J100" s="42"/>
       <c r="K100" s="42"/>
       <c r="L100" s="42"/>
       <c r="M100" s="42"/>
-      <c r="P100" s="46"/>
-      <c r="Q100" s="46"/>
+      <c r="P100" s="47"/>
+      <c r="Q100" s="47"/>
       <c r="R100" s="41"/>
       <c r="S100" s="42"/>
       <c r="T100" s="42"/>
@@ -67353,22 +67350,22 @@
         <v>3.5309508379900933E-2</v>
       </c>
       <c r="E101" s="38"/>
-      <c r="F101" s="46" t="s">
+      <c r="F101" s="47" t="s">
         <v>1283</v>
       </c>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
       <c r="J101" s="42"/>
       <c r="K101" s="42"/>
       <c r="L101" s="42"/>
       <c r="M101" s="42"/>
-      <c r="P101" s="46">
+      <c r="P101" s="47">
         <v>1.0296000000000001</v>
       </c>
-      <c r="Q101" s="46"/>
-      <c r="R101" s="46"/>
-      <c r="S101" s="46"/>
+      <c r="Q101" s="47"/>
+      <c r="R101" s="47"/>
+      <c r="S101" s="47"/>
       <c r="T101" s="42"/>
       <c r="U101" s="42"/>
       <c r="V101" s="42"/>
@@ -67388,18 +67385,18 @@
         <v>0.15199985493668697</v>
       </c>
       <c r="E102" s="38"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="46"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
       <c r="J102" s="42"/>
       <c r="K102" s="42"/>
       <c r="L102" s="42"/>
       <c r="M102" s="42"/>
-      <c r="P102" s="46"/>
-      <c r="Q102" s="46"/>
-      <c r="R102" s="46"/>
-      <c r="S102" s="46"/>
+      <c r="P102" s="47"/>
+      <c r="Q102" s="47"/>
+      <c r="R102" s="47"/>
+      <c r="S102" s="47"/>
       <c r="T102" s="42"/>
       <c r="U102" s="42"/>
       <c r="V102" s="42"/>
@@ -67419,18 +67416,18 @@
         <v>5.3138206099268351E-2</v>
       </c>
       <c r="E103" s="38"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
       <c r="J103" s="42"/>
       <c r="K103" s="42"/>
       <c r="L103" s="42"/>
       <c r="M103" s="42"/>
-      <c r="P103" s="46"/>
-      <c r="Q103" s="46"/>
-      <c r="R103" s="46"/>
-      <c r="S103" s="46"/>
+      <c r="P103" s="47"/>
+      <c r="Q103" s="47"/>
+      <c r="R103" s="47"/>
+      <c r="S103" s="47"/>
       <c r="T103" s="42"/>
       <c r="U103" s="42"/>
       <c r="V103" s="42"/>
@@ -67450,18 +67447,18 @@
         <v>5.8153054743786368E-2</v>
       </c>
       <c r="E104" s="38"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
       <c r="J104" s="42"/>
       <c r="K104" s="42"/>
       <c r="L104" s="42"/>
       <c r="M104" s="42"/>
-      <c r="P104" s="46"/>
-      <c r="Q104" s="46"/>
-      <c r="R104" s="46"/>
-      <c r="S104" s="46"/>
+      <c r="P104" s="47"/>
+      <c r="Q104" s="47"/>
+      <c r="R104" s="47"/>
+      <c r="S104" s="47"/>
       <c r="T104" s="42"/>
       <c r="U104" s="42"/>
       <c r="V104" s="42"/>
@@ -67481,18 +67478,18 @@
         <v>1.4967560654789373E-2</v>
       </c>
       <c r="E105" s="38"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="46"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
       <c r="J105" s="42"/>
       <c r="K105" s="42"/>
       <c r="L105" s="42"/>
       <c r="M105" s="42"/>
-      <c r="P105" s="46"/>
-      <c r="Q105" s="46"/>
-      <c r="R105" s="46"/>
-      <c r="S105" s="46"/>
+      <c r="P105" s="47"/>
+      <c r="Q105" s="47"/>
+      <c r="R105" s="47"/>
+      <c r="S105" s="47"/>
       <c r="T105" s="42"/>
       <c r="U105" s="42"/>
       <c r="V105" s="42"/>
@@ -67512,22 +67509,22 @@
         <v>0.19112767550668186</v>
       </c>
       <c r="E106" s="38"/>
-      <c r="F106" s="46" t="s">
+      <c r="F106" s="47" t="s">
         <v>1284</v>
       </c>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="46"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="47"/>
+      <c r="I106" s="47"/>
       <c r="J106" s="42"/>
       <c r="K106" s="42"/>
       <c r="L106" s="42"/>
       <c r="M106" s="42"/>
-      <c r="P106" s="46">
+      <c r="P106" s="47">
         <v>2.4769999999999999</v>
       </c>
-      <c r="Q106" s="46"/>
-      <c r="R106" s="46"/>
-      <c r="S106" s="46"/>
+      <c r="Q106" s="47"/>
+      <c r="R106" s="47"/>
+      <c r="S106" s="47"/>
       <c r="T106" s="42"/>
       <c r="U106" s="42"/>
       <c r="V106" s="42"/>
@@ -67547,18 +67544,18 @@
         <v>0.11505797602109169</v>
       </c>
       <c r="E107" s="38"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
       <c r="J107" s="42"/>
       <c r="K107" s="42"/>
       <c r="L107" s="42"/>
       <c r="M107" s="42"/>
-      <c r="P107" s="46"/>
-      <c r="Q107" s="46"/>
-      <c r="R107" s="46"/>
-      <c r="S107" s="46"/>
+      <c r="P107" s="47"/>
+      <c r="Q107" s="47"/>
+      <c r="R107" s="47"/>
+      <c r="S107" s="47"/>
       <c r="T107" s="42"/>
       <c r="U107" s="42"/>
       <c r="V107" s="42"/>
@@ -67578,18 +67575,18 @@
         <v>4.8315832308380671E-2</v>
       </c>
       <c r="E108" s="38"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
       <c r="J108" s="42"/>
       <c r="K108" s="42"/>
       <c r="L108" s="42"/>
       <c r="M108" s="42"/>
-      <c r="P108" s="46"/>
-      <c r="Q108" s="46"/>
-      <c r="R108" s="46"/>
-      <c r="S108" s="46"/>
+      <c r="P108" s="47"/>
+      <c r="Q108" s="47"/>
+      <c r="R108" s="47"/>
+      <c r="S108" s="47"/>
       <c r="T108" s="42"/>
       <c r="U108" s="42"/>
       <c r="V108" s="42"/>
@@ -67609,18 +67606,18 @@
         <v>2.8871395892988521E-2</v>
       </c>
       <c r="E109" s="38"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47"/>
       <c r="J109" s="42"/>
       <c r="K109" s="42"/>
       <c r="L109" s="42"/>
       <c r="M109" s="42"/>
-      <c r="P109" s="46"/>
-      <c r="Q109" s="46"/>
-      <c r="R109" s="46"/>
-      <c r="S109" s="46"/>
+      <c r="P109" s="47"/>
+      <c r="Q109" s="47"/>
+      <c r="R109" s="47"/>
+      <c r="S109" s="47"/>
       <c r="T109" s="42"/>
       <c r="U109" s="42"/>
       <c r="V109" s="42"/>
@@ -67640,18 +67637,18 @@
         <v>0.11107443259072623</v>
       </c>
       <c r="E110" s="38"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
       <c r="J110" s="42"/>
       <c r="K110" s="42"/>
       <c r="L110" s="42"/>
       <c r="M110" s="42"/>
-      <c r="P110" s="46"/>
-      <c r="Q110" s="46"/>
-      <c r="R110" s="46"/>
-      <c r="S110" s="46"/>
+      <c r="P110" s="47"/>
+      <c r="Q110" s="47"/>
+      <c r="R110" s="47"/>
+      <c r="S110" s="47"/>
       <c r="T110" s="42"/>
       <c r="U110" s="42"/>
       <c r="V110" s="42"/>
@@ -67671,20 +67668,20 @@
         <v>0.156520180875696</v>
       </c>
       <c r="E111" s="38"/>
-      <c r="F111" s="46" t="s">
+      <c r="F111" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="G111" s="46"/>
+      <c r="G111" s="47"/>
       <c r="H111" s="41"/>
       <c r="I111" s="42"/>
       <c r="J111" s="42"/>
       <c r="K111" s="42"/>
       <c r="L111" s="42"/>
       <c r="M111" s="42"/>
-      <c r="P111" s="46">
+      <c r="P111" s="47">
         <v>0.47099999999999997</v>
       </c>
-      <c r="Q111" s="46"/>
+      <c r="Q111" s="47"/>
       <c r="R111" s="41"/>
       <c r="S111" s="42"/>
       <c r="T111" s="42"/>
@@ -67706,26 +67703,26 @@
         <v>0.11515666384020352</v>
       </c>
       <c r="E112" s="38"/>
-      <c r="F112" s="46" t="s">
+      <c r="F112" s="47" t="s">
         <v>1285</v>
       </c>
-      <c r="G112" s="46"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="46"/>
-      <c r="J112" s="46"/>
-      <c r="K112" s="46"/>
-      <c r="L112" s="46"/>
-      <c r="M112" s="46"/>
-      <c r="P112" s="46">
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="47"/>
+      <c r="M112" s="47"/>
+      <c r="P112" s="47">
         <v>1.4801</v>
       </c>
-      <c r="Q112" s="46"/>
-      <c r="R112" s="46"/>
-      <c r="S112" s="46"/>
-      <c r="T112" s="46"/>
-      <c r="U112" s="46"/>
-      <c r="V112" s="46"/>
-      <c r="W112" s="46"/>
+      <c r="Q112" s="47"/>
+      <c r="R112" s="47"/>
+      <c r="S112" s="47"/>
+      <c r="T112" s="47"/>
+      <c r="U112" s="47"/>
+      <c r="V112" s="47"/>
+      <c r="W112" s="47"/>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="16" t="s">
@@ -67741,22 +67738,22 @@
         <v>3.2007554558297707E-2</v>
       </c>
       <c r="E113" s="38"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="46"/>
-      <c r="L113" s="46"/>
-      <c r="M113" s="46"/>
-      <c r="P113" s="46"/>
-      <c r="Q113" s="46"/>
-      <c r="R113" s="46"/>
-      <c r="S113" s="46"/>
-      <c r="T113" s="46"/>
-      <c r="U113" s="46"/>
-      <c r="V113" s="46"/>
-      <c r="W113" s="46"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="47"/>
+      <c r="K113" s="47"/>
+      <c r="L113" s="47"/>
+      <c r="M113" s="47"/>
+      <c r="P113" s="47"/>
+      <c r="Q113" s="47"/>
+      <c r="R113" s="47"/>
+      <c r="S113" s="47"/>
+      <c r="T113" s="47"/>
+      <c r="U113" s="47"/>
+      <c r="V113" s="47"/>
+      <c r="W113" s="47"/>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
@@ -67772,22 +67769,22 @@
         <v>1.8160353749677748E-2</v>
       </c>
       <c r="E114" s="38"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="46"/>
-      <c r="I114" s="46"/>
-      <c r="J114" s="46"/>
-      <c r="K114" s="46"/>
-      <c r="L114" s="46"/>
-      <c r="M114" s="46"/>
-      <c r="P114" s="46"/>
-      <c r="Q114" s="46"/>
-      <c r="R114" s="46"/>
-      <c r="S114" s="46"/>
-      <c r="T114" s="46"/>
-      <c r="U114" s="46"/>
-      <c r="V114" s="46"/>
-      <c r="W114" s="46"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="47"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="47"/>
+      <c r="K114" s="47"/>
+      <c r="L114" s="47"/>
+      <c r="M114" s="47"/>
+      <c r="P114" s="47"/>
+      <c r="Q114" s="47"/>
+      <c r="R114" s="47"/>
+      <c r="S114" s="47"/>
+      <c r="T114" s="47"/>
+      <c r="U114" s="47"/>
+      <c r="V114" s="47"/>
+      <c r="W114" s="47"/>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
@@ -67803,22 +67800,22 @@
         <v>2.4567310082680788E-2</v>
       </c>
       <c r="E115" s="38"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="46"/>
-      <c r="I115" s="46"/>
-      <c r="J115" s="46"/>
-      <c r="K115" s="46"/>
-      <c r="L115" s="46"/>
-      <c r="M115" s="46"/>
-      <c r="P115" s="46"/>
-      <c r="Q115" s="46"/>
-      <c r="R115" s="46"/>
-      <c r="S115" s="46"/>
-      <c r="T115" s="46"/>
-      <c r="U115" s="46"/>
-      <c r="V115" s="46"/>
-      <c r="W115" s="46"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="47"/>
+      <c r="K115" s="47"/>
+      <c r="L115" s="47"/>
+      <c r="M115" s="47"/>
+      <c r="P115" s="47"/>
+      <c r="Q115" s="47"/>
+      <c r="R115" s="47"/>
+      <c r="S115" s="47"/>
+      <c r="T115" s="47"/>
+      <c r="U115" s="47"/>
+      <c r="V115" s="47"/>
+      <c r="W115" s="47"/>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="16" t="s">
@@ -67834,22 +67831,22 @@
         <v>2.1828236695049533E-2</v>
       </c>
       <c r="E116" s="38"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="46"/>
-      <c r="I116" s="46"/>
-      <c r="J116" s="46"/>
-      <c r="K116" s="46"/>
-      <c r="L116" s="46"/>
-      <c r="M116" s="46"/>
-      <c r="P116" s="46"/>
-      <c r="Q116" s="46"/>
-      <c r="R116" s="46"/>
-      <c r="S116" s="46"/>
-      <c r="T116" s="46"/>
-      <c r="U116" s="46"/>
-      <c r="V116" s="46"/>
-      <c r="W116" s="46"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="47"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="47"/>
+      <c r="K116" s="47"/>
+      <c r="L116" s="47"/>
+      <c r="M116" s="47"/>
+      <c r="P116" s="47"/>
+      <c r="Q116" s="47"/>
+      <c r="R116" s="47"/>
+      <c r="S116" s="47"/>
+      <c r="T116" s="47"/>
+      <c r="U116" s="47"/>
+      <c r="V116" s="47"/>
+      <c r="W116" s="47"/>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -67865,22 +67862,22 @@
         <v>1.6243137558585665E-2</v>
       </c>
       <c r="E117" s="38"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="46"/>
-      <c r="I117" s="46"/>
-      <c r="J117" s="46"/>
-      <c r="K117" s="46"/>
-      <c r="L117" s="46"/>
-      <c r="M117" s="46"/>
-      <c r="P117" s="46"/>
-      <c r="Q117" s="46"/>
-      <c r="R117" s="46"/>
-      <c r="S117" s="46"/>
-      <c r="T117" s="46"/>
-      <c r="U117" s="46"/>
-      <c r="V117" s="46"/>
-      <c r="W117" s="46"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="47"/>
+      <c r="K117" s="47"/>
+      <c r="L117" s="47"/>
+      <c r="M117" s="47"/>
+      <c r="P117" s="47"/>
+      <c r="Q117" s="47"/>
+      <c r="R117" s="47"/>
+      <c r="S117" s="47"/>
+      <c r="T117" s="47"/>
+      <c r="U117" s="47"/>
+      <c r="V117" s="47"/>
+      <c r="W117" s="47"/>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
@@ -67896,22 +67893,22 @@
         <v>4.1306943007144395E-2</v>
       </c>
       <c r="E118" s="38"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="46"/>
-      <c r="I118" s="46"/>
-      <c r="J118" s="46"/>
-      <c r="K118" s="46"/>
-      <c r="L118" s="46"/>
-      <c r="M118" s="46"/>
-      <c r="P118" s="46"/>
-      <c r="Q118" s="46"/>
-      <c r="R118" s="46"/>
-      <c r="S118" s="46"/>
-      <c r="T118" s="46"/>
-      <c r="U118" s="46"/>
-      <c r="V118" s="46"/>
-      <c r="W118" s="46"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="47"/>
+      <c r="I118" s="47"/>
+      <c r="J118" s="47"/>
+      <c r="K118" s="47"/>
+      <c r="L118" s="47"/>
+      <c r="M118" s="47"/>
+      <c r="P118" s="47"/>
+      <c r="Q118" s="47"/>
+      <c r="R118" s="47"/>
+      <c r="S118" s="47"/>
+      <c r="T118" s="47"/>
+      <c r="U118" s="47"/>
+      <c r="V118" s="47"/>
+      <c r="W118" s="47"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
@@ -67927,22 +67924,22 @@
         <v>3.0402175770454318E-2</v>
       </c>
       <c r="E119" s="38"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="46"/>
-      <c r="J119" s="46"/>
-      <c r="K119" s="46"/>
-      <c r="L119" s="46"/>
-      <c r="M119" s="46"/>
-      <c r="P119" s="46"/>
-      <c r="Q119" s="46"/>
-      <c r="R119" s="46"/>
-      <c r="S119" s="46"/>
-      <c r="T119" s="46"/>
-      <c r="U119" s="46"/>
-      <c r="V119" s="46"/>
-      <c r="W119" s="46"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="47"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="47"/>
+      <c r="P119" s="47"/>
+      <c r="Q119" s="47"/>
+      <c r="R119" s="47"/>
+      <c r="S119" s="47"/>
+      <c r="T119" s="47"/>
+      <c r="U119" s="47"/>
+      <c r="V119" s="47"/>
+      <c r="W119" s="47"/>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
@@ -67958,22 +67955,22 @@
         <v>1.9499633186996372E-2</v>
       </c>
       <c r="E120" s="38"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="46"/>
-      <c r="J120" s="46"/>
-      <c r="K120" s="46"/>
-      <c r="L120" s="46"/>
-      <c r="M120" s="46"/>
-      <c r="P120" s="46"/>
-      <c r="Q120" s="46"/>
-      <c r="R120" s="46"/>
-      <c r="S120" s="46"/>
-      <c r="T120" s="46"/>
-      <c r="U120" s="46"/>
-      <c r="V120" s="46"/>
-      <c r="W120" s="46"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="47"/>
+      <c r="I120" s="47"/>
+      <c r="J120" s="47"/>
+      <c r="K120" s="47"/>
+      <c r="L120" s="47"/>
+      <c r="M120" s="47"/>
+      <c r="P120" s="47"/>
+      <c r="Q120" s="47"/>
+      <c r="R120" s="47"/>
+      <c r="S120" s="47"/>
+      <c r="T120" s="47"/>
+      <c r="U120" s="47"/>
+      <c r="V120" s="47"/>
+      <c r="W120" s="47"/>
     </row>
     <row r="121" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
@@ -67989,20 +67986,20 @@
         <v>0.11688084490433973</v>
       </c>
       <c r="E121" s="38"/>
-      <c r="F121" s="46" t="s">
+      <c r="F121" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="G121" s="46"/>
+      <c r="G121" s="47"/>
       <c r="H121" s="41"/>
       <c r="I121" s="42"/>
       <c r="J121" s="42"/>
       <c r="K121" s="42"/>
       <c r="L121" s="42"/>
       <c r="M121" s="42"/>
-      <c r="P121" s="46">
+      <c r="P121" s="47">
         <v>0.68469999999999998</v>
       </c>
-      <c r="Q121" s="46"/>
+      <c r="Q121" s="47"/>
       <c r="R121" s="41"/>
       <c r="S121" s="42"/>
       <c r="T121" s="42"/>
@@ -68024,16 +68021,16 @@
         <v>7.8787256388932261E-2</v>
       </c>
       <c r="E122" s="38"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
       <c r="H122" s="41"/>
       <c r="I122" s="42"/>
       <c r="J122" s="42"/>
       <c r="K122" s="42"/>
       <c r="L122" s="42"/>
       <c r="M122" s="42"/>
-      <c r="P122" s="46"/>
-      <c r="Q122" s="46"/>
+      <c r="P122" s="47"/>
+      <c r="Q122" s="47"/>
       <c r="R122" s="41"/>
       <c r="S122" s="42"/>
       <c r="T122" s="42"/>
@@ -68055,21 +68052,21 @@
         <v>0.54639777179267501</v>
       </c>
       <c r="E123" s="38"/>
-      <c r="F123" s="46" t="s">
+      <c r="F123" s="47" t="s">
         <v>1286</v>
       </c>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="47"/>
       <c r="I123" s="42"/>
       <c r="J123" s="42"/>
       <c r="K123" s="42"/>
       <c r="L123" s="42"/>
       <c r="M123" s="42"/>
-      <c r="P123" s="46">
+      <c r="P123" s="47">
         <v>2.5407000000000002</v>
       </c>
-      <c r="Q123" s="46"/>
-      <c r="R123" s="46"/>
+      <c r="Q123" s="47"/>
+      <c r="R123" s="47"/>
       <c r="S123" s="42"/>
       <c r="T123" s="42"/>
       <c r="U123" s="42"/>
@@ -68090,17 +68087,17 @@
         <v>9.0714901749510326E-3</v>
       </c>
       <c r="E124" s="38"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
       <c r="I124" s="42"/>
       <c r="J124" s="42"/>
       <c r="K124" s="42"/>
       <c r="L124" s="42"/>
       <c r="M124" s="42"/>
-      <c r="P124" s="46"/>
-      <c r="Q124" s="46"/>
-      <c r="R124" s="46"/>
+      <c r="P124" s="47"/>
+      <c r="Q124" s="47"/>
+      <c r="R124" s="47"/>
       <c r="S124" s="42"/>
       <c r="T124" s="42"/>
       <c r="U124" s="42"/>
@@ -68121,21 +68118,21 @@
         <v>4.5034251614930309E-3</v>
       </c>
       <c r="E125" s="38"/>
-      <c r="F125" s="46" t="s">
+      <c r="F125" s="47" t="s">
         <v>1287</v>
       </c>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
       <c r="I125" s="42"/>
       <c r="J125" s="42"/>
       <c r="K125" s="42"/>
       <c r="L125" s="42"/>
       <c r="M125" s="42"/>
-      <c r="P125" s="46">
+      <c r="P125" s="47">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="Q125" s="46"/>
-      <c r="R125" s="46"/>
+      <c r="Q125" s="47"/>
+      <c r="R125" s="47"/>
       <c r="S125" s="42"/>
       <c r="T125" s="42"/>
       <c r="U125" s="42"/>
@@ -68156,17 +68153,17 @@
         <v>1.3118695924583489E-3</v>
       </c>
       <c r="E126" s="38"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="47"/>
       <c r="I126" s="42"/>
       <c r="J126" s="42"/>
       <c r="K126" s="42"/>
       <c r="L126" s="42"/>
       <c r="M126" s="42"/>
-      <c r="P126" s="46"/>
-      <c r="Q126" s="46"/>
-      <c r="R126" s="46"/>
+      <c r="P126" s="47"/>
+      <c r="Q126" s="47"/>
+      <c r="R126" s="47"/>
       <c r="S126" s="42"/>
       <c r="T126" s="42"/>
       <c r="U126" s="42"/>
@@ -68187,21 +68184,21 @@
         <v>0.30050749676600241</v>
       </c>
       <c r="E127" s="38"/>
-      <c r="F127" s="46" t="s">
+      <c r="F127" s="47" t="s">
         <v>1288</v>
       </c>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="47"/>
       <c r="I127" s="42"/>
       <c r="J127" s="42"/>
       <c r="K127" s="42"/>
       <c r="L127" s="42"/>
       <c r="M127" s="42"/>
-      <c r="P127" s="46">
+      <c r="P127" s="47">
         <v>1.4917</v>
       </c>
-      <c r="Q127" s="46"/>
-      <c r="R127" s="46"/>
+      <c r="Q127" s="47"/>
+      <c r="R127" s="47"/>
       <c r="S127" s="42"/>
       <c r="T127" s="42"/>
       <c r="U127" s="42"/>
@@ -68222,17 +68219,17 @@
         <v>7.203340903643056E-2</v>
       </c>
       <c r="E128" s="38"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="46"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
       <c r="I128" s="42"/>
       <c r="J128" s="42"/>
       <c r="K128" s="42"/>
       <c r="L128" s="42"/>
       <c r="M128" s="42"/>
-      <c r="P128" s="46"/>
-      <c r="Q128" s="46"/>
-      <c r="R128" s="46"/>
+      <c r="P128" s="47"/>
+      <c r="Q128" s="47"/>
+      <c r="R128" s="47"/>
       <c r="S128" s="42"/>
       <c r="T128" s="42"/>
       <c r="U128" s="42"/>
@@ -68253,22 +68250,22 @@
         <v>5.1895231880162158E-2</v>
       </c>
       <c r="E129" s="38"/>
-      <c r="F129" s="46" t="s">
+      <c r="F129" s="47" t="s">
         <v>1289</v>
       </c>
-      <c r="G129" s="46"/>
-      <c r="H129" s="46"/>
-      <c r="I129" s="46"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
       <c r="J129" s="42"/>
       <c r="K129" s="42"/>
       <c r="L129" s="42"/>
       <c r="M129" s="42"/>
-      <c r="P129" s="46">
+      <c r="P129" s="47">
         <v>1.3724000000000001</v>
       </c>
-      <c r="Q129" s="46"/>
-      <c r="R129" s="46"/>
-      <c r="S129" s="46"/>
+      <c r="Q129" s="47"/>
+      <c r="R129" s="47"/>
+      <c r="S129" s="47"/>
       <c r="T129" s="42"/>
       <c r="U129" s="42"/>
       <c r="V129" s="42"/>
@@ -68288,18 +68285,18 @@
         <v>0.18892143551436213</v>
       </c>
       <c r="E130" s="38"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="46"/>
-      <c r="I130" s="46"/>
+      <c r="F130" s="47"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="47"/>
+      <c r="I130" s="47"/>
       <c r="J130" s="42"/>
       <c r="K130" s="42"/>
       <c r="L130" s="42"/>
       <c r="M130" s="42"/>
-      <c r="P130" s="46"/>
-      <c r="Q130" s="46"/>
-      <c r="R130" s="46"/>
-      <c r="S130" s="46"/>
+      <c r="P130" s="47"/>
+      <c r="Q130" s="47"/>
+      <c r="R130" s="47"/>
+      <c r="S130" s="47"/>
       <c r="T130" s="42"/>
       <c r="U130" s="42"/>
       <c r="V130" s="42"/>
@@ -68319,18 +68316,18 @@
         <v>2.3816090572351397E-2</v>
       </c>
       <c r="E131" s="38"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="46"/>
-      <c r="I131" s="46"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="47"/>
       <c r="J131" s="42"/>
       <c r="K131" s="42"/>
       <c r="L131" s="42"/>
       <c r="M131" s="42"/>
-      <c r="P131" s="46"/>
-      <c r="Q131" s="46"/>
-      <c r="R131" s="46"/>
-      <c r="S131" s="46"/>
+      <c r="P131" s="47"/>
+      <c r="Q131" s="47"/>
+      <c r="R131" s="47"/>
+      <c r="S131" s="47"/>
       <c r="T131" s="42"/>
       <c r="U131" s="42"/>
       <c r="V131" s="42"/>
@@ -68350,18 +68347,18 @@
         <v>4.0379326736203328E-2</v>
       </c>
       <c r="E132" s="38"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="46"/>
-      <c r="I132" s="46"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47"/>
+      <c r="I132" s="47"/>
       <c r="J132" s="42"/>
       <c r="K132" s="42"/>
       <c r="L132" s="42"/>
       <c r="M132" s="42"/>
-      <c r="P132" s="46"/>
-      <c r="Q132" s="46"/>
-      <c r="R132" s="46"/>
-      <c r="S132" s="46"/>
+      <c r="P132" s="47"/>
+      <c r="Q132" s="47"/>
+      <c r="R132" s="47"/>
+      <c r="S132" s="47"/>
       <c r="T132" s="42"/>
       <c r="U132" s="42"/>
       <c r="V132" s="42"/>
@@ -68381,21 +68378,21 @@
         <v>0.118598333757931</v>
       </c>
       <c r="E133" s="38"/>
-      <c r="F133" s="46" t="s">
+      <c r="F133" s="47" t="s">
         <v>1290</v>
       </c>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="47"/>
       <c r="I133" s="42"/>
       <c r="J133" s="42"/>
       <c r="K133" s="42"/>
       <c r="L133" s="42"/>
       <c r="M133" s="42"/>
-      <c r="P133" s="46">
+      <c r="P133" s="47">
         <v>0.42809999999999998</v>
       </c>
-      <c r="Q133" s="46"/>
-      <c r="R133" s="46"/>
+      <c r="Q133" s="47"/>
+      <c r="R133" s="47"/>
       <c r="S133" s="42"/>
       <c r="T133" s="42"/>
       <c r="U133" s="42"/>
@@ -72616,26 +72613,41 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="F11:L17"/>
-    <mergeCell ref="F7:H9"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F25:J28"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:H93"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:I33"/>
-    <mergeCell ref="F34:I37"/>
-    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="P123:R124"/>
+    <mergeCell ref="P125:R126"/>
+    <mergeCell ref="P127:R128"/>
+    <mergeCell ref="P129:S132"/>
+    <mergeCell ref="P133:R133"/>
+    <mergeCell ref="P101:S105"/>
+    <mergeCell ref="P106:S110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="P112:W120"/>
+    <mergeCell ref="P121:Q122"/>
+    <mergeCell ref="P67:W89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:R93"/>
+    <mergeCell ref="P94:W98"/>
+    <mergeCell ref="P99:Q100"/>
+    <mergeCell ref="P39:W39"/>
+    <mergeCell ref="P40:W40"/>
+    <mergeCell ref="P41:W42"/>
+    <mergeCell ref="P43:W56"/>
+    <mergeCell ref="P57:W66"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:S33"/>
+    <mergeCell ref="P34:S37"/>
+    <mergeCell ref="P38:W38"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="P25:T28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P7:R9"/>
+    <mergeCell ref="P11:V17"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
     <mergeCell ref="F133:H133"/>
     <mergeCell ref="F67:M89"/>
     <mergeCell ref="F57:M66"/>
@@ -72652,41 +72664,26 @@
     <mergeCell ref="F99:G100"/>
     <mergeCell ref="F101:I105"/>
     <mergeCell ref="F106:I110"/>
-    <mergeCell ref="P7:R9"/>
-    <mergeCell ref="P11:V17"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="P25:T28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:S33"/>
-    <mergeCell ref="P34:S37"/>
-    <mergeCell ref="P38:W38"/>
-    <mergeCell ref="P39:W39"/>
-    <mergeCell ref="P40:W40"/>
-    <mergeCell ref="P41:W42"/>
-    <mergeCell ref="P43:W56"/>
-    <mergeCell ref="P57:W66"/>
-    <mergeCell ref="P67:W89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:R93"/>
-    <mergeCell ref="P94:W98"/>
-    <mergeCell ref="P99:Q100"/>
-    <mergeCell ref="P101:S105"/>
-    <mergeCell ref="P106:S110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="P112:W120"/>
-    <mergeCell ref="P121:Q122"/>
-    <mergeCell ref="P123:R124"/>
-    <mergeCell ref="P125:R126"/>
-    <mergeCell ref="P127:R128"/>
-    <mergeCell ref="P129:S132"/>
-    <mergeCell ref="P133:R133"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:H93"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="F34:I37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F25:J28"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="F11:L17"/>
+    <mergeCell ref="F7:H9"/>
+    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <conditionalFormatting sqref="B174:B175 B185">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">

--- a/Weights_2022.xlsx
+++ b/Weights_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\streamlit-gfe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51B9DB3-092C-4854-82E4-5D93B82E6B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4EEA6F-4231-41B7-8D96-B5F54623D313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4230,10 +4230,10 @@
     <t>Etek</t>
   </si>
   <si>
-    <t>Baklava soğuk</t>
-  </si>
-  <si>
     <t>Bulgur</t>
+  </si>
+  <si>
+    <t>Baklava</t>
   </si>
 </sst>
 </file>
@@ -4474,14 +4474,14 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -63905,8 +63905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F55F94E-7669-44BC-B5AD-777700EFA1D6}">
   <dimension ref="A1:W448"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -64252,10 +64252,10 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
@@ -64332,21 +64332,21 @@
         <v>0.51521805773947882</v>
       </c>
       <c r="E7" s="38"/>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>1265</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
       <c r="M7" s="45"/>
-      <c r="P7" s="47">
+      <c r="P7" s="46">
         <v>2.3153000000000001</v>
       </c>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
       <c r="S7" s="39"/>
       <c r="T7" s="39"/>
       <c r="U7" s="39"/>
@@ -64367,17 +64367,17 @@
         <v>0.12674148528986401</v>
       </c>
       <c r="E8" s="38"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="39"/>
@@ -64389,7 +64389,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>18</v>
@@ -64398,17 +64398,17 @@
         <v>0.15067324663166823</v>
       </c>
       <c r="E9" s="38"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="39"/>
@@ -64464,25 +64464,25 @@
         <v>0.27911395435589181</v>
       </c>
       <c r="E11" s="38"/>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="46" t="s">
         <v>1266</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
       <c r="M11" s="39"/>
-      <c r="P11" s="47">
+      <c r="P11" s="46">
         <v>4.7308000000000003</v>
       </c>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
       <c r="W11" s="39"/>
     </row>
     <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64499,21 +64499,21 @@
         <v>5.7292470751132078E-2</v>
       </c>
       <c r="E12" s="38"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
       <c r="M12" s="39"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
       <c r="W12" s="39"/>
     </row>
     <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64530,21 +64530,21 @@
         <v>0.14912352618046137</v>
       </c>
       <c r="E13" s="38"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
       <c r="M13" s="39"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
       <c r="W13" s="39"/>
     </row>
     <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64561,21 +64561,21 @@
         <v>0.27847618649609573</v>
       </c>
       <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="39"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
       <c r="W14" s="39"/>
     </row>
     <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64592,21 +64592,21 @@
         <v>7.820182238255062E-2</v>
       </c>
       <c r="E15" s="38"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
       <c r="M15" s="39"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
       <c r="W15" s="39"/>
     </row>
     <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64614,7 +64614,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>38</v>
@@ -64623,21 +64623,21 @@
         <v>0.34681920097218832</v>
       </c>
       <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="39"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
       <c r="W16" s="39"/>
     </row>
     <row r="17" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64654,21 +64654,21 @@
         <v>0.10159892812195015</v>
       </c>
       <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="39"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
       <c r="W17" s="39"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -64685,20 +64685,20 @@
         <v>0.19810579686315247</v>
       </c>
       <c r="E18" s="38"/>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="46" t="s">
         <v>1267</v>
       </c>
-      <c r="G18" s="47"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="41"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>0.89810000000000001</v>
       </c>
-      <c r="Q18" s="47"/>
+      <c r="Q18" s="46"/>
       <c r="R18" s="41"/>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
@@ -64720,16 +64720,16 @@
         <v>2.7797878963817524E-2</v>
       </c>
       <c r="E19" s="38"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="41"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
       <c r="L19" s="39"/>
       <c r="M19" s="39"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
       <c r="R19" s="41"/>
       <c r="S19" s="42"/>
       <c r="T19" s="42"/>
@@ -64751,20 +64751,20 @@
         <v>3.1174754848709001E-2</v>
       </c>
       <c r="E20" s="38"/>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="46" t="s">
         <v>1268</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="41"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
-      <c r="P20" s="47">
+      <c r="P20" s="46">
         <v>0.15190000000000001</v>
       </c>
-      <c r="Q20" s="47"/>
+      <c r="Q20" s="46"/>
       <c r="R20" s="41"/>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
@@ -64786,20 +64786,20 @@
         <v>2.1515458419535198</v>
       </c>
       <c r="E21" s="38"/>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="47"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="41"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
-      <c r="P21" s="47">
+      <c r="P21" s="46">
         <v>9.1193000000000008</v>
       </c>
-      <c r="Q21" s="47"/>
+      <c r="Q21" s="46"/>
       <c r="R21" s="41"/>
       <c r="S21" s="42"/>
       <c r="T21" s="42"/>
@@ -64821,20 +64821,20 @@
         <v>0.91497264299301595</v>
       </c>
       <c r="E22" s="38"/>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="47"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="41"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
-      <c r="P22" s="47">
+      <c r="P22" s="46">
         <v>3.6798000000000002</v>
       </c>
-      <c r="Q22" s="47"/>
+      <c r="Q22" s="46"/>
       <c r="R22" s="41"/>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
@@ -64856,20 +64856,20 @@
         <v>1.4022603003234599</v>
       </c>
       <c r="E23" s="38"/>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="47"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="41"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
-      <c r="P23" s="47">
+      <c r="P23" s="46">
         <v>5.6840999999999999</v>
       </c>
-      <c r="Q23" s="47"/>
+      <c r="Q23" s="46"/>
       <c r="R23" s="41"/>
       <c r="S23" s="42"/>
       <c r="T23" s="42"/>
@@ -64891,22 +64891,22 @@
         <v>5.7377872285459201E-2</v>
       </c>
       <c r="E24" s="38"/>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="46" t="s">
         <v>1269</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
       <c r="L24" s="39"/>
       <c r="M24" s="39"/>
-      <c r="P24" s="47">
+      <c r="P24" s="46">
         <v>0.30980000000000002</v>
       </c>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
       <c r="T24" s="42"/>
       <c r="U24" s="42"/>
       <c r="V24" s="39"/>
@@ -64926,23 +64926,23 @@
         <v>0.42958442335736191</v>
       </c>
       <c r="E25" s="38"/>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="46" t="s">
         <v>1270</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
       <c r="K25" s="42"/>
       <c r="L25" s="39"/>
       <c r="M25" s="39"/>
-      <c r="P25" s="47">
+      <c r="P25" s="46">
         <v>2.7145999999999999</v>
       </c>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
       <c r="U25" s="42"/>
       <c r="V25" s="39"/>
       <c r="W25" s="39"/>
@@ -64961,19 +64961,19 @@
         <v>4.6986095467985413E-2</v>
       </c>
       <c r="E26" s="38"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
       <c r="K26" s="42"/>
       <c r="L26" s="39"/>
       <c r="M26" s="39"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
       <c r="U26" s="42"/>
       <c r="V26" s="39"/>
       <c r="W26" s="39"/>
@@ -64992,19 +64992,19 @@
         <v>8.3031042770547209E-2</v>
       </c>
       <c r="E27" s="38"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
       <c r="K27" s="42"/>
       <c r="L27" s="39"/>
       <c r="M27" s="39"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
       <c r="U27" s="42"/>
       <c r="V27" s="39"/>
       <c r="W27" s="39"/>
@@ -65023,19 +65023,19 @@
         <v>0.10100343238800358</v>
       </c>
       <c r="E28" s="38"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
       <c r="K28" s="42"/>
       <c r="L28" s="39"/>
       <c r="M28" s="39"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
       <c r="U28" s="42"/>
       <c r="V28" s="39"/>
       <c r="W28" s="39"/>
@@ -65054,20 +65054,20 @@
         <v>0.37657317995231099</v>
       </c>
       <c r="E29" s="38"/>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="46" t="s">
         <v>1271</v>
       </c>
-      <c r="G29" s="47"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
-      <c r="P29" s="47">
+      <c r="P29" s="46">
         <v>1.0806</v>
       </c>
-      <c r="Q29" s="47"/>
+      <c r="Q29" s="46"/>
       <c r="R29" s="40"/>
       <c r="S29" s="40"/>
       <c r="T29" s="42"/>
@@ -65089,22 +65089,22 @@
         <v>2.6931487122201201E-2</v>
       </c>
       <c r="E30" s="38"/>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="46" t="s">
         <v>1272</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
       <c r="J30" s="42"/>
       <c r="K30" s="42"/>
       <c r="L30" s="39"/>
       <c r="M30" s="39"/>
-      <c r="P30" s="47">
+      <c r="P30" s="46">
         <v>0.1221</v>
       </c>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
       <c r="T30" s="42"/>
       <c r="U30" s="42"/>
       <c r="V30" s="39"/>
@@ -65124,20 +65124,20 @@
         <v>0.74544121619390191</v>
       </c>
       <c r="E31" s="38"/>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="48"/>
+      <c r="G31" s="47"/>
       <c r="H31" s="43"/>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
       <c r="L31" s="39"/>
       <c r="M31" s="39"/>
-      <c r="P31" s="48">
+      <c r="P31" s="47">
         <v>2.5091999999999999</v>
       </c>
-      <c r="Q31" s="48"/>
+      <c r="Q31" s="47"/>
       <c r="R31" s="43"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
@@ -65159,22 +65159,22 @@
         <v>0.58723300441325832</v>
       </c>
       <c r="E32" s="38"/>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="46" t="s">
         <v>1273</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
       <c r="L32" s="39"/>
       <c r="M32" s="39"/>
-      <c r="P32" s="47">
+      <c r="P32" s="46">
         <v>2.1776</v>
       </c>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
       <c r="T32" s="44"/>
       <c r="U32" s="44"/>
       <c r="V32" s="39"/>
@@ -65194,18 +65194,18 @@
         <v>2.8411883303959638E-2</v>
       </c>
       <c r="E33" s="38"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="39"/>
       <c r="M33" s="39"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
       <c r="T33" s="44"/>
       <c r="U33" s="44"/>
       <c r="V33" s="39"/>
@@ -65225,22 +65225,22 @@
         <v>0.8283712022457087</v>
       </c>
       <c r="E34" s="38"/>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="46" t="s">
         <v>1274</v>
       </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
       <c r="L34" s="39"/>
       <c r="M34" s="39"/>
-      <c r="P34" s="47">
+      <c r="P34" s="46">
         <v>5.6692</v>
       </c>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
       <c r="T34" s="44"/>
       <c r="U34" s="44"/>
       <c r="V34" s="39"/>
@@ -65260,18 +65260,18 @@
         <v>0.38813356688258949</v>
       </c>
       <c r="E35" s="38"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
       <c r="L35" s="39"/>
       <c r="M35" s="39"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
       <c r="T35" s="44"/>
       <c r="U35" s="44"/>
       <c r="V35" s="39"/>
@@ -65291,18 +65291,18 @@
         <v>0.16008540153818723</v>
       </c>
       <c r="E36" s="38"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
       <c r="T36" s="44"/>
       <c r="U36" s="44"/>
       <c r="V36" s="39"/>
@@ -65322,18 +65322,18 @@
         <v>6.2428045787504827E-2</v>
       </c>
       <c r="E37" s="38"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="44"/>
       <c r="K37" s="44"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
       <c r="T37" s="44"/>
       <c r="U37" s="44"/>
       <c r="V37" s="39"/>
@@ -65353,26 +65353,26 @@
         <v>0.81296800539466196</v>
       </c>
       <c r="E38" s="38"/>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="P38" s="48">
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="P38" s="47">
         <v>2.7397</v>
       </c>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
@@ -65388,26 +65388,26 @@
         <v>0.33183740154334102</v>
       </c>
       <c r="E39" s="38"/>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="47" t="s">
         <v>1275</v>
       </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="P39" s="48">
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="P39" s="47">
         <v>1.321</v>
       </c>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
     </row>
     <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
@@ -65423,26 +65423,26 @@
         <v>0.122176361182272</v>
       </c>
       <c r="E40" s="38"/>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="P40" s="48">
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="P40" s="47">
         <v>0.28939999999999999</v>
       </c>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
@@ -65458,26 +65458,26 @@
         <v>0.42028649363182702</v>
       </c>
       <c r="E41" s="38"/>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="46" t="s">
         <v>1276</v>
       </c>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="P41" s="47">
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="P41" s="46">
         <v>4.1473000000000004</v>
       </c>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
@@ -65493,22 +65493,22 @@
         <v>0.87028922402771314</v>
       </c>
       <c r="E42" s="38"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
@@ -65524,26 +65524,26 @@
         <v>0.15733414690083408</v>
       </c>
       <c r="E43" s="38"/>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="46" t="s">
         <v>1277</v>
       </c>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="P43" s="47">
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="P43" s="46">
         <v>7.4531000000000001</v>
       </c>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="47"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
@@ -65559,22 +65559,22 @@
         <v>0.13375461675465711</v>
       </c>
       <c r="E44" s="38"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="47"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
@@ -65590,22 +65590,22 @@
         <v>5.143195891566945E-2</v>
       </c>
       <c r="E45" s="38"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
@@ -65621,22 +65621,22 @@
         <v>1.9081343682028368E-2</v>
       </c>
       <c r="E46" s="38"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="47"/>
-      <c r="S46" s="47"/>
-      <c r="T46" s="47"/>
-      <c r="U46" s="47"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="47"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
@@ -65652,22 +65652,22 @@
         <v>7.1199097420946822E-2</v>
       </c>
       <c r="E47" s="38"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="47"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
@@ -65683,22 +65683,22 @@
         <v>0.21504324800592992</v>
       </c>
       <c r="E48" s="38"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
@@ -65714,22 +65714,22 @@
         <v>0.22094165052979442</v>
       </c>
       <c r="E49" s="38"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
     </row>
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
@@ -65745,22 +65745,22 @@
         <v>0.10155844671417859</v>
       </c>
       <c r="E50" s="38"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
@@ -65776,22 +65776,22 @@
         <v>1.5259353782262298E-2</v>
       </c>
       <c r="E51" s="38"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
@@ -65807,22 +65807,22 @@
         <v>0.10783071525847965</v>
       </c>
       <c r="E52" s="38"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
@@ -65838,22 +65838,22 @@
         <v>0.14899429724477473</v>
       </c>
       <c r="E53" s="38"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
@@ -65869,22 +65869,22 @@
         <v>0.29488016900852471</v>
       </c>
       <c r="E54" s="38"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -65900,22 +65900,22 @@
         <v>2.6299055104995521E-2</v>
       </c>
       <c r="E55" s="38"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
@@ -65931,22 +65931,22 @@
         <v>7.0245938148524201E-2</v>
       </c>
       <c r="E56" s="38"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
@@ -65962,26 +65962,26 @@
         <v>4.7152136486603803E-2</v>
       </c>
       <c r="E57" s="38"/>
-      <c r="F57" s="47" t="s">
+      <c r="F57" s="46" t="s">
         <v>1278</v>
       </c>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="P57" s="47">
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="P57" s="46">
         <v>3.1848999999999998</v>
       </c>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="47"/>
-      <c r="V57" s="47"/>
-      <c r="W57" s="47"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
     </row>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -65997,22 +65997,22 @@
         <v>0.21606552629420589</v>
       </c>
       <c r="E58" s="38"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="47"/>
-      <c r="T58" s="47"/>
-      <c r="U58" s="47"/>
-      <c r="V58" s="47"/>
-      <c r="W58" s="47"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="46"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
@@ -66028,22 +66028,22 @@
         <v>7.8653036373222587E-2</v>
       </c>
       <c r="E59" s="38"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="47"/>
-      <c r="V59" s="47"/>
-      <c r="W59" s="47"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
@@ -66059,22 +66059,22 @@
         <v>5.2529025906290674E-2</v>
       </c>
       <c r="E60" s="38"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="47"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="47"/>
-      <c r="V60" s="47"/>
-      <c r="W60" s="47"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
@@ -66090,22 +66090,22 @@
         <v>0.10215205697500554</v>
       </c>
       <c r="E61" s="38"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="47"/>
-      <c r="U61" s="47"/>
-      <c r="V61" s="47"/>
-      <c r="W61" s="47"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
@@ -66121,22 +66121,22 @@
         <v>4.2623246160707756E-2</v>
       </c>
       <c r="E62" s="38"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="47"/>
-      <c r="R62" s="47"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="47"/>
-      <c r="U62" s="47"/>
-      <c r="V62" s="47"/>
-      <c r="W62" s="47"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="46"/>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
@@ -66152,22 +66152,22 @@
         <v>0.19294012068915498</v>
       </c>
       <c r="E63" s="38"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="47"/>
-      <c r="R63" s="47"/>
-      <c r="S63" s="47"/>
-      <c r="T63" s="47"/>
-      <c r="U63" s="47"/>
-      <c r="V63" s="47"/>
-      <c r="W63" s="47"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
@@ -66183,22 +66183,22 @@
         <v>3.6503479977400562E-2</v>
       </c>
       <c r="E64" s="38"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="47"/>
-      <c r="R64" s="47"/>
-      <c r="S64" s="47"/>
-      <c r="T64" s="47"/>
-      <c r="U64" s="47"/>
-      <c r="V64" s="47"/>
-      <c r="W64" s="47"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
     </row>
     <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
@@ -66214,22 +66214,22 @@
         <v>3.8240074556774896E-2</v>
       </c>
       <c r="E65" s="38"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="47"/>
-      <c r="R65" s="47"/>
-      <c r="S65" s="47"/>
-      <c r="T65" s="47"/>
-      <c r="U65" s="47"/>
-      <c r="V65" s="47"/>
-      <c r="W65" s="47"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
     </row>
     <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
@@ -66245,22 +66245,22 @@
         <v>3.7721140296722445E-2</v>
       </c>
       <c r="E66" s="38"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="47"/>
-      <c r="R66" s="47"/>
-      <c r="S66" s="47"/>
-      <c r="T66" s="47"/>
-      <c r="U66" s="47"/>
-      <c r="V66" s="47"/>
-      <c r="W66" s="47"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
     </row>
     <row r="67" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
@@ -66276,26 +66276,26 @@
         <v>4.6152726670960771E-2</v>
       </c>
       <c r="E67" s="38"/>
-      <c r="F67" s="47" t="s">
+      <c r="F67" s="46" t="s">
         <v>1279</v>
       </c>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="P67" s="47">
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="P67" s="46">
         <v>10.5219</v>
       </c>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="47"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="46"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
@@ -66311,22 +66311,22 @@
         <v>4.3695289995336013E-2</v>
       </c>
       <c r="E68" s="38"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="P68" s="47"/>
-      <c r="Q68" s="47"/>
-      <c r="R68" s="47"/>
-      <c r="S68" s="47"/>
-      <c r="T68" s="47"/>
-      <c r="U68" s="47"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="47"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
     </row>
     <row r="69" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
@@ -66342,22 +66342,22 @@
         <v>0.15454178586741243</v>
       </c>
       <c r="E69" s="38"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="P69" s="47"/>
-      <c r="Q69" s="47"/>
-      <c r="R69" s="47"/>
-      <c r="S69" s="47"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="47"/>
-      <c r="W69" s="47"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
     </row>
     <row r="70" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
@@ -66373,22 +66373,22 @@
         <v>1.1553619389116613E-2</v>
       </c>
       <c r="E70" s="38"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="P70" s="47"/>
-      <c r="Q70" s="47"/>
-      <c r="R70" s="47"/>
-      <c r="S70" s="47"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="47"/>
-      <c r="V70" s="47"/>
-      <c r="W70" s="47"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="P70" s="46"/>
+      <c r="Q70" s="46"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="46"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="46"/>
     </row>
     <row r="71" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
@@ -66404,22 +66404,22 @@
         <v>0.6744805952140317</v>
       </c>
       <c r="E71" s="38"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="47"/>
-      <c r="R71" s="47"/>
-      <c r="S71" s="47"/>
-      <c r="T71" s="47"/>
-      <c r="U71" s="47"/>
-      <c r="V71" s="47"/>
-      <c r="W71" s="47"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="P71" s="46"/>
+      <c r="Q71" s="46"/>
+      <c r="R71" s="46"/>
+      <c r="S71" s="46"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="46"/>
     </row>
     <row r="72" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
@@ -66435,22 +66435,22 @@
         <v>0.10314914269933199</v>
       </c>
       <c r="E72" s="38"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="P72" s="47"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="47"/>
-      <c r="S72" s="47"/>
-      <c r="T72" s="47"/>
-      <c r="U72" s="47"/>
-      <c r="V72" s="47"/>
-      <c r="W72" s="47"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="P72" s="46"/>
+      <c r="Q72" s="46"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="46"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="46"/>
     </row>
     <row r="73" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
@@ -66466,22 +66466,22 @@
         <v>6.6559211501978716E-2</v>
       </c>
       <c r="E73" s="38"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="47"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="47"/>
-      <c r="V73" s="47"/>
-      <c r="W73" s="47"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
+      <c r="R73" s="46"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="46"/>
     </row>
     <row r="74" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -66497,22 +66497,22 @@
         <v>6.1187333616305885E-2</v>
       </c>
       <c r="E74" s="38"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="P74" s="47"/>
-      <c r="Q74" s="47"/>
-      <c r="R74" s="47"/>
-      <c r="S74" s="47"/>
-      <c r="T74" s="47"/>
-      <c r="U74" s="47"/>
-      <c r="V74" s="47"/>
-      <c r="W74" s="47"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="46"/>
+      <c r="R74" s="46"/>
+      <c r="S74" s="46"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="46"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="46"/>
     </row>
     <row r="75" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
@@ -66528,22 +66528,22 @@
         <v>5.0919267929985731E-2</v>
       </c>
       <c r="E75" s="38"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="P75" s="47"/>
-      <c r="Q75" s="47"/>
-      <c r="R75" s="47"/>
-      <c r="S75" s="47"/>
-      <c r="T75" s="47"/>
-      <c r="U75" s="47"/>
-      <c r="V75" s="47"/>
-      <c r="W75" s="47"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="46"/>
+      <c r="S75" s="46"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="46"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="46"/>
     </row>
     <row r="76" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
@@ -66559,22 +66559,22 @@
         <v>4.0323110720502146E-2</v>
       </c>
       <c r="E76" s="38"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="P76" s="47"/>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="47"/>
-      <c r="S76" s="47"/>
-      <c r="T76" s="47"/>
-      <c r="U76" s="47"/>
-      <c r="V76" s="47"/>
-      <c r="W76" s="47"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="46"/>
+      <c r="R76" s="46"/>
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="46"/>
     </row>
     <row r="77" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
@@ -66590,22 +66590,22 @@
         <v>0.22630337014039187</v>
       </c>
       <c r="E77" s="38"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="P77" s="47"/>
-      <c r="Q77" s="47"/>
-      <c r="R77" s="47"/>
-      <c r="S77" s="47"/>
-      <c r="T77" s="47"/>
-      <c r="U77" s="47"/>
-      <c r="V77" s="47"/>
-      <c r="W77" s="47"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="P77" s="46"/>
+      <c r="Q77" s="46"/>
+      <c r="R77" s="46"/>
+      <c r="S77" s="46"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="46"/>
+      <c r="V77" s="46"/>
+      <c r="W77" s="46"/>
     </row>
     <row r="78" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -66621,22 +66621,22 @@
         <v>3.5787393006189182E-2</v>
       </c>
       <c r="E78" s="38"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="47"/>
-      <c r="S78" s="47"/>
-      <c r="T78" s="47"/>
-      <c r="U78" s="47"/>
-      <c r="V78" s="47"/>
-      <c r="W78" s="47"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="46"/>
+      <c r="R78" s="46"/>
+      <c r="S78" s="46"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="46"/>
+      <c r="V78" s="46"/>
+      <c r="W78" s="46"/>
     </row>
     <row r="79" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
@@ -66652,22 +66652,22 @@
         <v>1.3951241140556276E-2</v>
       </c>
       <c r="E79" s="38"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="47"/>
-      <c r="S79" s="47"/>
-      <c r="T79" s="47"/>
-      <c r="U79" s="47"/>
-      <c r="V79" s="47"/>
-      <c r="W79" s="47"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="P79" s="46"/>
+      <c r="Q79" s="46"/>
+      <c r="R79" s="46"/>
+      <c r="S79" s="46"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="46"/>
+      <c r="V79" s="46"/>
+      <c r="W79" s="46"/>
     </row>
     <row r="80" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
@@ -66683,22 +66683,22 @@
         <v>4.9916811431752826E-2</v>
       </c>
       <c r="E80" s="38"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="47"/>
-      <c r="S80" s="47"/>
-      <c r="T80" s="47"/>
-      <c r="U80" s="47"/>
-      <c r="V80" s="47"/>
-      <c r="W80" s="47"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="P80" s="46"/>
+      <c r="Q80" s="46"/>
+      <c r="R80" s="46"/>
+      <c r="S80" s="46"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="46"/>
+      <c r="V80" s="46"/>
+      <c r="W80" s="46"/>
     </row>
     <row r="81" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
@@ -66714,22 +66714,22 @@
         <v>6.6470637022567669E-2</v>
       </c>
       <c r="E81" s="38"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="47"/>
-      <c r="K81" s="47"/>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
-      <c r="P81" s="47"/>
-      <c r="Q81" s="47"/>
-      <c r="R81" s="47"/>
-      <c r="S81" s="47"/>
-      <c r="T81" s="47"/>
-      <c r="U81" s="47"/>
-      <c r="V81" s="47"/>
-      <c r="W81" s="47"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="P81" s="46"/>
+      <c r="Q81" s="46"/>
+      <c r="R81" s="46"/>
+      <c r="S81" s="46"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="46"/>
+      <c r="V81" s="46"/>
+      <c r="W81" s="46"/>
     </row>
     <row r="82" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
@@ -66745,22 +66745,22 @@
         <v>5.1211041356619573E-2</v>
       </c>
       <c r="E82" s="38"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="P82" s="47"/>
-      <c r="Q82" s="47"/>
-      <c r="R82" s="47"/>
-      <c r="S82" s="47"/>
-      <c r="T82" s="47"/>
-      <c r="U82" s="47"/>
-      <c r="V82" s="47"/>
-      <c r="W82" s="47"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="46"/>
+      <c r="R82" s="46"/>
+      <c r="S82" s="46"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="46"/>
+      <c r="V82" s="46"/>
+      <c r="W82" s="46"/>
     </row>
     <row r="83" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
@@ -66776,22 +66776,22 @@
         <v>7.8446268130319338E-3</v>
       </c>
       <c r="E83" s="38"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="47"/>
-      <c r="P83" s="47"/>
-      <c r="Q83" s="47"/>
-      <c r="R83" s="47"/>
-      <c r="S83" s="47"/>
-      <c r="T83" s="47"/>
-      <c r="U83" s="47"/>
-      <c r="V83" s="47"/>
-      <c r="W83" s="47"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="46"/>
+      <c r="R83" s="46"/>
+      <c r="S83" s="46"/>
+      <c r="T83" s="46"/>
+      <c r="U83" s="46"/>
+      <c r="V83" s="46"/>
+      <c r="W83" s="46"/>
     </row>
     <row r="84" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
@@ -66807,22 +66807,22 @@
         <v>0.14626090699206243</v>
       </c>
       <c r="E84" s="38"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47"/>
-      <c r="J84" s="47"/>
-      <c r="K84" s="47"/>
-      <c r="L84" s="47"/>
-      <c r="M84" s="47"/>
-      <c r="P84" s="47"/>
-      <c r="Q84" s="47"/>
-      <c r="R84" s="47"/>
-      <c r="S84" s="47"/>
-      <c r="T84" s="47"/>
-      <c r="U84" s="47"/>
-      <c r="V84" s="47"/>
-      <c r="W84" s="47"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46"/>
+      <c r="P84" s="46"/>
+      <c r="Q84" s="46"/>
+      <c r="R84" s="46"/>
+      <c r="S84" s="46"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="46"/>
+      <c r="V84" s="46"/>
+      <c r="W84" s="46"/>
     </row>
     <row r="85" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
@@ -66838,22 +66838,22 @@
         <v>3.5978248293497057E-2</v>
       </c>
       <c r="E85" s="38"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="47"/>
-      <c r="K85" s="47"/>
-      <c r="L85" s="47"/>
-      <c r="M85" s="47"/>
-      <c r="P85" s="47"/>
-      <c r="Q85" s="47"/>
-      <c r="R85" s="47"/>
-      <c r="S85" s="47"/>
-      <c r="T85" s="47"/>
-      <c r="U85" s="47"/>
-      <c r="V85" s="47"/>
-      <c r="W85" s="47"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="46"/>
+      <c r="P85" s="46"/>
+      <c r="Q85" s="46"/>
+      <c r="R85" s="46"/>
+      <c r="S85" s="46"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="46"/>
+      <c r="V85" s="46"/>
+      <c r="W85" s="46"/>
     </row>
     <row r="86" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
@@ -66869,22 +66869,22 @@
         <v>1.4543135522588336E-2</v>
       </c>
       <c r="E86" s="38"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="47"/>
-      <c r="L86" s="47"/>
-      <c r="M86" s="47"/>
-      <c r="P86" s="47"/>
-      <c r="Q86" s="47"/>
-      <c r="R86" s="47"/>
-      <c r="S86" s="47"/>
-      <c r="T86" s="47"/>
-      <c r="U86" s="47"/>
-      <c r="V86" s="47"/>
-      <c r="W86" s="47"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="P86" s="46"/>
+      <c r="Q86" s="46"/>
+      <c r="R86" s="46"/>
+      <c r="S86" s="46"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="46"/>
+      <c r="V86" s="46"/>
+      <c r="W86" s="46"/>
     </row>
     <row r="87" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
@@ -66900,22 +66900,22 @@
         <v>0.26864683271781198</v>
       </c>
       <c r="E87" s="38"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="47"/>
-      <c r="K87" s="47"/>
-      <c r="L87" s="47"/>
-      <c r="M87" s="47"/>
-      <c r="P87" s="47"/>
-      <c r="Q87" s="47"/>
-      <c r="R87" s="47"/>
-      <c r="S87" s="47"/>
-      <c r="T87" s="47"/>
-      <c r="U87" s="47"/>
-      <c r="V87" s="47"/>
-      <c r="W87" s="47"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="P87" s="46"/>
+      <c r="Q87" s="46"/>
+      <c r="R87" s="46"/>
+      <c r="S87" s="46"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="46"/>
+      <c r="V87" s="46"/>
+      <c r="W87" s="46"/>
     </row>
     <row r="88" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
@@ -66931,22 +66931,22 @@
         <v>5.115475150721821E-2</v>
       </c>
       <c r="E88" s="38"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="47"/>
-      <c r="L88" s="47"/>
-      <c r="M88" s="47"/>
-      <c r="P88" s="47"/>
-      <c r="Q88" s="47"/>
-      <c r="R88" s="47"/>
-      <c r="S88" s="47"/>
-      <c r="T88" s="47"/>
-      <c r="U88" s="47"/>
-      <c r="V88" s="47"/>
-      <c r="W88" s="47"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="P88" s="46"/>
+      <c r="Q88" s="46"/>
+      <c r="R88" s="46"/>
+      <c r="S88" s="46"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="46"/>
+      <c r="V88" s="46"/>
+      <c r="W88" s="46"/>
     </row>
     <row r="89" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
@@ -66962,22 +66962,22 @@
         <v>1.4608931895090688E-2</v>
       </c>
       <c r="E89" s="38"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="47"/>
-      <c r="K89" s="47"/>
-      <c r="L89" s="47"/>
-      <c r="M89" s="47"/>
-      <c r="P89" s="47"/>
-      <c r="Q89" s="47"/>
-      <c r="R89" s="47"/>
-      <c r="S89" s="47"/>
-      <c r="T89" s="47"/>
-      <c r="U89" s="47"/>
-      <c r="V89" s="47"/>
-      <c r="W89" s="47"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
+      <c r="P89" s="46"/>
+      <c r="Q89" s="46"/>
+      <c r="R89" s="46"/>
+      <c r="S89" s="46"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="46"/>
+      <c r="V89" s="46"/>
+      <c r="W89" s="46"/>
     </row>
     <row r="90" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
@@ -66993,20 +66993,20 @@
         <v>0.29882941628910398</v>
       </c>
       <c r="E90" s="38"/>
-      <c r="F90" s="47" t="s">
+      <c r="F90" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="G90" s="47"/>
+      <c r="G90" s="46"/>
       <c r="H90" s="40"/>
       <c r="I90" s="42"/>
       <c r="J90" s="42"/>
       <c r="K90" s="42"/>
       <c r="L90" s="42"/>
       <c r="M90" s="42"/>
-      <c r="P90" s="47">
+      <c r="P90" s="46">
         <v>1.0684</v>
       </c>
-      <c r="Q90" s="47"/>
+      <c r="Q90" s="46"/>
       <c r="R90" s="40"/>
       <c r="S90" s="42"/>
       <c r="T90" s="42"/>
@@ -67028,21 +67028,21 @@
         <v>0.10183349501890718</v>
       </c>
       <c r="E91" s="38"/>
-      <c r="F91" s="47" t="s">
+      <c r="F91" s="46" t="s">
         <v>1280</v>
       </c>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
       <c r="I91" s="42"/>
       <c r="J91" s="42"/>
       <c r="K91" s="42"/>
       <c r="L91" s="42"/>
       <c r="M91" s="42"/>
-      <c r="P91" s="47">
+      <c r="P91" s="46">
         <v>1.1157999999999999</v>
       </c>
-      <c r="Q91" s="47"/>
-      <c r="R91" s="47"/>
+      <c r="Q91" s="46"/>
+      <c r="R91" s="46"/>
       <c r="S91" s="42"/>
       <c r="T91" s="42"/>
       <c r="U91" s="42"/>
@@ -67063,17 +67063,17 @@
         <v>6.4493692883765219E-2</v>
       </c>
       <c r="E92" s="38"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
       <c r="I92" s="42"/>
       <c r="J92" s="42"/>
       <c r="K92" s="42"/>
       <c r="L92" s="42"/>
       <c r="M92" s="42"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="46"/>
+      <c r="R92" s="46"/>
       <c r="S92" s="42"/>
       <c r="T92" s="42"/>
       <c r="U92" s="42"/>
@@ -67094,17 +67094,17 @@
         <v>0.1195377974966166</v>
       </c>
       <c r="E93" s="38"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
       <c r="I93" s="42"/>
       <c r="J93" s="42"/>
       <c r="K93" s="42"/>
       <c r="L93" s="42"/>
       <c r="M93" s="42"/>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="47"/>
+      <c r="P93" s="46"/>
+      <c r="Q93" s="46"/>
+      <c r="R93" s="46"/>
       <c r="S93" s="42"/>
       <c r="T93" s="42"/>
       <c r="U93" s="42"/>
@@ -67125,26 +67125,26 @@
         <v>2.3876650424165674E-2</v>
       </c>
       <c r="E94" s="38"/>
-      <c r="F94" s="47" t="s">
+      <c r="F94" s="46" t="s">
         <v>1281</v>
       </c>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="47"/>
-      <c r="L94" s="47"/>
-      <c r="M94" s="47"/>
-      <c r="P94" s="47">
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="46"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="46"/>
+      <c r="P94" s="46">
         <v>3.5074000000000001</v>
       </c>
-      <c r="Q94" s="47"/>
-      <c r="R94" s="47"/>
-      <c r="S94" s="47"/>
-      <c r="T94" s="47"/>
-      <c r="U94" s="47"/>
-      <c r="V94" s="47"/>
-      <c r="W94" s="47"/>
+      <c r="Q94" s="46"/>
+      <c r="R94" s="46"/>
+      <c r="S94" s="46"/>
+      <c r="T94" s="46"/>
+      <c r="U94" s="46"/>
+      <c r="V94" s="46"/>
+      <c r="W94" s="46"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
@@ -67160,22 +67160,22 @@
         <v>2.7991909279186846E-2</v>
       </c>
       <c r="E95" s="38"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47"/>
-      <c r="L95" s="47"/>
-      <c r="M95" s="47"/>
-      <c r="P95" s="47"/>
-      <c r="Q95" s="47"/>
-      <c r="R95" s="47"/>
-      <c r="S95" s="47"/>
-      <c r="T95" s="47"/>
-      <c r="U95" s="47"/>
-      <c r="V95" s="47"/>
-      <c r="W95" s="47"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="46"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="46"/>
+      <c r="R95" s="46"/>
+      <c r="S95" s="46"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="46"/>
+      <c r="V95" s="46"/>
+      <c r="W95" s="46"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
@@ -67191,22 +67191,22 @@
         <v>0.16376391234594154</v>
       </c>
       <c r="E96" s="38"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="47"/>
-      <c r="P96" s="47"/>
-      <c r="Q96" s="47"/>
-      <c r="R96" s="47"/>
-      <c r="S96" s="47"/>
-      <c r="T96" s="47"/>
-      <c r="U96" s="47"/>
-      <c r="V96" s="47"/>
-      <c r="W96" s="47"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="P96" s="46"/>
+      <c r="Q96" s="46"/>
+      <c r="R96" s="46"/>
+      <c r="S96" s="46"/>
+      <c r="T96" s="46"/>
+      <c r="U96" s="46"/>
+      <c r="V96" s="46"/>
+      <c r="W96" s="46"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -67222,22 +67222,22 @@
         <v>0.37451123094895444</v>
       </c>
       <c r="E97" s="38"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="47"/>
-      <c r="K97" s="47"/>
-      <c r="L97" s="47"/>
-      <c r="M97" s="47"/>
-      <c r="P97" s="47"/>
-      <c r="Q97" s="47"/>
-      <c r="R97" s="47"/>
-      <c r="S97" s="47"/>
-      <c r="T97" s="47"/>
-      <c r="U97" s="47"/>
-      <c r="V97" s="47"/>
-      <c r="W97" s="47"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="46"/>
+      <c r="P97" s="46"/>
+      <c r="Q97" s="46"/>
+      <c r="R97" s="46"/>
+      <c r="S97" s="46"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="46"/>
+      <c r="V97" s="46"/>
+      <c r="W97" s="46"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
@@ -67253,22 +67253,22 @@
         <v>0.13071368593465346</v>
       </c>
       <c r="E98" s="38"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-      <c r="L98" s="47"/>
-      <c r="M98" s="47"/>
-      <c r="P98" s="47"/>
-      <c r="Q98" s="47"/>
-      <c r="R98" s="47"/>
-      <c r="S98" s="47"/>
-      <c r="T98" s="47"/>
-      <c r="U98" s="47"/>
-      <c r="V98" s="47"/>
-      <c r="W98" s="47"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="P98" s="46"/>
+      <c r="Q98" s="46"/>
+      <c r="R98" s="46"/>
+      <c r="S98" s="46"/>
+      <c r="T98" s="46"/>
+      <c r="U98" s="46"/>
+      <c r="V98" s="46"/>
+      <c r="W98" s="46"/>
     </row>
     <row r="99" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
@@ -67284,20 +67284,20 @@
         <v>0.32571727764637787</v>
       </c>
       <c r="E99" s="38"/>
-      <c r="F99" s="47" t="s">
+      <c r="F99" s="46" t="s">
         <v>1282</v>
       </c>
-      <c r="G99" s="47"/>
+      <c r="G99" s="46"/>
       <c r="H99" s="41"/>
       <c r="I99" s="42"/>
       <c r="J99" s="42"/>
       <c r="K99" s="42"/>
       <c r="L99" s="42"/>
       <c r="M99" s="42"/>
-      <c r="P99" s="47">
+      <c r="P99" s="46">
         <v>1.5087999999999999</v>
       </c>
-      <c r="Q99" s="47"/>
+      <c r="Q99" s="46"/>
       <c r="R99" s="41"/>
       <c r="S99" s="42"/>
       <c r="T99" s="42"/>
@@ -67319,16 +67319,16 @@
         <v>5.0688635653399122E-2</v>
       </c>
       <c r="E100" s="38"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
       <c r="H100" s="41"/>
       <c r="I100" s="42"/>
       <c r="J100" s="42"/>
       <c r="K100" s="42"/>
       <c r="L100" s="42"/>
       <c r="M100" s="42"/>
-      <c r="P100" s="47"/>
-      <c r="Q100" s="47"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="46"/>
       <c r="R100" s="41"/>
       <c r="S100" s="42"/>
       <c r="T100" s="42"/>
@@ -67350,22 +67350,22 @@
         <v>3.5309508379900933E-2</v>
       </c>
       <c r="E101" s="38"/>
-      <c r="F101" s="47" t="s">
+      <c r="F101" s="46" t="s">
         <v>1283</v>
       </c>
-      <c r="G101" s="47"/>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
       <c r="J101" s="42"/>
       <c r="K101" s="42"/>
       <c r="L101" s="42"/>
       <c r="M101" s="42"/>
-      <c r="P101" s="47">
+      <c r="P101" s="46">
         <v>1.0296000000000001</v>
       </c>
-      <c r="Q101" s="47"/>
-      <c r="R101" s="47"/>
-      <c r="S101" s="47"/>
+      <c r="Q101" s="46"/>
+      <c r="R101" s="46"/>
+      <c r="S101" s="46"/>
       <c r="T101" s="42"/>
       <c r="U101" s="42"/>
       <c r="V101" s="42"/>
@@ -67385,18 +67385,18 @@
         <v>0.15199985493668697</v>
       </c>
       <c r="E102" s="38"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
       <c r="J102" s="42"/>
       <c r="K102" s="42"/>
       <c r="L102" s="42"/>
       <c r="M102" s="42"/>
-      <c r="P102" s="47"/>
-      <c r="Q102" s="47"/>
-      <c r="R102" s="47"/>
-      <c r="S102" s="47"/>
+      <c r="P102" s="46"/>
+      <c r="Q102" s="46"/>
+      <c r="R102" s="46"/>
+      <c r="S102" s="46"/>
       <c r="T102" s="42"/>
       <c r="U102" s="42"/>
       <c r="V102" s="42"/>
@@ -67416,18 +67416,18 @@
         <v>5.3138206099268351E-2</v>
       </c>
       <c r="E103" s="38"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
       <c r="J103" s="42"/>
       <c r="K103" s="42"/>
       <c r="L103" s="42"/>
       <c r="M103" s="42"/>
-      <c r="P103" s="47"/>
-      <c r="Q103" s="47"/>
-      <c r="R103" s="47"/>
-      <c r="S103" s="47"/>
+      <c r="P103" s="46"/>
+      <c r="Q103" s="46"/>
+      <c r="R103" s="46"/>
+      <c r="S103" s="46"/>
       <c r="T103" s="42"/>
       <c r="U103" s="42"/>
       <c r="V103" s="42"/>
@@ -67447,18 +67447,18 @@
         <v>5.8153054743786368E-2</v>
       </c>
       <c r="E104" s="38"/>
-      <c r="F104" s="47"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
       <c r="J104" s="42"/>
       <c r="K104" s="42"/>
       <c r="L104" s="42"/>
       <c r="M104" s="42"/>
-      <c r="P104" s="47"/>
-      <c r="Q104" s="47"/>
-      <c r="R104" s="47"/>
-      <c r="S104" s="47"/>
+      <c r="P104" s="46"/>
+      <c r="Q104" s="46"/>
+      <c r="R104" s="46"/>
+      <c r="S104" s="46"/>
       <c r="T104" s="42"/>
       <c r="U104" s="42"/>
       <c r="V104" s="42"/>
@@ -67478,18 +67478,18 @@
         <v>1.4967560654789373E-2</v>
       </c>
       <c r="E105" s="38"/>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="47"/>
-      <c r="I105" s="47"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
       <c r="J105" s="42"/>
       <c r="K105" s="42"/>
       <c r="L105" s="42"/>
       <c r="M105" s="42"/>
-      <c r="P105" s="47"/>
-      <c r="Q105" s="47"/>
-      <c r="R105" s="47"/>
-      <c r="S105" s="47"/>
+      <c r="P105" s="46"/>
+      <c r="Q105" s="46"/>
+      <c r="R105" s="46"/>
+      <c r="S105" s="46"/>
       <c r="T105" s="42"/>
       <c r="U105" s="42"/>
       <c r="V105" s="42"/>
@@ -67509,22 +67509,22 @@
         <v>0.19112767550668186</v>
       </c>
       <c r="E106" s="38"/>
-      <c r="F106" s="47" t="s">
+      <c r="F106" s="46" t="s">
         <v>1284</v>
       </c>
-      <c r="G106" s="47"/>
-      <c r="H106" s="47"/>
-      <c r="I106" s="47"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
       <c r="J106" s="42"/>
       <c r="K106" s="42"/>
       <c r="L106" s="42"/>
       <c r="M106" s="42"/>
-      <c r="P106" s="47">
+      <c r="P106" s="46">
         <v>2.4769999999999999</v>
       </c>
-      <c r="Q106" s="47"/>
-      <c r="R106" s="47"/>
-      <c r="S106" s="47"/>
+      <c r="Q106" s="46"/>
+      <c r="R106" s="46"/>
+      <c r="S106" s="46"/>
       <c r="T106" s="42"/>
       <c r="U106" s="42"/>
       <c r="V106" s="42"/>
@@ -67544,18 +67544,18 @@
         <v>0.11505797602109169</v>
       </c>
       <c r="E107" s="38"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
       <c r="J107" s="42"/>
       <c r="K107" s="42"/>
       <c r="L107" s="42"/>
       <c r="M107" s="42"/>
-      <c r="P107" s="47"/>
-      <c r="Q107" s="47"/>
-      <c r="R107" s="47"/>
-      <c r="S107" s="47"/>
+      <c r="P107" s="46"/>
+      <c r="Q107" s="46"/>
+      <c r="R107" s="46"/>
+      <c r="S107" s="46"/>
       <c r="T107" s="42"/>
       <c r="U107" s="42"/>
       <c r="V107" s="42"/>
@@ -67575,18 +67575,18 @@
         <v>4.8315832308380671E-2</v>
       </c>
       <c r="E108" s="38"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
-      <c r="I108" s="47"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
       <c r="J108" s="42"/>
       <c r="K108" s="42"/>
       <c r="L108" s="42"/>
       <c r="M108" s="42"/>
-      <c r="P108" s="47"/>
-      <c r="Q108" s="47"/>
-      <c r="R108" s="47"/>
-      <c r="S108" s="47"/>
+      <c r="P108" s="46"/>
+      <c r="Q108" s="46"/>
+      <c r="R108" s="46"/>
+      <c r="S108" s="46"/>
       <c r="T108" s="42"/>
       <c r="U108" s="42"/>
       <c r="V108" s="42"/>
@@ -67606,18 +67606,18 @@
         <v>2.8871395892988521E-2</v>
       </c>
       <c r="E109" s="38"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
       <c r="J109" s="42"/>
       <c r="K109" s="42"/>
       <c r="L109" s="42"/>
       <c r="M109" s="42"/>
-      <c r="P109" s="47"/>
-      <c r="Q109" s="47"/>
-      <c r="R109" s="47"/>
-      <c r="S109" s="47"/>
+      <c r="P109" s="46"/>
+      <c r="Q109" s="46"/>
+      <c r="R109" s="46"/>
+      <c r="S109" s="46"/>
       <c r="T109" s="42"/>
       <c r="U109" s="42"/>
       <c r="V109" s="42"/>
@@ -67637,18 +67637,18 @@
         <v>0.11107443259072623</v>
       </c>
       <c r="E110" s="38"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="47"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
       <c r="J110" s="42"/>
       <c r="K110" s="42"/>
       <c r="L110" s="42"/>
       <c r="M110" s="42"/>
-      <c r="P110" s="47"/>
-      <c r="Q110" s="47"/>
-      <c r="R110" s="47"/>
-      <c r="S110" s="47"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="46"/>
+      <c r="R110" s="46"/>
+      <c r="S110" s="46"/>
       <c r="T110" s="42"/>
       <c r="U110" s="42"/>
       <c r="V110" s="42"/>
@@ -67668,20 +67668,20 @@
         <v>0.156520180875696</v>
       </c>
       <c r="E111" s="38"/>
-      <c r="F111" s="47" t="s">
+      <c r="F111" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="G111" s="47"/>
+      <c r="G111" s="46"/>
       <c r="H111" s="41"/>
       <c r="I111" s="42"/>
       <c r="J111" s="42"/>
       <c r="K111" s="42"/>
       <c r="L111" s="42"/>
       <c r="M111" s="42"/>
-      <c r="P111" s="47">
+      <c r="P111" s="46">
         <v>0.47099999999999997</v>
       </c>
-      <c r="Q111" s="47"/>
+      <c r="Q111" s="46"/>
       <c r="R111" s="41"/>
       <c r="S111" s="42"/>
       <c r="T111" s="42"/>
@@ -67703,26 +67703,26 @@
         <v>0.11515666384020352</v>
       </c>
       <c r="E112" s="38"/>
-      <c r="F112" s="47" t="s">
+      <c r="F112" s="46" t="s">
         <v>1285</v>
       </c>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="47"/>
-      <c r="J112" s="47"/>
-      <c r="K112" s="47"/>
-      <c r="L112" s="47"/>
-      <c r="M112" s="47"/>
-      <c r="P112" s="47">
+      <c r="G112" s="46"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="46"/>
+      <c r="J112" s="46"/>
+      <c r="K112" s="46"/>
+      <c r="L112" s="46"/>
+      <c r="M112" s="46"/>
+      <c r="P112" s="46">
         <v>1.4801</v>
       </c>
-      <c r="Q112" s="47"/>
-      <c r="R112" s="47"/>
-      <c r="S112" s="47"/>
-      <c r="T112" s="47"/>
-      <c r="U112" s="47"/>
-      <c r="V112" s="47"/>
-      <c r="W112" s="47"/>
+      <c r="Q112" s="46"/>
+      <c r="R112" s="46"/>
+      <c r="S112" s="46"/>
+      <c r="T112" s="46"/>
+      <c r="U112" s="46"/>
+      <c r="V112" s="46"/>
+      <c r="W112" s="46"/>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="16" t="s">
@@ -67738,22 +67738,22 @@
         <v>3.2007554558297707E-2</v>
       </c>
       <c r="E113" s="38"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="47"/>
-      <c r="I113" s="47"/>
-      <c r="J113" s="47"/>
-      <c r="K113" s="47"/>
-      <c r="L113" s="47"/>
-      <c r="M113" s="47"/>
-      <c r="P113" s="47"/>
-      <c r="Q113" s="47"/>
-      <c r="R113" s="47"/>
-      <c r="S113" s="47"/>
-      <c r="T113" s="47"/>
-      <c r="U113" s="47"/>
-      <c r="V113" s="47"/>
-      <c r="W113" s="47"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="46"/>
+      <c r="L113" s="46"/>
+      <c r="M113" s="46"/>
+      <c r="P113" s="46"/>
+      <c r="Q113" s="46"/>
+      <c r="R113" s="46"/>
+      <c r="S113" s="46"/>
+      <c r="T113" s="46"/>
+      <c r="U113" s="46"/>
+      <c r="V113" s="46"/>
+      <c r="W113" s="46"/>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
@@ -67769,22 +67769,22 @@
         <v>1.8160353749677748E-2</v>
       </c>
       <c r="E114" s="38"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="47"/>
-      <c r="I114" s="47"/>
-      <c r="J114" s="47"/>
-      <c r="K114" s="47"/>
-      <c r="L114" s="47"/>
-      <c r="M114" s="47"/>
-      <c r="P114" s="47"/>
-      <c r="Q114" s="47"/>
-      <c r="R114" s="47"/>
-      <c r="S114" s="47"/>
-      <c r="T114" s="47"/>
-      <c r="U114" s="47"/>
-      <c r="V114" s="47"/>
-      <c r="W114" s="47"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="46"/>
+      <c r="J114" s="46"/>
+      <c r="K114" s="46"/>
+      <c r="L114" s="46"/>
+      <c r="M114" s="46"/>
+      <c r="P114" s="46"/>
+      <c r="Q114" s="46"/>
+      <c r="R114" s="46"/>
+      <c r="S114" s="46"/>
+      <c r="T114" s="46"/>
+      <c r="U114" s="46"/>
+      <c r="V114" s="46"/>
+      <c r="W114" s="46"/>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
@@ -67800,22 +67800,22 @@
         <v>2.4567310082680788E-2</v>
       </c>
       <c r="E115" s="38"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="47"/>
-      <c r="I115" s="47"/>
-      <c r="J115" s="47"/>
-      <c r="K115" s="47"/>
-      <c r="L115" s="47"/>
-      <c r="M115" s="47"/>
-      <c r="P115" s="47"/>
-      <c r="Q115" s="47"/>
-      <c r="R115" s="47"/>
-      <c r="S115" s="47"/>
-      <c r="T115" s="47"/>
-      <c r="U115" s="47"/>
-      <c r="V115" s="47"/>
-      <c r="W115" s="47"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="46"/>
+      <c r="J115" s="46"/>
+      <c r="K115" s="46"/>
+      <c r="L115" s="46"/>
+      <c r="M115" s="46"/>
+      <c r="P115" s="46"/>
+      <c r="Q115" s="46"/>
+      <c r="R115" s="46"/>
+      <c r="S115" s="46"/>
+      <c r="T115" s="46"/>
+      <c r="U115" s="46"/>
+      <c r="V115" s="46"/>
+      <c r="W115" s="46"/>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="16" t="s">
@@ -67831,22 +67831,22 @@
         <v>2.1828236695049533E-2</v>
       </c>
       <c r="E116" s="38"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="47"/>
-      <c r="I116" s="47"/>
-      <c r="J116" s="47"/>
-      <c r="K116" s="47"/>
-      <c r="L116" s="47"/>
-      <c r="M116" s="47"/>
-      <c r="P116" s="47"/>
-      <c r="Q116" s="47"/>
-      <c r="R116" s="47"/>
-      <c r="S116" s="47"/>
-      <c r="T116" s="47"/>
-      <c r="U116" s="47"/>
-      <c r="V116" s="47"/>
-      <c r="W116" s="47"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="46"/>
+      <c r="J116" s="46"/>
+      <c r="K116" s="46"/>
+      <c r="L116" s="46"/>
+      <c r="M116" s="46"/>
+      <c r="P116" s="46"/>
+      <c r="Q116" s="46"/>
+      <c r="R116" s="46"/>
+      <c r="S116" s="46"/>
+      <c r="T116" s="46"/>
+      <c r="U116" s="46"/>
+      <c r="V116" s="46"/>
+      <c r="W116" s="46"/>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -67862,22 +67862,22 @@
         <v>1.6243137558585665E-2</v>
       </c>
       <c r="E117" s="38"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47"/>
-      <c r="J117" s="47"/>
-      <c r="K117" s="47"/>
-      <c r="L117" s="47"/>
-      <c r="M117" s="47"/>
-      <c r="P117" s="47"/>
-      <c r="Q117" s="47"/>
-      <c r="R117" s="47"/>
-      <c r="S117" s="47"/>
-      <c r="T117" s="47"/>
-      <c r="U117" s="47"/>
-      <c r="V117" s="47"/>
-      <c r="W117" s="47"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="46"/>
+      <c r="J117" s="46"/>
+      <c r="K117" s="46"/>
+      <c r="L117" s="46"/>
+      <c r="M117" s="46"/>
+      <c r="P117" s="46"/>
+      <c r="Q117" s="46"/>
+      <c r="R117" s="46"/>
+      <c r="S117" s="46"/>
+      <c r="T117" s="46"/>
+      <c r="U117" s="46"/>
+      <c r="V117" s="46"/>
+      <c r="W117" s="46"/>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
@@ -67893,22 +67893,22 @@
         <v>4.1306943007144395E-2</v>
       </c>
       <c r="E118" s="38"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="47"/>
-      <c r="I118" s="47"/>
-      <c r="J118" s="47"/>
-      <c r="K118" s="47"/>
-      <c r="L118" s="47"/>
-      <c r="M118" s="47"/>
-      <c r="P118" s="47"/>
-      <c r="Q118" s="47"/>
-      <c r="R118" s="47"/>
-      <c r="S118" s="47"/>
-      <c r="T118" s="47"/>
-      <c r="U118" s="47"/>
-      <c r="V118" s="47"/>
-      <c r="W118" s="47"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="46"/>
+      <c r="I118" s="46"/>
+      <c r="J118" s="46"/>
+      <c r="K118" s="46"/>
+      <c r="L118" s="46"/>
+      <c r="M118" s="46"/>
+      <c r="P118" s="46"/>
+      <c r="Q118" s="46"/>
+      <c r="R118" s="46"/>
+      <c r="S118" s="46"/>
+      <c r="T118" s="46"/>
+      <c r="U118" s="46"/>
+      <c r="V118" s="46"/>
+      <c r="W118" s="46"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
@@ -67924,22 +67924,22 @@
         <v>3.0402175770454318E-2</v>
       </c>
       <c r="E119" s="38"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="47"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="47"/>
-      <c r="K119" s="47"/>
-      <c r="L119" s="47"/>
-      <c r="M119" s="47"/>
-      <c r="P119" s="47"/>
-      <c r="Q119" s="47"/>
-      <c r="R119" s="47"/>
-      <c r="S119" s="47"/>
-      <c r="T119" s="47"/>
-      <c r="U119" s="47"/>
-      <c r="V119" s="47"/>
-      <c r="W119" s="47"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="46"/>
+      <c r="I119" s="46"/>
+      <c r="J119" s="46"/>
+      <c r="K119" s="46"/>
+      <c r="L119" s="46"/>
+      <c r="M119" s="46"/>
+      <c r="P119" s="46"/>
+      <c r="Q119" s="46"/>
+      <c r="R119" s="46"/>
+      <c r="S119" s="46"/>
+      <c r="T119" s="46"/>
+      <c r="U119" s="46"/>
+      <c r="V119" s="46"/>
+      <c r="W119" s="46"/>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
@@ -67955,22 +67955,22 @@
         <v>1.9499633186996372E-2</v>
       </c>
       <c r="E120" s="38"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="47"/>
-      <c r="H120" s="47"/>
-      <c r="I120" s="47"/>
-      <c r="J120" s="47"/>
-      <c r="K120" s="47"/>
-      <c r="L120" s="47"/>
-      <c r="M120" s="47"/>
-      <c r="P120" s="47"/>
-      <c r="Q120" s="47"/>
-      <c r="R120" s="47"/>
-      <c r="S120" s="47"/>
-      <c r="T120" s="47"/>
-      <c r="U120" s="47"/>
-      <c r="V120" s="47"/>
-      <c r="W120" s="47"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="46"/>
+      <c r="J120" s="46"/>
+      <c r="K120" s="46"/>
+      <c r="L120" s="46"/>
+      <c r="M120" s="46"/>
+      <c r="P120" s="46"/>
+      <c r="Q120" s="46"/>
+      <c r="R120" s="46"/>
+      <c r="S120" s="46"/>
+      <c r="T120" s="46"/>
+      <c r="U120" s="46"/>
+      <c r="V120" s="46"/>
+      <c r="W120" s="46"/>
     </row>
     <row r="121" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
@@ -67986,20 +67986,20 @@
         <v>0.11688084490433973</v>
       </c>
       <c r="E121" s="38"/>
-      <c r="F121" s="47" t="s">
+      <c r="F121" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="G121" s="47"/>
+      <c r="G121" s="46"/>
       <c r="H121" s="41"/>
       <c r="I121" s="42"/>
       <c r="J121" s="42"/>
       <c r="K121" s="42"/>
       <c r="L121" s="42"/>
       <c r="M121" s="42"/>
-      <c r="P121" s="47">
+      <c r="P121" s="46">
         <v>0.68469999999999998</v>
       </c>
-      <c r="Q121" s="47"/>
+      <c r="Q121" s="46"/>
       <c r="R121" s="41"/>
       <c r="S121" s="42"/>
       <c r="T121" s="42"/>
@@ -68021,16 +68021,16 @@
         <v>7.8787256388932261E-2</v>
       </c>
       <c r="E122" s="38"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="47"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
       <c r="H122" s="41"/>
       <c r="I122" s="42"/>
       <c r="J122" s="42"/>
       <c r="K122" s="42"/>
       <c r="L122" s="42"/>
       <c r="M122" s="42"/>
-      <c r="P122" s="47"/>
-      <c r="Q122" s="47"/>
+      <c r="P122" s="46"/>
+      <c r="Q122" s="46"/>
       <c r="R122" s="41"/>
       <c r="S122" s="42"/>
       <c r="T122" s="42"/>
@@ -68052,21 +68052,21 @@
         <v>0.54639777179267501</v>
       </c>
       <c r="E123" s="38"/>
-      <c r="F123" s="47" t="s">
+      <c r="F123" s="46" t="s">
         <v>1286</v>
       </c>
-      <c r="G123" s="47"/>
-      <c r="H123" s="47"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="46"/>
       <c r="I123" s="42"/>
       <c r="J123" s="42"/>
       <c r="K123" s="42"/>
       <c r="L123" s="42"/>
       <c r="M123" s="42"/>
-      <c r="P123" s="47">
+      <c r="P123" s="46">
         <v>2.5407000000000002</v>
       </c>
-      <c r="Q123" s="47"/>
-      <c r="R123" s="47"/>
+      <c r="Q123" s="46"/>
+      <c r="R123" s="46"/>
       <c r="S123" s="42"/>
       <c r="T123" s="42"/>
       <c r="U123" s="42"/>
@@ -68087,17 +68087,17 @@
         <v>9.0714901749510326E-3</v>
       </c>
       <c r="E124" s="38"/>
-      <c r="F124" s="47"/>
-      <c r="G124" s="47"/>
-      <c r="H124" s="47"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="46"/>
       <c r="I124" s="42"/>
       <c r="J124" s="42"/>
       <c r="K124" s="42"/>
       <c r="L124" s="42"/>
       <c r="M124" s="42"/>
-      <c r="P124" s="47"/>
-      <c r="Q124" s="47"/>
-      <c r="R124" s="47"/>
+      <c r="P124" s="46"/>
+      <c r="Q124" s="46"/>
+      <c r="R124" s="46"/>
       <c r="S124" s="42"/>
       <c r="T124" s="42"/>
       <c r="U124" s="42"/>
@@ -68118,21 +68118,21 @@
         <v>4.5034251614930309E-3</v>
       </c>
       <c r="E125" s="38"/>
-      <c r="F125" s="47" t="s">
+      <c r="F125" s="46" t="s">
         <v>1287</v>
       </c>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
       <c r="I125" s="42"/>
       <c r="J125" s="42"/>
       <c r="K125" s="42"/>
       <c r="L125" s="42"/>
       <c r="M125" s="42"/>
-      <c r="P125" s="47">
+      <c r="P125" s="46">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="Q125" s="47"/>
-      <c r="R125" s="47"/>
+      <c r="Q125" s="46"/>
+      <c r="R125" s="46"/>
       <c r="S125" s="42"/>
       <c r="T125" s="42"/>
       <c r="U125" s="42"/>
@@ -68153,17 +68153,17 @@
         <v>1.3118695924583489E-3</v>
       </c>
       <c r="E126" s="38"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="47"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="46"/>
       <c r="I126" s="42"/>
       <c r="J126" s="42"/>
       <c r="K126" s="42"/>
       <c r="L126" s="42"/>
       <c r="M126" s="42"/>
-      <c r="P126" s="47"/>
-      <c r="Q126" s="47"/>
-      <c r="R126" s="47"/>
+      <c r="P126" s="46"/>
+      <c r="Q126" s="46"/>
+      <c r="R126" s="46"/>
       <c r="S126" s="42"/>
       <c r="T126" s="42"/>
       <c r="U126" s="42"/>
@@ -68184,21 +68184,21 @@
         <v>0.30050749676600241</v>
       </c>
       <c r="E127" s="38"/>
-      <c r="F127" s="47" t="s">
+      <c r="F127" s="46" t="s">
         <v>1288</v>
       </c>
-      <c r="G127" s="47"/>
-      <c r="H127" s="47"/>
+      <c r="G127" s="46"/>
+      <c r="H127" s="46"/>
       <c r="I127" s="42"/>
       <c r="J127" s="42"/>
       <c r="K127" s="42"/>
       <c r="L127" s="42"/>
       <c r="M127" s="42"/>
-      <c r="P127" s="47">
+      <c r="P127" s="46">
         <v>1.4917</v>
       </c>
-      <c r="Q127" s="47"/>
-      <c r="R127" s="47"/>
+      <c r="Q127" s="46"/>
+      <c r="R127" s="46"/>
       <c r="S127" s="42"/>
       <c r="T127" s="42"/>
       <c r="U127" s="42"/>
@@ -68219,17 +68219,17 @@
         <v>7.203340903643056E-2</v>
       </c>
       <c r="E128" s="38"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="46"/>
       <c r="I128" s="42"/>
       <c r="J128" s="42"/>
       <c r="K128" s="42"/>
       <c r="L128" s="42"/>
       <c r="M128" s="42"/>
-      <c r="P128" s="47"/>
-      <c r="Q128" s="47"/>
-      <c r="R128" s="47"/>
+      <c r="P128" s="46"/>
+      <c r="Q128" s="46"/>
+      <c r="R128" s="46"/>
       <c r="S128" s="42"/>
       <c r="T128" s="42"/>
       <c r="U128" s="42"/>
@@ -68250,22 +68250,22 @@
         <v>5.1895231880162158E-2</v>
       </c>
       <c r="E129" s="38"/>
-      <c r="F129" s="47" t="s">
+      <c r="F129" s="46" t="s">
         <v>1289</v>
       </c>
-      <c r="G129" s="47"/>
-      <c r="H129" s="47"/>
-      <c r="I129" s="47"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="46"/>
+      <c r="I129" s="46"/>
       <c r="J129" s="42"/>
       <c r="K129" s="42"/>
       <c r="L129" s="42"/>
       <c r="M129" s="42"/>
-      <c r="P129" s="47">
+      <c r="P129" s="46">
         <v>1.3724000000000001</v>
       </c>
-      <c r="Q129" s="47"/>
-      <c r="R129" s="47"/>
-      <c r="S129" s="47"/>
+      <c r="Q129" s="46"/>
+      <c r="R129" s="46"/>
+      <c r="S129" s="46"/>
       <c r="T129" s="42"/>
       <c r="U129" s="42"/>
       <c r="V129" s="42"/>
@@ -68285,18 +68285,18 @@
         <v>0.18892143551436213</v>
       </c>
       <c r="E130" s="38"/>
-      <c r="F130" s="47"/>
-      <c r="G130" s="47"/>
-      <c r="H130" s="47"/>
-      <c r="I130" s="47"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="H130" s="46"/>
+      <c r="I130" s="46"/>
       <c r="J130" s="42"/>
       <c r="K130" s="42"/>
       <c r="L130" s="42"/>
       <c r="M130" s="42"/>
-      <c r="P130" s="47"/>
-      <c r="Q130" s="47"/>
-      <c r="R130" s="47"/>
-      <c r="S130" s="47"/>
+      <c r="P130" s="46"/>
+      <c r="Q130" s="46"/>
+      <c r="R130" s="46"/>
+      <c r="S130" s="46"/>
       <c r="T130" s="42"/>
       <c r="U130" s="42"/>
       <c r="V130" s="42"/>
@@ -68316,18 +68316,18 @@
         <v>2.3816090572351397E-2</v>
       </c>
       <c r="E131" s="38"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="47"/>
-      <c r="H131" s="47"/>
-      <c r="I131" s="47"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="46"/>
+      <c r="I131" s="46"/>
       <c r="J131" s="42"/>
       <c r="K131" s="42"/>
       <c r="L131" s="42"/>
       <c r="M131" s="42"/>
-      <c r="P131" s="47"/>
-      <c r="Q131" s="47"/>
-      <c r="R131" s="47"/>
-      <c r="S131" s="47"/>
+      <c r="P131" s="46"/>
+      <c r="Q131" s="46"/>
+      <c r="R131" s="46"/>
+      <c r="S131" s="46"/>
       <c r="T131" s="42"/>
       <c r="U131" s="42"/>
       <c r="V131" s="42"/>
@@ -68347,18 +68347,18 @@
         <v>4.0379326736203328E-2</v>
       </c>
       <c r="E132" s="38"/>
-      <c r="F132" s="47"/>
-      <c r="G132" s="47"/>
-      <c r="H132" s="47"/>
-      <c r="I132" s="47"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="46"/>
+      <c r="I132" s="46"/>
       <c r="J132" s="42"/>
       <c r="K132" s="42"/>
       <c r="L132" s="42"/>
       <c r="M132" s="42"/>
-      <c r="P132" s="47"/>
-      <c r="Q132" s="47"/>
-      <c r="R132" s="47"/>
-      <c r="S132" s="47"/>
+      <c r="P132" s="46"/>
+      <c r="Q132" s="46"/>
+      <c r="R132" s="46"/>
+      <c r="S132" s="46"/>
       <c r="T132" s="42"/>
       <c r="U132" s="42"/>
       <c r="V132" s="42"/>
@@ -68378,21 +68378,21 @@
         <v>0.118598333757931</v>
       </c>
       <c r="E133" s="38"/>
-      <c r="F133" s="47" t="s">
+      <c r="F133" s="46" t="s">
         <v>1290</v>
       </c>
-      <c r="G133" s="47"/>
-      <c r="H133" s="47"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="46"/>
       <c r="I133" s="42"/>
       <c r="J133" s="42"/>
       <c r="K133" s="42"/>
       <c r="L133" s="42"/>
       <c r="M133" s="42"/>
-      <c r="P133" s="47">
+      <c r="P133" s="46">
         <v>0.42809999999999998</v>
       </c>
-      <c r="Q133" s="47"/>
-      <c r="R133" s="47"/>
+      <c r="Q133" s="46"/>
+      <c r="R133" s="46"/>
       <c r="S133" s="42"/>
       <c r="T133" s="42"/>
       <c r="U133" s="42"/>
@@ -72613,41 +72613,26 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="P123:R124"/>
-    <mergeCell ref="P125:R126"/>
-    <mergeCell ref="P127:R128"/>
-    <mergeCell ref="P129:S132"/>
-    <mergeCell ref="P133:R133"/>
-    <mergeCell ref="P101:S105"/>
-    <mergeCell ref="P106:S110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="P112:W120"/>
-    <mergeCell ref="P121:Q122"/>
-    <mergeCell ref="P67:W89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:R93"/>
-    <mergeCell ref="P94:W98"/>
-    <mergeCell ref="P99:Q100"/>
-    <mergeCell ref="P39:W39"/>
-    <mergeCell ref="P40:W40"/>
-    <mergeCell ref="P41:W42"/>
-    <mergeCell ref="P43:W56"/>
-    <mergeCell ref="P57:W66"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:S33"/>
-    <mergeCell ref="P34:S37"/>
-    <mergeCell ref="P38:W38"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="P25:T28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P7:R9"/>
-    <mergeCell ref="P11:V17"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="F11:L17"/>
+    <mergeCell ref="F7:H9"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F25:J28"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:H93"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="F34:I37"/>
+    <mergeCell ref="F38:M38"/>
     <mergeCell ref="F133:H133"/>
     <mergeCell ref="F67:M89"/>
     <mergeCell ref="F57:M66"/>
@@ -72664,26 +72649,41 @@
     <mergeCell ref="F99:G100"/>
     <mergeCell ref="F101:I105"/>
     <mergeCell ref="F106:I110"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:H93"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:I33"/>
-    <mergeCell ref="F34:I37"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F25:J28"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="F11:L17"/>
-    <mergeCell ref="F7:H9"/>
-    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="P7:R9"/>
+    <mergeCell ref="P11:V17"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="P25:T28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:S33"/>
+    <mergeCell ref="P34:S37"/>
+    <mergeCell ref="P38:W38"/>
+    <mergeCell ref="P39:W39"/>
+    <mergeCell ref="P40:W40"/>
+    <mergeCell ref="P41:W42"/>
+    <mergeCell ref="P43:W56"/>
+    <mergeCell ref="P57:W66"/>
+    <mergeCell ref="P67:W89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:R93"/>
+    <mergeCell ref="P94:W98"/>
+    <mergeCell ref="P99:Q100"/>
+    <mergeCell ref="P101:S105"/>
+    <mergeCell ref="P106:S110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="P112:W120"/>
+    <mergeCell ref="P121:Q122"/>
+    <mergeCell ref="P123:R124"/>
+    <mergeCell ref="P125:R126"/>
+    <mergeCell ref="P127:R128"/>
+    <mergeCell ref="P129:S132"/>
+    <mergeCell ref="P133:R133"/>
   </mergeCells>
   <conditionalFormatting sqref="B174:B175 B185">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">

--- a/Weights_2022.xlsx
+++ b/Weights_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\streamlit-gfe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4EEA6F-4231-41B7-8D96-B5F54623D313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308E2242-96BC-4702-AA44-AA5FFF608AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4474,14 +4474,14 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -63906,7 +63906,7 @@
   <dimension ref="A1:W448"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -64252,10 +64252,10 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
@@ -64332,21 +64332,21 @@
         <v>0.51521805773947882</v>
       </c>
       <c r="E7" s="38"/>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="47" t="s">
         <v>1265</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
       <c r="M7" s="45"/>
-      <c r="P7" s="46">
+      <c r="P7" s="47">
         <v>2.3153000000000001</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
       <c r="S7" s="39"/>
       <c r="T7" s="39"/>
       <c r="U7" s="39"/>
@@ -64367,17 +64367,17 @@
         <v>0.12674148528986401</v>
       </c>
       <c r="E8" s="38"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="39"/>
@@ -64398,17 +64398,17 @@
         <v>0.15067324663166823</v>
       </c>
       <c r="E9" s="38"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="39"/>
@@ -64464,25 +64464,25 @@
         <v>0.27911395435589181</v>
       </c>
       <c r="E11" s="38"/>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="47" t="s">
         <v>1266</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="39"/>
-      <c r="P11" s="46">
+      <c r="P11" s="47">
         <v>4.7308000000000003</v>
       </c>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
       <c r="W11" s="39"/>
     </row>
     <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64499,21 +64499,21 @@
         <v>5.7292470751132078E-2</v>
       </c>
       <c r="E12" s="38"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
       <c r="M12" s="39"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
       <c r="W12" s="39"/>
     </row>
     <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64530,21 +64530,21 @@
         <v>0.14912352618046137</v>
       </c>
       <c r="E13" s="38"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="39"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
       <c r="W13" s="39"/>
     </row>
     <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64561,21 +64561,21 @@
         <v>0.27847618649609573</v>
       </c>
       <c r="E14" s="38"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="39"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
       <c r="W14" s="39"/>
     </row>
     <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64592,21 +64592,21 @@
         <v>7.820182238255062E-2</v>
       </c>
       <c r="E15" s="38"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="39"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
       <c r="W15" s="39"/>
     </row>
     <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64623,21 +64623,21 @@
         <v>0.34681920097218832</v>
       </c>
       <c r="E16" s="38"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="39"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
       <c r="W16" s="39"/>
     </row>
     <row r="17" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64654,21 +64654,21 @@
         <v>0.10159892812195015</v>
       </c>
       <c r="E17" s="38"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="39"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
       <c r="W17" s="39"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -64685,20 +64685,20 @@
         <v>0.19810579686315247</v>
       </c>
       <c r="E18" s="38"/>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="47" t="s">
         <v>1267</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="41"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
-      <c r="P18" s="46">
+      <c r="P18" s="47">
         <v>0.89810000000000001</v>
       </c>
-      <c r="Q18" s="46"/>
+      <c r="Q18" s="47"/>
       <c r="R18" s="41"/>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
@@ -64720,16 +64720,16 @@
         <v>2.7797878963817524E-2</v>
       </c>
       <c r="E19" s="38"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="41"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
       <c r="L19" s="39"/>
       <c r="M19" s="39"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="41"/>
       <c r="S19" s="42"/>
       <c r="T19" s="42"/>
@@ -64751,20 +64751,20 @@
         <v>3.1174754848709001E-2</v>
       </c>
       <c r="E20" s="38"/>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="47" t="s">
         <v>1268</v>
       </c>
-      <c r="G20" s="46"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="41"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
-      <c r="P20" s="46">
+      <c r="P20" s="47">
         <v>0.15190000000000001</v>
       </c>
-      <c r="Q20" s="46"/>
+      <c r="Q20" s="47"/>
       <c r="R20" s="41"/>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
@@ -64786,20 +64786,20 @@
         <v>2.1515458419535198</v>
       </c>
       <c r="E21" s="38"/>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="46"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="41"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
-      <c r="P21" s="46">
+      <c r="P21" s="47">
         <v>9.1193000000000008</v>
       </c>
-      <c r="Q21" s="46"/>
+      <c r="Q21" s="47"/>
       <c r="R21" s="41"/>
       <c r="S21" s="42"/>
       <c r="T21" s="42"/>
@@ -64821,20 +64821,20 @@
         <v>0.91497264299301595</v>
       </c>
       <c r="E22" s="38"/>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="46"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="41"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
-      <c r="P22" s="46">
+      <c r="P22" s="47">
         <v>3.6798000000000002</v>
       </c>
-      <c r="Q22" s="46"/>
+      <c r="Q22" s="47"/>
       <c r="R22" s="41"/>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
@@ -64856,20 +64856,20 @@
         <v>1.4022603003234599</v>
       </c>
       <c r="E23" s="38"/>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="41"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
-      <c r="P23" s="46">
+      <c r="P23" s="47">
         <v>5.6840999999999999</v>
       </c>
-      <c r="Q23" s="46"/>
+      <c r="Q23" s="47"/>
       <c r="R23" s="41"/>
       <c r="S23" s="42"/>
       <c r="T23" s="42"/>
@@ -64891,22 +64891,22 @@
         <v>5.7377872285459201E-2</v>
       </c>
       <c r="E24" s="38"/>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="47" t="s">
         <v>1269</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
       <c r="L24" s="39"/>
       <c r="M24" s="39"/>
-      <c r="P24" s="46">
+      <c r="P24" s="47">
         <v>0.30980000000000002</v>
       </c>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
       <c r="T24" s="42"/>
       <c r="U24" s="42"/>
       <c r="V24" s="39"/>
@@ -64926,23 +64926,23 @@
         <v>0.42958442335736191</v>
       </c>
       <c r="E25" s="38"/>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="47" t="s">
         <v>1270</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="42"/>
       <c r="L25" s="39"/>
       <c r="M25" s="39"/>
-      <c r="P25" s="46">
+      <c r="P25" s="47">
         <v>2.7145999999999999</v>
       </c>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
       <c r="U25" s="42"/>
       <c r="V25" s="39"/>
       <c r="W25" s="39"/>
@@ -64961,19 +64961,19 @@
         <v>4.6986095467985413E-2</v>
       </c>
       <c r="E26" s="38"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
       <c r="K26" s="42"/>
       <c r="L26" s="39"/>
       <c r="M26" s="39"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
       <c r="U26" s="42"/>
       <c r="V26" s="39"/>
       <c r="W26" s="39"/>
@@ -64992,19 +64992,19 @@
         <v>8.3031042770547209E-2</v>
       </c>
       <c r="E27" s="38"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="42"/>
       <c r="L27" s="39"/>
       <c r="M27" s="39"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
       <c r="U27" s="42"/>
       <c r="V27" s="39"/>
       <c r="W27" s="39"/>
@@ -65023,19 +65023,19 @@
         <v>0.10100343238800358</v>
       </c>
       <c r="E28" s="38"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="42"/>
       <c r="L28" s="39"/>
       <c r="M28" s="39"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
       <c r="U28" s="42"/>
       <c r="V28" s="39"/>
       <c r="W28" s="39"/>
@@ -65054,20 +65054,20 @@
         <v>0.37657317995231099</v>
       </c>
       <c r="E29" s="38"/>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="47" t="s">
         <v>1271</v>
       </c>
-      <c r="G29" s="46"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
-      <c r="P29" s="46">
+      <c r="P29" s="47">
         <v>1.0806</v>
       </c>
-      <c r="Q29" s="46"/>
+      <c r="Q29" s="47"/>
       <c r="R29" s="40"/>
       <c r="S29" s="40"/>
       <c r="T29" s="42"/>
@@ -65089,22 +65089,22 @@
         <v>2.6931487122201201E-2</v>
       </c>
       <c r="E30" s="38"/>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="47" t="s">
         <v>1272</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
       <c r="J30" s="42"/>
       <c r="K30" s="42"/>
       <c r="L30" s="39"/>
       <c r="M30" s="39"/>
-      <c r="P30" s="46">
+      <c r="P30" s="47">
         <v>0.1221</v>
       </c>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
       <c r="T30" s="42"/>
       <c r="U30" s="42"/>
       <c r="V30" s="39"/>
@@ -65124,20 +65124,20 @@
         <v>0.74544121619390191</v>
       </c>
       <c r="E31" s="38"/>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="47"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="43"/>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
       <c r="L31" s="39"/>
       <c r="M31" s="39"/>
-      <c r="P31" s="47">
+      <c r="P31" s="48">
         <v>2.5091999999999999</v>
       </c>
-      <c r="Q31" s="47"/>
+      <c r="Q31" s="48"/>
       <c r="R31" s="43"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
@@ -65159,22 +65159,22 @@
         <v>0.58723300441325832</v>
       </c>
       <c r="E32" s="38"/>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="47" t="s">
         <v>1273</v>
       </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
       <c r="L32" s="39"/>
       <c r="M32" s="39"/>
-      <c r="P32" s="46">
+      <c r="P32" s="47">
         <v>2.1776</v>
       </c>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
       <c r="T32" s="44"/>
       <c r="U32" s="44"/>
       <c r="V32" s="39"/>
@@ -65194,18 +65194,18 @@
         <v>2.8411883303959638E-2</v>
       </c>
       <c r="E33" s="38"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="39"/>
       <c r="M33" s="39"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
       <c r="T33" s="44"/>
       <c r="U33" s="44"/>
       <c r="V33" s="39"/>
@@ -65225,22 +65225,22 @@
         <v>0.8283712022457087</v>
       </c>
       <c r="E34" s="38"/>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="47" t="s">
         <v>1274</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
       <c r="L34" s="39"/>
       <c r="M34" s="39"/>
-      <c r="P34" s="46">
+      <c r="P34" s="47">
         <v>5.6692</v>
       </c>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
       <c r="T34" s="44"/>
       <c r="U34" s="44"/>
       <c r="V34" s="39"/>
@@ -65260,18 +65260,18 @@
         <v>0.38813356688258949</v>
       </c>
       <c r="E35" s="38"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
       <c r="L35" s="39"/>
       <c r="M35" s="39"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
       <c r="T35" s="44"/>
       <c r="U35" s="44"/>
       <c r="V35" s="39"/>
@@ -65291,18 +65291,18 @@
         <v>0.16008540153818723</v>
       </c>
       <c r="E36" s="38"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
       <c r="T36" s="44"/>
       <c r="U36" s="44"/>
       <c r="V36" s="39"/>
@@ -65322,18 +65322,18 @@
         <v>6.2428045787504827E-2</v>
       </c>
       <c r="E37" s="38"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
       <c r="J37" s="44"/>
       <c r="K37" s="44"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
       <c r="T37" s="44"/>
       <c r="U37" s="44"/>
       <c r="V37" s="39"/>
@@ -65353,26 +65353,26 @@
         <v>0.81296800539466196</v>
       </c>
       <c r="E38" s="38"/>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="P38" s="47">
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="P38" s="48">
         <v>2.7397</v>
       </c>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
@@ -65388,26 +65388,26 @@
         <v>0.33183740154334102</v>
       </c>
       <c r="E39" s="38"/>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="48" t="s">
         <v>1275</v>
       </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="P39" s="47">
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="P39" s="48">
         <v>1.321</v>
       </c>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
     </row>
     <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
@@ -65423,26 +65423,26 @@
         <v>0.122176361182272</v>
       </c>
       <c r="E40" s="38"/>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="P40" s="47">
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="P40" s="48">
         <v>0.28939999999999999</v>
       </c>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
@@ -65458,26 +65458,26 @@
         <v>0.42028649363182702</v>
       </c>
       <c r="E41" s="38"/>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="47" t="s">
         <v>1276</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="P41" s="46">
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="P41" s="47">
         <v>4.1473000000000004</v>
       </c>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
@@ -65493,22 +65493,22 @@
         <v>0.87028922402771314</v>
       </c>
       <c r="E42" s="38"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
@@ -65524,26 +65524,26 @@
         <v>0.15733414690083408</v>
       </c>
       <c r="E43" s="38"/>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="47" t="s">
         <v>1277</v>
       </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="P43" s="46">
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="P43" s="47">
         <v>7.4531000000000001</v>
       </c>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
@@ -65559,22 +65559,22 @@
         <v>0.13375461675465711</v>
       </c>
       <c r="E44" s="38"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
@@ -65590,22 +65590,22 @@
         <v>5.143195891566945E-2</v>
       </c>
       <c r="E45" s="38"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
@@ -65621,22 +65621,22 @@
         <v>1.9081343682028368E-2</v>
       </c>
       <c r="E46" s="38"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
@@ -65652,22 +65652,22 @@
         <v>7.1199097420946822E-2</v>
       </c>
       <c r="E47" s="38"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
@@ -65683,22 +65683,22 @@
         <v>0.21504324800592992</v>
       </c>
       <c r="E48" s="38"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
@@ -65714,22 +65714,22 @@
         <v>0.22094165052979442</v>
       </c>
       <c r="E49" s="38"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
     </row>
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
@@ -65745,22 +65745,22 @@
         <v>0.10155844671417859</v>
       </c>
       <c r="E50" s="38"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
@@ -65776,22 +65776,22 @@
         <v>1.5259353782262298E-2</v>
       </c>
       <c r="E51" s="38"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
@@ -65807,22 +65807,22 @@
         <v>0.10783071525847965</v>
       </c>
       <c r="E52" s="38"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
@@ -65838,22 +65838,22 @@
         <v>0.14899429724477473</v>
       </c>
       <c r="E53" s="38"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
@@ -65869,22 +65869,22 @@
         <v>0.29488016900852471</v>
       </c>
       <c r="E54" s="38"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="46"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -65900,22 +65900,22 @@
         <v>2.6299055104995521E-2</v>
       </c>
       <c r="E55" s="38"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="46"/>
-      <c r="R55" s="46"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
@@ -65931,22 +65931,22 @@
         <v>7.0245938148524201E-2</v>
       </c>
       <c r="E56" s="38"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
@@ -65962,26 +65962,26 @@
         <v>4.7152136486603803E-2</v>
       </c>
       <c r="E57" s="38"/>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="47" t="s">
         <v>1278</v>
       </c>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="P57" s="46">
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="P57" s="47">
         <v>3.1848999999999998</v>
       </c>
-      <c r="Q57" s="46"/>
-      <c r="R57" s="46"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="46"/>
-      <c r="V57" s="46"/>
-      <c r="W57" s="46"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
     </row>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -65997,22 +65997,22 @@
         <v>0.21606552629420589</v>
       </c>
       <c r="E58" s="38"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
-      <c r="V58" s="46"/>
-      <c r="W58" s="46"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
@@ -66028,22 +66028,22 @@
         <v>7.8653036373222587E-2</v>
       </c>
       <c r="E59" s="38"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="46"/>
-      <c r="R59" s="46"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="46"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
@@ -66059,22 +66059,22 @@
         <v>5.2529025906290674E-2</v>
       </c>
       <c r="E60" s="38"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="46"/>
-      <c r="R60" s="46"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="46"/>
-      <c r="U60" s="46"/>
-      <c r="V60" s="46"/>
-      <c r="W60" s="46"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="47"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="47"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="47"/>
+      <c r="W60" s="47"/>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
@@ -66090,22 +66090,22 @@
         <v>0.10215205697500554</v>
       </c>
       <c r="E61" s="38"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="46"/>
-      <c r="R61" s="46"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="46"/>
-      <c r="W61" s="46"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="47"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="47"/>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
@@ -66121,22 +66121,22 @@
         <v>4.2623246160707756E-2</v>
       </c>
       <c r="E62" s="38"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="46"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="47"/>
+      <c r="T62" s="47"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
@@ -66152,22 +66152,22 @@
         <v>0.19294012068915498</v>
       </c>
       <c r="E63" s="38"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="46"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="47"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
@@ -66183,22 +66183,22 @@
         <v>3.6503479977400562E-2</v>
       </c>
       <c r="E64" s="38"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="46"/>
-      <c r="W64" s="46"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="47"/>
+      <c r="T64" s="47"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
     </row>
     <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
@@ -66214,22 +66214,22 @@
         <v>3.8240074556774896E-2</v>
       </c>
       <c r="E65" s="38"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="46"/>
-      <c r="R65" s="46"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="46"/>
-      <c r="V65" s="46"/>
-      <c r="W65" s="46"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
     </row>
     <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
@@ -66245,22 +66245,22 @@
         <v>3.7721140296722445E-2</v>
       </c>
       <c r="E66" s="38"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="46"/>
-      <c r="R66" s="46"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="46"/>
-      <c r="V66" s="46"/>
-      <c r="W66" s="46"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
     </row>
     <row r="67" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
@@ -66276,26 +66276,26 @@
         <v>4.6152726670960771E-2</v>
       </c>
       <c r="E67" s="38"/>
-      <c r="F67" s="46" t="s">
+      <c r="F67" s="47" t="s">
         <v>1279</v>
       </c>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="P67" s="46">
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="P67" s="47">
         <v>10.5219</v>
       </c>
-      <c r="Q67" s="46"/>
-      <c r="R67" s="46"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="46"/>
-      <c r="V67" s="46"/>
-      <c r="W67" s="46"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="47"/>
+      <c r="T67" s="47"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
@@ -66311,22 +66311,22 @@
         <v>4.3695289995336013E-2</v>
       </c>
       <c r="E68" s="38"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="P68" s="46"/>
-      <c r="Q68" s="46"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="46"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="46"/>
-      <c r="V68" s="46"/>
-      <c r="W68" s="46"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="47"/>
     </row>
     <row r="69" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
@@ -66342,22 +66342,22 @@
         <v>0.15454178586741243</v>
       </c>
       <c r="E69" s="38"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="46"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="46"/>
-      <c r="T69" s="46"/>
-      <c r="U69" s="46"/>
-      <c r="V69" s="46"/>
-      <c r="W69" s="46"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
     </row>
     <row r="70" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
@@ -66373,22 +66373,22 @@
         <v>1.1553619389116613E-2</v>
       </c>
       <c r="E70" s="38"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="46"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="46"/>
-      <c r="V70" s="46"/>
-      <c r="W70" s="46"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="47"/>
     </row>
     <row r="71" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
@@ -66404,22 +66404,22 @@
         <v>0.6744805952140317</v>
       </c>
       <c r="E71" s="38"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="46"/>
-      <c r="R71" s="46"/>
-      <c r="S71" s="46"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="46"/>
-      <c r="V71" s="46"/>
-      <c r="W71" s="46"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="47"/>
     </row>
     <row r="72" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
@@ -66435,22 +66435,22 @@
         <v>0.10314914269933199</v>
       </c>
       <c r="E72" s="38"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="P72" s="46"/>
-      <c r="Q72" s="46"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="46"/>
-      <c r="T72" s="46"/>
-      <c r="U72" s="46"/>
-      <c r="V72" s="46"/>
-      <c r="W72" s="46"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="47"/>
+      <c r="S72" s="47"/>
+      <c r="T72" s="47"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="47"/>
+      <c r="W72" s="47"/>
     </row>
     <row r="73" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
@@ -66466,22 +66466,22 @@
         <v>6.6559211501978716E-2</v>
       </c>
       <c r="E73" s="38"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="46"/>
-      <c r="W73" s="46"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="47"/>
+      <c r="S73" s="47"/>
+      <c r="T73" s="47"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="47"/>
     </row>
     <row r="74" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -66497,22 +66497,22 @@
         <v>6.1187333616305885E-2</v>
       </c>
       <c r="E74" s="38"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="46"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="46"/>
-      <c r="W74" s="46"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="47"/>
+      <c r="S74" s="47"/>
+      <c r="T74" s="47"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="47"/>
+      <c r="W74" s="47"/>
     </row>
     <row r="75" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
@@ -66528,22 +66528,22 @@
         <v>5.0919267929985731E-2</v>
       </c>
       <c r="E75" s="38"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="46"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="46"/>
-      <c r="W75" s="46"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
+      <c r="S75" s="47"/>
+      <c r="T75" s="47"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="47"/>
     </row>
     <row r="76" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
@@ -66559,22 +66559,22 @@
         <v>4.0323110720502146E-2</v>
       </c>
       <c r="E76" s="38"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="46"/>
-      <c r="S76" s="46"/>
-      <c r="T76" s="46"/>
-      <c r="U76" s="46"/>
-      <c r="V76" s="46"/>
-      <c r="W76" s="46"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="47"/>
+      <c r="S76" s="47"/>
+      <c r="T76" s="47"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
     </row>
     <row r="77" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
@@ -66590,22 +66590,22 @@
         <v>0.22630337014039187</v>
       </c>
       <c r="E77" s="38"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
-      <c r="P77" s="46"/>
-      <c r="Q77" s="46"/>
-      <c r="R77" s="46"/>
-      <c r="S77" s="46"/>
-      <c r="T77" s="46"/>
-      <c r="U77" s="46"/>
-      <c r="V77" s="46"/>
-      <c r="W77" s="46"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
+      <c r="S77" s="47"/>
+      <c r="T77" s="47"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="47"/>
+      <c r="W77" s="47"/>
     </row>
     <row r="78" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -66621,22 +66621,22 @@
         <v>3.5787393006189182E-2</v>
       </c>
       <c r="E78" s="38"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="46"/>
-      <c r="S78" s="46"/>
-      <c r="T78" s="46"/>
-      <c r="U78" s="46"/>
-      <c r="V78" s="46"/>
-      <c r="W78" s="46"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="47"/>
+      <c r="S78" s="47"/>
+      <c r="T78" s="47"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="47"/>
+      <c r="W78" s="47"/>
     </row>
     <row r="79" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
@@ -66652,22 +66652,22 @@
         <v>1.3951241140556276E-2</v>
       </c>
       <c r="E79" s="38"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="P79" s="46"/>
-      <c r="Q79" s="46"/>
-      <c r="R79" s="46"/>
-      <c r="S79" s="46"/>
-      <c r="T79" s="46"/>
-      <c r="U79" s="46"/>
-      <c r="V79" s="46"/>
-      <c r="W79" s="46"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
+      <c r="S79" s="47"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
     </row>
     <row r="80" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
@@ -66683,22 +66683,22 @@
         <v>4.9916811431752826E-2</v>
       </c>
       <c r="E80" s="38"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="46"/>
-      <c r="R80" s="46"/>
-      <c r="S80" s="46"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="46"/>
-      <c r="V80" s="46"/>
-      <c r="W80" s="46"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+      <c r="S80" s="47"/>
+      <c r="T80" s="47"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
     </row>
     <row r="81" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
@@ -66714,22 +66714,22 @@
         <v>6.6470637022567669E-2</v>
       </c>
       <c r="E81" s="38"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="P81" s="46"/>
-      <c r="Q81" s="46"/>
-      <c r="R81" s="46"/>
-      <c r="S81" s="46"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="46"/>
-      <c r="V81" s="46"/>
-      <c r="W81" s="46"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="47"/>
+      <c r="S81" s="47"/>
+      <c r="T81" s="47"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="47"/>
+      <c r="W81" s="47"/>
     </row>
     <row r="82" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
@@ -66745,22 +66745,22 @@
         <v>5.1211041356619573E-2</v>
       </c>
       <c r="E82" s="38"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="46"/>
-      <c r="R82" s="46"/>
-      <c r="S82" s="46"/>
-      <c r="T82" s="46"/>
-      <c r="U82" s="46"/>
-      <c r="V82" s="46"/>
-      <c r="W82" s="46"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="47"/>
+      <c r="S82" s="47"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
     </row>
     <row r="83" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
@@ -66776,22 +66776,22 @@
         <v>7.8446268130319338E-3</v>
       </c>
       <c r="E83" s="38"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="P83" s="46"/>
-      <c r="Q83" s="46"/>
-      <c r="R83" s="46"/>
-      <c r="S83" s="46"/>
-      <c r="T83" s="46"/>
-      <c r="U83" s="46"/>
-      <c r="V83" s="46"/>
-      <c r="W83" s="46"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="47"/>
+      <c r="S83" s="47"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="47"/>
+      <c r="W83" s="47"/>
     </row>
     <row r="84" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
@@ -66807,22 +66807,22 @@
         <v>0.14626090699206243</v>
       </c>
       <c r="E84" s="38"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="46"/>
-      <c r="P84" s="46"/>
-      <c r="Q84" s="46"/>
-      <c r="R84" s="46"/>
-      <c r="S84" s="46"/>
-      <c r="T84" s="46"/>
-      <c r="U84" s="46"/>
-      <c r="V84" s="46"/>
-      <c r="W84" s="46"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="47"/>
+      <c r="R84" s="47"/>
+      <c r="S84" s="47"/>
+      <c r="T84" s="47"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="47"/>
+      <c r="W84" s="47"/>
     </row>
     <row r="85" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
@@ -66838,22 +66838,22 @@
         <v>3.5978248293497057E-2</v>
       </c>
       <c r="E85" s="38"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="46"/>
-      <c r="P85" s="46"/>
-      <c r="Q85" s="46"/>
-      <c r="R85" s="46"/>
-      <c r="S85" s="46"/>
-      <c r="T85" s="46"/>
-      <c r="U85" s="46"/>
-      <c r="V85" s="46"/>
-      <c r="W85" s="46"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="47"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="47"/>
+      <c r="R85" s="47"/>
+      <c r="S85" s="47"/>
+      <c r="T85" s="47"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="47"/>
+      <c r="W85" s="47"/>
     </row>
     <row r="86" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
@@ -66869,22 +66869,22 @@
         <v>1.4543135522588336E-2</v>
       </c>
       <c r="E86" s="38"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="46"/>
-      <c r="K86" s="46"/>
-      <c r="L86" s="46"/>
-      <c r="M86" s="46"/>
-      <c r="P86" s="46"/>
-      <c r="Q86" s="46"/>
-      <c r="R86" s="46"/>
-      <c r="S86" s="46"/>
-      <c r="T86" s="46"/>
-      <c r="U86" s="46"/>
-      <c r="V86" s="46"/>
-      <c r="W86" s="46"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="47"/>
+      <c r="S86" s="47"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="47"/>
+      <c r="W86" s="47"/>
     </row>
     <row r="87" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
@@ -66900,22 +66900,22 @@
         <v>0.26864683271781198</v>
       </c>
       <c r="E87" s="38"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="46"/>
-      <c r="P87" s="46"/>
-      <c r="Q87" s="46"/>
-      <c r="R87" s="46"/>
-      <c r="S87" s="46"/>
-      <c r="T87" s="46"/>
-      <c r="U87" s="46"/>
-      <c r="V87" s="46"/>
-      <c r="W87" s="46"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="47"/>
+      <c r="R87" s="47"/>
+      <c r="S87" s="47"/>
+      <c r="T87" s="47"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="47"/>
+      <c r="W87" s="47"/>
     </row>
     <row r="88" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
@@ -66931,22 +66931,22 @@
         <v>5.115475150721821E-2</v>
       </c>
       <c r="E88" s="38"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="46"/>
-      <c r="M88" s="46"/>
-      <c r="P88" s="46"/>
-      <c r="Q88" s="46"/>
-      <c r="R88" s="46"/>
-      <c r="S88" s="46"/>
-      <c r="T88" s="46"/>
-      <c r="U88" s="46"/>
-      <c r="V88" s="46"/>
-      <c r="W88" s="46"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="P88" s="47"/>
+      <c r="Q88" s="47"/>
+      <c r="R88" s="47"/>
+      <c r="S88" s="47"/>
+      <c r="T88" s="47"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="47"/>
+      <c r="W88" s="47"/>
     </row>
     <row r="89" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
@@ -66962,22 +66962,22 @@
         <v>1.4608931895090688E-2</v>
       </c>
       <c r="E89" s="38"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="46"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="46"/>
-      <c r="P89" s="46"/>
-      <c r="Q89" s="46"/>
-      <c r="R89" s="46"/>
-      <c r="S89" s="46"/>
-      <c r="T89" s="46"/>
-      <c r="U89" s="46"/>
-      <c r="V89" s="46"/>
-      <c r="W89" s="46"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="47"/>
+      <c r="R89" s="47"/>
+      <c r="S89" s="47"/>
+      <c r="T89" s="47"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="47"/>
+      <c r="W89" s="47"/>
     </row>
     <row r="90" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
@@ -66993,20 +66993,20 @@
         <v>0.29882941628910398</v>
       </c>
       <c r="E90" s="38"/>
-      <c r="F90" s="46" t="s">
+      <c r="F90" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="G90" s="46"/>
+      <c r="G90" s="47"/>
       <c r="H90" s="40"/>
       <c r="I90" s="42"/>
       <c r="J90" s="42"/>
       <c r="K90" s="42"/>
       <c r="L90" s="42"/>
       <c r="M90" s="42"/>
-      <c r="P90" s="46">
+      <c r="P90" s="47">
         <v>1.0684</v>
       </c>
-      <c r="Q90" s="46"/>
+      <c r="Q90" s="47"/>
       <c r="R90" s="40"/>
       <c r="S90" s="42"/>
       <c r="T90" s="42"/>
@@ -67028,21 +67028,21 @@
         <v>0.10183349501890718</v>
       </c>
       <c r="E91" s="38"/>
-      <c r="F91" s="46" t="s">
+      <c r="F91" s="47" t="s">
         <v>1280</v>
       </c>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
       <c r="I91" s="42"/>
       <c r="J91" s="42"/>
       <c r="K91" s="42"/>
       <c r="L91" s="42"/>
       <c r="M91" s="42"/>
-      <c r="P91" s="46">
+      <c r="P91" s="47">
         <v>1.1157999999999999</v>
       </c>
-      <c r="Q91" s="46"/>
-      <c r="R91" s="46"/>
+      <c r="Q91" s="47"/>
+      <c r="R91" s="47"/>
       <c r="S91" s="42"/>
       <c r="T91" s="42"/>
       <c r="U91" s="42"/>
@@ -67063,17 +67063,17 @@
         <v>6.4493692883765219E-2</v>
       </c>
       <c r="E92" s="38"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
       <c r="I92" s="42"/>
       <c r="J92" s="42"/>
       <c r="K92" s="42"/>
       <c r="L92" s="42"/>
       <c r="M92" s="42"/>
-      <c r="P92" s="46"/>
-      <c r="Q92" s="46"/>
-      <c r="R92" s="46"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="47"/>
       <c r="S92" s="42"/>
       <c r="T92" s="42"/>
       <c r="U92" s="42"/>
@@ -67094,17 +67094,17 @@
         <v>0.1195377974966166</v>
       </c>
       <c r="E93" s="38"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
       <c r="I93" s="42"/>
       <c r="J93" s="42"/>
       <c r="K93" s="42"/>
       <c r="L93" s="42"/>
       <c r="M93" s="42"/>
-      <c r="P93" s="46"/>
-      <c r="Q93" s="46"/>
-      <c r="R93" s="46"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
       <c r="S93" s="42"/>
       <c r="T93" s="42"/>
       <c r="U93" s="42"/>
@@ -67125,26 +67125,26 @@
         <v>2.3876650424165674E-2</v>
       </c>
       <c r="E94" s="38"/>
-      <c r="F94" s="46" t="s">
+      <c r="F94" s="47" t="s">
         <v>1281</v>
       </c>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="46"/>
-      <c r="J94" s="46"/>
-      <c r="K94" s="46"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="46"/>
-      <c r="P94" s="46">
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="P94" s="47">
         <v>3.5074000000000001</v>
       </c>
-      <c r="Q94" s="46"/>
-      <c r="R94" s="46"/>
-      <c r="S94" s="46"/>
-      <c r="T94" s="46"/>
-      <c r="U94" s="46"/>
-      <c r="V94" s="46"/>
-      <c r="W94" s="46"/>
+      <c r="Q94" s="47"/>
+      <c r="R94" s="47"/>
+      <c r="S94" s="47"/>
+      <c r="T94" s="47"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="47"/>
+      <c r="W94" s="47"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
@@ -67160,22 +67160,22 @@
         <v>2.7991909279186846E-2</v>
       </c>
       <c r="E95" s="38"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="46"/>
-      <c r="K95" s="46"/>
-      <c r="L95" s="46"/>
-      <c r="M95" s="46"/>
-      <c r="P95" s="46"/>
-      <c r="Q95" s="46"/>
-      <c r="R95" s="46"/>
-      <c r="S95" s="46"/>
-      <c r="T95" s="46"/>
-      <c r="U95" s="46"/>
-      <c r="V95" s="46"/>
-      <c r="W95" s="46"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="47"/>
+      <c r="P95" s="47"/>
+      <c r="Q95" s="47"/>
+      <c r="R95" s="47"/>
+      <c r="S95" s="47"/>
+      <c r="T95" s="47"/>
+      <c r="U95" s="47"/>
+      <c r="V95" s="47"/>
+      <c r="W95" s="47"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
@@ -67191,22 +67191,22 @@
         <v>0.16376391234594154</v>
       </c>
       <c r="E96" s="38"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="46"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="46"/>
-      <c r="R96" s="46"/>
-      <c r="S96" s="46"/>
-      <c r="T96" s="46"/>
-      <c r="U96" s="46"/>
-      <c r="V96" s="46"/>
-      <c r="W96" s="46"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="47"/>
+      <c r="P96" s="47"/>
+      <c r="Q96" s="47"/>
+      <c r="R96" s="47"/>
+      <c r="S96" s="47"/>
+      <c r="T96" s="47"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="47"/>
+      <c r="W96" s="47"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -67222,22 +67222,22 @@
         <v>0.37451123094895444</v>
       </c>
       <c r="E97" s="38"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="46"/>
-      <c r="J97" s="46"/>
-      <c r="K97" s="46"/>
-      <c r="L97" s="46"/>
-      <c r="M97" s="46"/>
-      <c r="P97" s="46"/>
-      <c r="Q97" s="46"/>
-      <c r="R97" s="46"/>
-      <c r="S97" s="46"/>
-      <c r="T97" s="46"/>
-      <c r="U97" s="46"/>
-      <c r="V97" s="46"/>
-      <c r="W97" s="46"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="47"/>
+      <c r="L97" s="47"/>
+      <c r="M97" s="47"/>
+      <c r="P97" s="47"/>
+      <c r="Q97" s="47"/>
+      <c r="R97" s="47"/>
+      <c r="S97" s="47"/>
+      <c r="T97" s="47"/>
+      <c r="U97" s="47"/>
+      <c r="V97" s="47"/>
+      <c r="W97" s="47"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
@@ -67253,22 +67253,22 @@
         <v>0.13071368593465346</v>
       </c>
       <c r="E98" s="38"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="46"/>
-      <c r="J98" s="46"/>
-      <c r="K98" s="46"/>
-      <c r="L98" s="46"/>
-      <c r="M98" s="46"/>
-      <c r="P98" s="46"/>
-      <c r="Q98" s="46"/>
-      <c r="R98" s="46"/>
-      <c r="S98" s="46"/>
-      <c r="T98" s="46"/>
-      <c r="U98" s="46"/>
-      <c r="V98" s="46"/>
-      <c r="W98" s="46"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
+      <c r="L98" s="47"/>
+      <c r="M98" s="47"/>
+      <c r="P98" s="47"/>
+      <c r="Q98" s="47"/>
+      <c r="R98" s="47"/>
+      <c r="S98" s="47"/>
+      <c r="T98" s="47"/>
+      <c r="U98" s="47"/>
+      <c r="V98" s="47"/>
+      <c r="W98" s="47"/>
     </row>
     <row r="99" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
@@ -67284,20 +67284,20 @@
         <v>0.32571727764637787</v>
       </c>
       <c r="E99" s="38"/>
-      <c r="F99" s="46" t="s">
+      <c r="F99" s="47" t="s">
         <v>1282</v>
       </c>
-      <c r="G99" s="46"/>
+      <c r="G99" s="47"/>
       <c r="H99" s="41"/>
       <c r="I99" s="42"/>
       <c r="J99" s="42"/>
       <c r="K99" s="42"/>
       <c r="L99" s="42"/>
       <c r="M99" s="42"/>
-      <c r="P99" s="46">
+      <c r="P99" s="47">
         <v>1.5087999999999999</v>
       </c>
-      <c r="Q99" s="46"/>
+      <c r="Q99" s="47"/>
       <c r="R99" s="41"/>
       <c r="S99" s="42"/>
       <c r="T99" s="42"/>
@@ -67319,16 +67319,16 @@
         <v>5.0688635653399122E-2</v>
       </c>
       <c r="E100" s="38"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
       <c r="H100" s="41"/>
       <c r="I100" s="42"/>
       <c r="J100" s="42"/>
       <c r="K100" s="42"/>
       <c r="L100" s="42"/>
       <c r="M100" s="42"/>
-      <c r="P100" s="46"/>
-      <c r="Q100" s="46"/>
+      <c r="P100" s="47"/>
+      <c r="Q100" s="47"/>
       <c r="R100" s="41"/>
       <c r="S100" s="42"/>
       <c r="T100" s="42"/>
@@ -67350,22 +67350,22 @@
         <v>3.5309508379900933E-2</v>
       </c>
       <c r="E101" s="38"/>
-      <c r="F101" s="46" t="s">
+      <c r="F101" s="47" t="s">
         <v>1283</v>
       </c>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
       <c r="J101" s="42"/>
       <c r="K101" s="42"/>
       <c r="L101" s="42"/>
       <c r="M101" s="42"/>
-      <c r="P101" s="46">
+      <c r="P101" s="47">
         <v>1.0296000000000001</v>
       </c>
-      <c r="Q101" s="46"/>
-      <c r="R101" s="46"/>
-      <c r="S101" s="46"/>
+      <c r="Q101" s="47"/>
+      <c r="R101" s="47"/>
+      <c r="S101" s="47"/>
       <c r="T101" s="42"/>
       <c r="U101" s="42"/>
       <c r="V101" s="42"/>
@@ -67385,18 +67385,18 @@
         <v>0.15199985493668697</v>
       </c>
       <c r="E102" s="38"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="46"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
       <c r="J102" s="42"/>
       <c r="K102" s="42"/>
       <c r="L102" s="42"/>
       <c r="M102" s="42"/>
-      <c r="P102" s="46"/>
-      <c r="Q102" s="46"/>
-      <c r="R102" s="46"/>
-      <c r="S102" s="46"/>
+      <c r="P102" s="47"/>
+      <c r="Q102" s="47"/>
+      <c r="R102" s="47"/>
+      <c r="S102" s="47"/>
       <c r="T102" s="42"/>
       <c r="U102" s="42"/>
       <c r="V102" s="42"/>
@@ -67416,18 +67416,18 @@
         <v>5.3138206099268351E-2</v>
       </c>
       <c r="E103" s="38"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
       <c r="J103" s="42"/>
       <c r="K103" s="42"/>
       <c r="L103" s="42"/>
       <c r="M103" s="42"/>
-      <c r="P103" s="46"/>
-      <c r="Q103" s="46"/>
-      <c r="R103" s="46"/>
-      <c r="S103" s="46"/>
+      <c r="P103" s="47"/>
+      <c r="Q103" s="47"/>
+      <c r="R103" s="47"/>
+      <c r="S103" s="47"/>
       <c r="T103" s="42"/>
       <c r="U103" s="42"/>
       <c r="V103" s="42"/>
@@ -67447,18 +67447,18 @@
         <v>5.8153054743786368E-2</v>
       </c>
       <c r="E104" s="38"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
       <c r="J104" s="42"/>
       <c r="K104" s="42"/>
       <c r="L104" s="42"/>
       <c r="M104" s="42"/>
-      <c r="P104" s="46"/>
-      <c r="Q104" s="46"/>
-      <c r="R104" s="46"/>
-      <c r="S104" s="46"/>
+      <c r="P104" s="47"/>
+      <c r="Q104" s="47"/>
+      <c r="R104" s="47"/>
+      <c r="S104" s="47"/>
       <c r="T104" s="42"/>
       <c r="U104" s="42"/>
       <c r="V104" s="42"/>
@@ -67478,18 +67478,18 @@
         <v>1.4967560654789373E-2</v>
       </c>
       <c r="E105" s="38"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="46"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
       <c r="J105" s="42"/>
       <c r="K105" s="42"/>
       <c r="L105" s="42"/>
       <c r="M105" s="42"/>
-      <c r="P105" s="46"/>
-      <c r="Q105" s="46"/>
-      <c r="R105" s="46"/>
-      <c r="S105" s="46"/>
+      <c r="P105" s="47"/>
+      <c r="Q105" s="47"/>
+      <c r="R105" s="47"/>
+      <c r="S105" s="47"/>
       <c r="T105" s="42"/>
       <c r="U105" s="42"/>
       <c r="V105" s="42"/>
@@ -67509,22 +67509,22 @@
         <v>0.19112767550668186</v>
       </c>
       <c r="E106" s="38"/>
-      <c r="F106" s="46" t="s">
+      <c r="F106" s="47" t="s">
         <v>1284</v>
       </c>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="46"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="47"/>
+      <c r="I106" s="47"/>
       <c r="J106" s="42"/>
       <c r="K106" s="42"/>
       <c r="L106" s="42"/>
       <c r="M106" s="42"/>
-      <c r="P106" s="46">
+      <c r="P106" s="47">
         <v>2.4769999999999999</v>
       </c>
-      <c r="Q106" s="46"/>
-      <c r="R106" s="46"/>
-      <c r="S106" s="46"/>
+      <c r="Q106" s="47"/>
+      <c r="R106" s="47"/>
+      <c r="S106" s="47"/>
       <c r="T106" s="42"/>
       <c r="U106" s="42"/>
       <c r="V106" s="42"/>
@@ -67544,18 +67544,18 @@
         <v>0.11505797602109169</v>
       </c>
       <c r="E107" s="38"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
       <c r="J107" s="42"/>
       <c r="K107" s="42"/>
       <c r="L107" s="42"/>
       <c r="M107" s="42"/>
-      <c r="P107" s="46"/>
-      <c r="Q107" s="46"/>
-      <c r="R107" s="46"/>
-      <c r="S107" s="46"/>
+      <c r="P107" s="47"/>
+      <c r="Q107" s="47"/>
+      <c r="R107" s="47"/>
+      <c r="S107" s="47"/>
       <c r="T107" s="42"/>
       <c r="U107" s="42"/>
       <c r="V107" s="42"/>
@@ -67575,18 +67575,18 @@
         <v>4.8315832308380671E-2</v>
       </c>
       <c r="E108" s="38"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
       <c r="J108" s="42"/>
       <c r="K108" s="42"/>
       <c r="L108" s="42"/>
       <c r="M108" s="42"/>
-      <c r="P108" s="46"/>
-      <c r="Q108" s="46"/>
-      <c r="R108" s="46"/>
-      <c r="S108" s="46"/>
+      <c r="P108" s="47"/>
+      <c r="Q108" s="47"/>
+      <c r="R108" s="47"/>
+      <c r="S108" s="47"/>
       <c r="T108" s="42"/>
       <c r="U108" s="42"/>
       <c r="V108" s="42"/>
@@ -67606,18 +67606,18 @@
         <v>2.8871395892988521E-2</v>
       </c>
       <c r="E109" s="38"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47"/>
       <c r="J109" s="42"/>
       <c r="K109" s="42"/>
       <c r="L109" s="42"/>
       <c r="M109" s="42"/>
-      <c r="P109" s="46"/>
-      <c r="Q109" s="46"/>
-      <c r="R109" s="46"/>
-      <c r="S109" s="46"/>
+      <c r="P109" s="47"/>
+      <c r="Q109" s="47"/>
+      <c r="R109" s="47"/>
+      <c r="S109" s="47"/>
       <c r="T109" s="42"/>
       <c r="U109" s="42"/>
       <c r="V109" s="42"/>
@@ -67637,18 +67637,18 @@
         <v>0.11107443259072623</v>
       </c>
       <c r="E110" s="38"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
       <c r="J110" s="42"/>
       <c r="K110" s="42"/>
       <c r="L110" s="42"/>
       <c r="M110" s="42"/>
-      <c r="P110" s="46"/>
-      <c r="Q110" s="46"/>
-      <c r="R110" s="46"/>
-      <c r="S110" s="46"/>
+      <c r="P110" s="47"/>
+      <c r="Q110" s="47"/>
+      <c r="R110" s="47"/>
+      <c r="S110" s="47"/>
       <c r="T110" s="42"/>
       <c r="U110" s="42"/>
       <c r="V110" s="42"/>
@@ -67668,20 +67668,20 @@
         <v>0.156520180875696</v>
       </c>
       <c r="E111" s="38"/>
-      <c r="F111" s="46" t="s">
+      <c r="F111" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="G111" s="46"/>
+      <c r="G111" s="47"/>
       <c r="H111" s="41"/>
       <c r="I111" s="42"/>
       <c r="J111" s="42"/>
       <c r="K111" s="42"/>
       <c r="L111" s="42"/>
       <c r="M111" s="42"/>
-      <c r="P111" s="46">
+      <c r="P111" s="47">
         <v>0.47099999999999997</v>
       </c>
-      <c r="Q111" s="46"/>
+      <c r="Q111" s="47"/>
       <c r="R111" s="41"/>
       <c r="S111" s="42"/>
       <c r="T111" s="42"/>
@@ -67703,26 +67703,26 @@
         <v>0.11515666384020352</v>
       </c>
       <c r="E112" s="38"/>
-      <c r="F112" s="46" t="s">
+      <c r="F112" s="47" t="s">
         <v>1285</v>
       </c>
-      <c r="G112" s="46"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="46"/>
-      <c r="J112" s="46"/>
-      <c r="K112" s="46"/>
-      <c r="L112" s="46"/>
-      <c r="M112" s="46"/>
-      <c r="P112" s="46">
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="47"/>
+      <c r="M112" s="47"/>
+      <c r="P112" s="47">
         <v>1.4801</v>
       </c>
-      <c r="Q112" s="46"/>
-      <c r="R112" s="46"/>
-      <c r="S112" s="46"/>
-      <c r="T112" s="46"/>
-      <c r="U112" s="46"/>
-      <c r="V112" s="46"/>
-      <c r="W112" s="46"/>
+      <c r="Q112" s="47"/>
+      <c r="R112" s="47"/>
+      <c r="S112" s="47"/>
+      <c r="T112" s="47"/>
+      <c r="U112" s="47"/>
+      <c r="V112" s="47"/>
+      <c r="W112" s="47"/>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="16" t="s">
@@ -67738,22 +67738,22 @@
         <v>3.2007554558297707E-2</v>
       </c>
       <c r="E113" s="38"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="46"/>
-      <c r="L113" s="46"/>
-      <c r="M113" s="46"/>
-      <c r="P113" s="46"/>
-      <c r="Q113" s="46"/>
-      <c r="R113" s="46"/>
-      <c r="S113" s="46"/>
-      <c r="T113" s="46"/>
-      <c r="U113" s="46"/>
-      <c r="V113" s="46"/>
-      <c r="W113" s="46"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="47"/>
+      <c r="K113" s="47"/>
+      <c r="L113" s="47"/>
+      <c r="M113" s="47"/>
+      <c r="P113" s="47"/>
+      <c r="Q113" s="47"/>
+      <c r="R113" s="47"/>
+      <c r="S113" s="47"/>
+      <c r="T113" s="47"/>
+      <c r="U113" s="47"/>
+      <c r="V113" s="47"/>
+      <c r="W113" s="47"/>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
@@ -67769,22 +67769,22 @@
         <v>1.8160353749677748E-2</v>
       </c>
       <c r="E114" s="38"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="46"/>
-      <c r="I114" s="46"/>
-      <c r="J114" s="46"/>
-      <c r="K114" s="46"/>
-      <c r="L114" s="46"/>
-      <c r="M114" s="46"/>
-      <c r="P114" s="46"/>
-      <c r="Q114" s="46"/>
-      <c r="R114" s="46"/>
-      <c r="S114" s="46"/>
-      <c r="T114" s="46"/>
-      <c r="U114" s="46"/>
-      <c r="V114" s="46"/>
-      <c r="W114" s="46"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="47"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="47"/>
+      <c r="K114" s="47"/>
+      <c r="L114" s="47"/>
+      <c r="M114" s="47"/>
+      <c r="P114" s="47"/>
+      <c r="Q114" s="47"/>
+      <c r="R114" s="47"/>
+      <c r="S114" s="47"/>
+      <c r="T114" s="47"/>
+      <c r="U114" s="47"/>
+      <c r="V114" s="47"/>
+      <c r="W114" s="47"/>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
@@ -67800,22 +67800,22 @@
         <v>2.4567310082680788E-2</v>
       </c>
       <c r="E115" s="38"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="46"/>
-      <c r="I115" s="46"/>
-      <c r="J115" s="46"/>
-      <c r="K115" s="46"/>
-      <c r="L115" s="46"/>
-      <c r="M115" s="46"/>
-      <c r="P115" s="46"/>
-      <c r="Q115" s="46"/>
-      <c r="R115" s="46"/>
-      <c r="S115" s="46"/>
-      <c r="T115" s="46"/>
-      <c r="U115" s="46"/>
-      <c r="V115" s="46"/>
-      <c r="W115" s="46"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="47"/>
+      <c r="K115" s="47"/>
+      <c r="L115" s="47"/>
+      <c r="M115" s="47"/>
+      <c r="P115" s="47"/>
+      <c r="Q115" s="47"/>
+      <c r="R115" s="47"/>
+      <c r="S115" s="47"/>
+      <c r="T115" s="47"/>
+      <c r="U115" s="47"/>
+      <c r="V115" s="47"/>
+      <c r="W115" s="47"/>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="16" t="s">
@@ -67831,22 +67831,22 @@
         <v>2.1828236695049533E-2</v>
       </c>
       <c r="E116" s="38"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="46"/>
-      <c r="I116" s="46"/>
-      <c r="J116" s="46"/>
-      <c r="K116" s="46"/>
-      <c r="L116" s="46"/>
-      <c r="M116" s="46"/>
-      <c r="P116" s="46"/>
-      <c r="Q116" s="46"/>
-      <c r="R116" s="46"/>
-      <c r="S116" s="46"/>
-      <c r="T116" s="46"/>
-      <c r="U116" s="46"/>
-      <c r="V116" s="46"/>
-      <c r="W116" s="46"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="47"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="47"/>
+      <c r="K116" s="47"/>
+      <c r="L116" s="47"/>
+      <c r="M116" s="47"/>
+      <c r="P116" s="47"/>
+      <c r="Q116" s="47"/>
+      <c r="R116" s="47"/>
+      <c r="S116" s="47"/>
+      <c r="T116" s="47"/>
+      <c r="U116" s="47"/>
+      <c r="V116" s="47"/>
+      <c r="W116" s="47"/>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
@@ -67862,22 +67862,22 @@
         <v>1.6243137558585665E-2</v>
       </c>
       <c r="E117" s="38"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="46"/>
-      <c r="I117" s="46"/>
-      <c r="J117" s="46"/>
-      <c r="K117" s="46"/>
-      <c r="L117" s="46"/>
-      <c r="M117" s="46"/>
-      <c r="P117" s="46"/>
-      <c r="Q117" s="46"/>
-      <c r="R117" s="46"/>
-      <c r="S117" s="46"/>
-      <c r="T117" s="46"/>
-      <c r="U117" s="46"/>
-      <c r="V117" s="46"/>
-      <c r="W117" s="46"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="47"/>
+      <c r="K117" s="47"/>
+      <c r="L117" s="47"/>
+      <c r="M117" s="47"/>
+      <c r="P117" s="47"/>
+      <c r="Q117" s="47"/>
+      <c r="R117" s="47"/>
+      <c r="S117" s="47"/>
+      <c r="T117" s="47"/>
+      <c r="U117" s="47"/>
+      <c r="V117" s="47"/>
+      <c r="W117" s="47"/>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
@@ -67893,22 +67893,22 @@
         <v>4.1306943007144395E-2</v>
       </c>
       <c r="E118" s="38"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="46"/>
-      <c r="I118" s="46"/>
-      <c r="J118" s="46"/>
-      <c r="K118" s="46"/>
-      <c r="L118" s="46"/>
-      <c r="M118" s="46"/>
-      <c r="P118" s="46"/>
-      <c r="Q118" s="46"/>
-      <c r="R118" s="46"/>
-      <c r="S118" s="46"/>
-      <c r="T118" s="46"/>
-      <c r="U118" s="46"/>
-      <c r="V118" s="46"/>
-      <c r="W118" s="46"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="47"/>
+      <c r="I118" s="47"/>
+      <c r="J118" s="47"/>
+      <c r="K118" s="47"/>
+      <c r="L118" s="47"/>
+      <c r="M118" s="47"/>
+      <c r="P118" s="47"/>
+      <c r="Q118" s="47"/>
+      <c r="R118" s="47"/>
+      <c r="S118" s="47"/>
+      <c r="T118" s="47"/>
+      <c r="U118" s="47"/>
+      <c r="V118" s="47"/>
+      <c r="W118" s="47"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
@@ -67924,22 +67924,22 @@
         <v>3.0402175770454318E-2</v>
       </c>
       <c r="E119" s="38"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="46"/>
-      <c r="J119" s="46"/>
-      <c r="K119" s="46"/>
-      <c r="L119" s="46"/>
-      <c r="M119" s="46"/>
-      <c r="P119" s="46"/>
-      <c r="Q119" s="46"/>
-      <c r="R119" s="46"/>
-      <c r="S119" s="46"/>
-      <c r="T119" s="46"/>
-      <c r="U119" s="46"/>
-      <c r="V119" s="46"/>
-      <c r="W119" s="46"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="47"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="47"/>
+      <c r="P119" s="47"/>
+      <c r="Q119" s="47"/>
+      <c r="R119" s="47"/>
+      <c r="S119" s="47"/>
+      <c r="T119" s="47"/>
+      <c r="U119" s="47"/>
+      <c r="V119" s="47"/>
+      <c r="W119" s="47"/>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
@@ -67955,22 +67955,22 @@
         <v>1.9499633186996372E-2</v>
       </c>
       <c r="E120" s="38"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="46"/>
-      <c r="J120" s="46"/>
-      <c r="K120" s="46"/>
-      <c r="L120" s="46"/>
-      <c r="M120" s="46"/>
-      <c r="P120" s="46"/>
-      <c r="Q120" s="46"/>
-      <c r="R120" s="46"/>
-      <c r="S120" s="46"/>
-      <c r="T120" s="46"/>
-      <c r="U120" s="46"/>
-      <c r="V120" s="46"/>
-      <c r="W120" s="46"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="47"/>
+      <c r="I120" s="47"/>
+      <c r="J120" s="47"/>
+      <c r="K120" s="47"/>
+      <c r="L120" s="47"/>
+      <c r="M120" s="47"/>
+      <c r="P120" s="47"/>
+      <c r="Q120" s="47"/>
+      <c r="R120" s="47"/>
+      <c r="S120" s="47"/>
+      <c r="T120" s="47"/>
+      <c r="U120" s="47"/>
+      <c r="V120" s="47"/>
+      <c r="W120" s="47"/>
     </row>
     <row r="121" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
@@ -67986,20 +67986,20 @@
         <v>0.11688084490433973</v>
       </c>
       <c r="E121" s="38"/>
-      <c r="F121" s="46" t="s">
+      <c r="F121" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="G121" s="46"/>
+      <c r="G121" s="47"/>
       <c r="H121" s="41"/>
       <c r="I121" s="42"/>
       <c r="J121" s="42"/>
       <c r="K121" s="42"/>
       <c r="L121" s="42"/>
       <c r="M121" s="42"/>
-      <c r="P121" s="46">
+      <c r="P121" s="47">
         <v>0.68469999999999998</v>
       </c>
-      <c r="Q121" s="46"/>
+      <c r="Q121" s="47"/>
       <c r="R121" s="41"/>
       <c r="S121" s="42"/>
       <c r="T121" s="42"/>
@@ -68021,16 +68021,16 @@
         <v>7.8787256388932261E-2</v>
       </c>
       <c r="E122" s="38"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
       <c r="H122" s="41"/>
       <c r="I122" s="42"/>
       <c r="J122" s="42"/>
       <c r="K122" s="42"/>
       <c r="L122" s="42"/>
       <c r="M122" s="42"/>
-      <c r="P122" s="46"/>
-      <c r="Q122" s="46"/>
+      <c r="P122" s="47"/>
+      <c r="Q122" s="47"/>
       <c r="R122" s="41"/>
       <c r="S122" s="42"/>
       <c r="T122" s="42"/>
@@ -68052,21 +68052,21 @@
         <v>0.54639777179267501</v>
       </c>
       <c r="E123" s="38"/>
-      <c r="F123" s="46" t="s">
+      <c r="F123" s="47" t="s">
         <v>1286</v>
       </c>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="47"/>
       <c r="I123" s="42"/>
       <c r="J123" s="42"/>
       <c r="K123" s="42"/>
       <c r="L123" s="42"/>
       <c r="M123" s="42"/>
-      <c r="P123" s="46">
+      <c r="P123" s="47">
         <v>2.5407000000000002</v>
       </c>
-      <c r="Q123" s="46"/>
-      <c r="R123" s="46"/>
+      <c r="Q123" s="47"/>
+      <c r="R123" s="47"/>
       <c r="S123" s="42"/>
       <c r="T123" s="42"/>
       <c r="U123" s="42"/>
@@ -68087,17 +68087,17 @@
         <v>9.0714901749510326E-3</v>
       </c>
       <c r="E124" s="38"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
       <c r="I124" s="42"/>
       <c r="J124" s="42"/>
       <c r="K124" s="42"/>
       <c r="L124" s="42"/>
       <c r="M124" s="42"/>
-      <c r="P124" s="46"/>
-      <c r="Q124" s="46"/>
-      <c r="R124" s="46"/>
+      <c r="P124" s="47"/>
+      <c r="Q124" s="47"/>
+      <c r="R124" s="47"/>
       <c r="S124" s="42"/>
       <c r="T124" s="42"/>
       <c r="U124" s="42"/>
@@ -68118,21 +68118,21 @@
         <v>4.5034251614930309E-3</v>
       </c>
       <c r="E125" s="38"/>
-      <c r="F125" s="46" t="s">
+      <c r="F125" s="47" t="s">
         <v>1287</v>
       </c>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
       <c r="I125" s="42"/>
       <c r="J125" s="42"/>
       <c r="K125" s="42"/>
       <c r="L125" s="42"/>
       <c r="M125" s="42"/>
-      <c r="P125" s="46">
+      <c r="P125" s="47">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="Q125" s="46"/>
-      <c r="R125" s="46"/>
+      <c r="Q125" s="47"/>
+      <c r="R125" s="47"/>
       <c r="S125" s="42"/>
       <c r="T125" s="42"/>
       <c r="U125" s="42"/>
@@ -68153,17 +68153,17 @@
         <v>1.3118695924583489E-3</v>
       </c>
       <c r="E126" s="38"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="47"/>
       <c r="I126" s="42"/>
       <c r="J126" s="42"/>
       <c r="K126" s="42"/>
       <c r="L126" s="42"/>
       <c r="M126" s="42"/>
-      <c r="P126" s="46"/>
-      <c r="Q126" s="46"/>
-      <c r="R126" s="46"/>
+      <c r="P126" s="47"/>
+      <c r="Q126" s="47"/>
+      <c r="R126" s="47"/>
       <c r="S126" s="42"/>
       <c r="T126" s="42"/>
       <c r="U126" s="42"/>
@@ -68184,21 +68184,21 @@
         <v>0.30050749676600241</v>
       </c>
       <c r="E127" s="38"/>
-      <c r="F127" s="46" t="s">
+      <c r="F127" s="47" t="s">
         <v>1288</v>
       </c>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="47"/>
       <c r="I127" s="42"/>
       <c r="J127" s="42"/>
       <c r="K127" s="42"/>
       <c r="L127" s="42"/>
       <c r="M127" s="42"/>
-      <c r="P127" s="46">
+      <c r="P127" s="47">
         <v>1.4917</v>
       </c>
-      <c r="Q127" s="46"/>
-      <c r="R127" s="46"/>
+      <c r="Q127" s="47"/>
+      <c r="R127" s="47"/>
       <c r="S127" s="42"/>
       <c r="T127" s="42"/>
       <c r="U127" s="42"/>
@@ -68219,17 +68219,17 @@
         <v>7.203340903643056E-2</v>
       </c>
       <c r="E128" s="38"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="46"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
       <c r="I128" s="42"/>
       <c r="J128" s="42"/>
       <c r="K128" s="42"/>
       <c r="L128" s="42"/>
       <c r="M128" s="42"/>
-      <c r="P128" s="46"/>
-      <c r="Q128" s="46"/>
-      <c r="R128" s="46"/>
+      <c r="P128" s="47"/>
+      <c r="Q128" s="47"/>
+      <c r="R128" s="47"/>
       <c r="S128" s="42"/>
       <c r="T128" s="42"/>
       <c r="U128" s="42"/>
@@ -68250,22 +68250,22 @@
         <v>5.1895231880162158E-2</v>
       </c>
       <c r="E129" s="38"/>
-      <c r="F129" s="46" t="s">
+      <c r="F129" s="47" t="s">
         <v>1289</v>
       </c>
-      <c r="G129" s="46"/>
-      <c r="H129" s="46"/>
-      <c r="I129" s="46"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
       <c r="J129" s="42"/>
       <c r="K129" s="42"/>
       <c r="L129" s="42"/>
       <c r="M129" s="42"/>
-      <c r="P129" s="46">
+      <c r="P129" s="47">
         <v>1.3724000000000001</v>
       </c>
-      <c r="Q129" s="46"/>
-      <c r="R129" s="46"/>
-      <c r="S129" s="46"/>
+      <c r="Q129" s="47"/>
+      <c r="R129" s="47"/>
+      <c r="S129" s="47"/>
       <c r="T129" s="42"/>
       <c r="U129" s="42"/>
       <c r="V129" s="42"/>
@@ -68285,18 +68285,18 @@
         <v>0.18892143551436213</v>
       </c>
       <c r="E130" s="38"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="46"/>
-      <c r="I130" s="46"/>
+      <c r="F130" s="47"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="47"/>
+      <c r="I130" s="47"/>
       <c r="J130" s="42"/>
       <c r="K130" s="42"/>
       <c r="L130" s="42"/>
       <c r="M130" s="42"/>
-      <c r="P130" s="46"/>
-      <c r="Q130" s="46"/>
-      <c r="R130" s="46"/>
-      <c r="S130" s="46"/>
+      <c r="P130" s="47"/>
+      <c r="Q130" s="47"/>
+      <c r="R130" s="47"/>
+      <c r="S130" s="47"/>
       <c r="T130" s="42"/>
       <c r="U130" s="42"/>
       <c r="V130" s="42"/>
@@ -68316,18 +68316,18 @@
         <v>2.3816090572351397E-2</v>
       </c>
       <c r="E131" s="38"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="46"/>
-      <c r="I131" s="46"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="47"/>
       <c r="J131" s="42"/>
       <c r="K131" s="42"/>
       <c r="L131" s="42"/>
       <c r="M131" s="42"/>
-      <c r="P131" s="46"/>
-      <c r="Q131" s="46"/>
-      <c r="R131" s="46"/>
-      <c r="S131" s="46"/>
+      <c r="P131" s="47"/>
+      <c r="Q131" s="47"/>
+      <c r="R131" s="47"/>
+      <c r="S131" s="47"/>
       <c r="T131" s="42"/>
       <c r="U131" s="42"/>
       <c r="V131" s="42"/>
@@ -68347,18 +68347,18 @@
         <v>4.0379326736203328E-2</v>
       </c>
       <c r="E132" s="38"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="46"/>
-      <c r="I132" s="46"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47"/>
+      <c r="I132" s="47"/>
       <c r="J132" s="42"/>
       <c r="K132" s="42"/>
       <c r="L132" s="42"/>
       <c r="M132" s="42"/>
-      <c r="P132" s="46"/>
-      <c r="Q132" s="46"/>
-      <c r="R132" s="46"/>
-      <c r="S132" s="46"/>
+      <c r="P132" s="47"/>
+      <c r="Q132" s="47"/>
+      <c r="R132" s="47"/>
+      <c r="S132" s="47"/>
       <c r="T132" s="42"/>
       <c r="U132" s="42"/>
       <c r="V132" s="42"/>
@@ -68378,21 +68378,21 @@
         <v>0.118598333757931</v>
       </c>
       <c r="E133" s="38"/>
-      <c r="F133" s="46" t="s">
+      <c r="F133" s="47" t="s">
         <v>1290</v>
       </c>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="47"/>
       <c r="I133" s="42"/>
       <c r="J133" s="42"/>
       <c r="K133" s="42"/>
       <c r="L133" s="42"/>
       <c r="M133" s="42"/>
-      <c r="P133" s="46">
+      <c r="P133" s="47">
         <v>0.42809999999999998</v>
       </c>
-      <c r="Q133" s="46"/>
-      <c r="R133" s="46"/>
+      <c r="Q133" s="47"/>
+      <c r="R133" s="47"/>
       <c r="S133" s="42"/>
       <c r="T133" s="42"/>
       <c r="U133" s="42"/>
@@ -72613,26 +72613,41 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="F11:L17"/>
-    <mergeCell ref="F7:H9"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F25:J28"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:H93"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:I33"/>
-    <mergeCell ref="F34:I37"/>
-    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="P123:R124"/>
+    <mergeCell ref="P125:R126"/>
+    <mergeCell ref="P127:R128"/>
+    <mergeCell ref="P129:S132"/>
+    <mergeCell ref="P133:R133"/>
+    <mergeCell ref="P101:S105"/>
+    <mergeCell ref="P106:S110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="P112:W120"/>
+    <mergeCell ref="P121:Q122"/>
+    <mergeCell ref="P67:W89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:R93"/>
+    <mergeCell ref="P94:W98"/>
+    <mergeCell ref="P99:Q100"/>
+    <mergeCell ref="P39:W39"/>
+    <mergeCell ref="P40:W40"/>
+    <mergeCell ref="P41:W42"/>
+    <mergeCell ref="P43:W56"/>
+    <mergeCell ref="P57:W66"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:S33"/>
+    <mergeCell ref="P34:S37"/>
+    <mergeCell ref="P38:W38"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="P25:T28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P7:R9"/>
+    <mergeCell ref="P11:V17"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
     <mergeCell ref="F133:H133"/>
     <mergeCell ref="F67:M89"/>
     <mergeCell ref="F57:M66"/>
@@ -72649,41 +72664,26 @@
     <mergeCell ref="F99:G100"/>
     <mergeCell ref="F101:I105"/>
     <mergeCell ref="F106:I110"/>
-    <mergeCell ref="P7:R9"/>
-    <mergeCell ref="P11:V17"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="P25:T28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:S33"/>
-    <mergeCell ref="P34:S37"/>
-    <mergeCell ref="P38:W38"/>
-    <mergeCell ref="P39:W39"/>
-    <mergeCell ref="P40:W40"/>
-    <mergeCell ref="P41:W42"/>
-    <mergeCell ref="P43:W56"/>
-    <mergeCell ref="P57:W66"/>
-    <mergeCell ref="P67:W89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:R93"/>
-    <mergeCell ref="P94:W98"/>
-    <mergeCell ref="P99:Q100"/>
-    <mergeCell ref="P101:S105"/>
-    <mergeCell ref="P106:S110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="P112:W120"/>
-    <mergeCell ref="P121:Q122"/>
-    <mergeCell ref="P123:R124"/>
-    <mergeCell ref="P125:R126"/>
-    <mergeCell ref="P127:R128"/>
-    <mergeCell ref="P129:S132"/>
-    <mergeCell ref="P133:R133"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:H93"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="F34:I37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F25:J28"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="F11:L17"/>
+    <mergeCell ref="F7:H9"/>
+    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <conditionalFormatting sqref="B174:B175 B185">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
